--- a/tools/nist/nist-csf-2.0.xlsx
+++ b/tools/nist/nist-csf-2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/nist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536B3503-9798-0840-B4C1-D5FF575E1EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F8D54D-DB1F-F245-8ACE-02CC0E5F4F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="448">
   <si>
     <t>assessable</t>
   </si>
@@ -1762,6 +1762,12 @@
 The organization adapts its cybersecurity practices based on previous and current cybersecurity activities, including lessons learned and predictive indicators. Through a process of continuous improvement that incorporates advanced cybersecurity technologies and practices, the organization actively adapts to a changing technological landscape and responds in a timely and effective manner to evolving, sophisticated threats.
 The organization uses real-time or near real-time information to understand and consistently act upon the cybersecurity risks associated with its suppliers and the products and services it acquires and uses.
 Cybersecurity information is constantly shared throughout the organization and with authorized third parties.</t>
+  </si>
+  <si>
+    <t>framework_min_score</t>
+  </si>
+  <si>
+    <t>framework_max_score</t>
   </si>
 </sst>
 </file>
@@ -2107,10 +2113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6663DDE6-1E5F-334B-86D6-FF0D04872286}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="231" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2133,7 +2139,7 @@
         <v>410</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2226,23 +2232,39 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>428</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C14" t="s">
-        <v>430</v>
+        <v>446</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>447</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>428</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C16" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>428</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5330,7 +5352,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/tools/nist/nist-csf-2.0.xlsx
+++ b/tools/nist/nist-csf-2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/nist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F8D54D-DB1F-F245-8ACE-02CC0E5F4F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281461DE-1E16-C742-BEE4-DFA0D2BC03A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -1732,42 +1732,26 @@
     <t>Adaptive</t>
   </si>
   <si>
+    <t>framework_min_score</t>
+  </si>
+  <si>
+    <t>framework_max_score</t>
+  </si>
+  <si>
     <t>Application of the organizational cybersecurity risk strategy is managed in an ad hoc manner.
-Prioritization is ad hoc and not formally based on objectives or threat environment.
-There is limited awareness of cybersecurity risks at the organizational level.
-The organization implements cybersecurity risk management on an irregular, case-by-case basis.
-The organization may not have processes that enable cybersecurity information to be shared within the organization.
-The organization is generally unaware of the cybersecurity risks associated with its suppliers and the products and services it acquires and uses.</t>
+There is limited awareness of cybersecurity risks at the organizational level.</t>
   </si>
   <si>
     <t>Risk management practices are approved by management but may not be established as organization-wide policy.
-The prioritization of cybersecurity activities and protection needs is directly informed by organizational risk objectives, the threat environment, or business/mission requirements.
-There is an awareness of cybersecurity risks at the organizational level, but an organization-wide approach to managing cybersecurity risks has not been established.
-Consideration of cybersecurity in organizational objectives and programs may occur at some but not all levels of the organization. Cyber risk assessment of organizational and external assets occurs but is not typically repeatable or reoccurring.
-Cybersecurity information is shared within the organization on an informal basis.
-The organization is aware of the cybersecurity risks associated with its suppliers and the products and services it acquires and uses, but it does not act consistently or formally in response to those risks.</t>
-  </si>
-  <si>
-    <t>The organization’s risk management practices are formally approved and expressed as policy. 
-Risk-informed policies, processes, and procedures are defined, implemented as intended, and reviewed.
-Organizational cybersecurity practices are regularly updated based on the application of risk management processes to changes in business/mission requirements, threats, and technological landscape.
-There is an organization-wide approach to managing cybersecurity risks. Cybersecurity information is routinely shared throughout the organization.
-Consistent methods are in place to respond effectively to changes in risk. Personnel possess the knowledge and skills to perform their appointed roles and responsibilities.
-The organization consistently and accurately monitors the cybersecurity risks of assets. Senior cybersecurity and non-cybersecurity executives communicate regularly regarding cybersecurity risks. Executives ensure that cybersecurity is considered through all lines of operation in the organization.
-The organization risk strategy is informed by the cybersecurity risks associated with its suppliers and the products and services it acquires and uses. Personnel formally act upon those risks through mechanisms such as written agreements to communicate baseline requirements, governance structures (e.g., risk councils), and policy implementation and monitoring. These actions are implemented consistently and as intended and are continuously monitored and reviewed.</t>
-  </si>
-  <si>
-    <t>There is an organization-wide approach to managing cybersecurity risks that uses risk-informed policies, processes, and procedures to address potential cybersecurity events. The relationship between cybersecurity risks and organizational objectives is clearly understood and considered when making decisions. Executives monitor cybersecurity risks in the same context as financial and other organizational risks. The organizational budget is based on an understanding of the current and predicted risk environment and risk tolerance. Business units implement executive vision and analyze system-level risks in the context of the organizational risk tolerances.
-Cybersecurity risk management is part of the organizational culture. It evolves from an awareness of previous activities and continuous awareness of activities on organizational systems and networks. The organization can quickly and efficiently account for changes to business/mission objectives in how risk is approached and communicated.
-The organization adapts its cybersecurity practices based on previous and current cybersecurity activities, including lessons learned and predictive indicators. Through a process of continuous improvement that incorporates advanced cybersecurity technologies and practices, the organization actively adapts to a changing technological landscape and responds in a timely and effective manner to evolving, sophisticated threats.
-The organization uses real-time or near real-time information to understand and consistently act upon the cybersecurity risks associated with its suppliers and the products and services it acquires and uses.
-Cybersecurity information is constantly shared throughout the organization and with authorized third parties.</t>
-  </si>
-  <si>
-    <t>framework_min_score</t>
-  </si>
-  <si>
-    <t>framework_max_score</t>
+There is an awareness of cybersecurity risks at the organizational level, but an organization-wide approach to managing cybersecurity risks has not been established.</t>
+  </si>
+  <si>
+    <t>The organization’s risk management practices are formally approved and expressed as policy.
+Organizational cybersecurity practices are regularly updated based on the application of risk management processes to changes in business/mission requirements, threats, and technological landscape.</t>
+  </si>
+  <si>
+    <t>There is an organization-wide approach to managing cybersecurity risks that uses risk-informed policies, processes, and procedures to address potential cybersecurity events.
+The organization adapts its cybersecurity practices based on previous and current cybersecurity activities, including lessons learned and predictive indicators.</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6663DDE6-1E5F-334B-86D6-FF0D04872286}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="231" workbookViewId="0">
+    <sheetView zoomScale="231" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2232,7 +2216,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -2240,7 +2224,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
@@ -5351,8 +5335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2A9460-ABFE-D94A-A339-D6A58073F6E8}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5372,7 +5356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5380,10 +5364,10 @@
         <v>439</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="160" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5391,10 +5375,10 @@
         <v>440</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="240" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5402,10 +5386,10 @@
         <v>438</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="224" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5413,7 +5397,7 @@
         <v>441</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">

--- a/tools/nist/nist-csf-2.0.xlsx
+++ b/tools/nist/nist-csf-2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/nist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D856B2DF-84FE-3A43-864D-5C57AFC3DBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FDF226-932B-4C4B-9F65-73188013069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="35840" windowHeight="20360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="995">
   <si>
     <t>assessable</t>
   </si>
@@ -1789,9 +1789,6 @@
 L’organisation adapte ses pratiques cybersécurité en fonction des activités passées et présentes, y compris les retours d’expérience et les indicateurs prédictifs.</t>
   </si>
   <si>
-    <t>Annotation</t>
-  </si>
-  <si>
     <t>GOUVERNER</t>
   </si>
   <si>
@@ -1910,13 +1907,2272 @@
   </si>
   <si>
     <t>Les processus de gestion des risques de la chaîne d’approvisionnement en matière de cybersécurité sont identifiés, établis, gérés, surveillés et améliorés par les parties prenantes de l’organisation</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Partagez la mission de l'organisation (par exemple, par le biais d'énoncés de vision et de mission, de stratégies de marketing et de service) afin de fournir une base pour identifier les risques qui peuvent entraver cette mission</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Déterminer les intervenants internes pertinents et leurs attentes en matière de cybersécurité (p. ex., attentes en matière de rendement et de risque des dirigeants, des administrateurs et des conseillers ; attentes culturelles des employés)
+Ex2 : Identifier les parties prenantes externes pertinentes et leurs attentes en matière de cybersécurité (p. ex., attentes des clients en matière de protection de la vie privée, attentes opérationnelles des partenariats, attentes des organismes de réglementation en matière de conformité, attentes de la société en matière d'éthique)</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Déterminer un processus de suivi et de gestion des exigences légales et réglementaires concernant la protection des informations des individus (par exemple, Health Insurance Portability and Accountability Act, California Consumer Privacy Act, General Data Protection Regulation)
+Ex2 : Déterminer un processus de suivi et de gestion des exigences contractuelles pour la gestion de la cybersécurité des informations sur les fournisseurs, les clients et les partenaires
+Ex3 : Aligner la stratégie de cybersécurité de l'organisation sur les exigences légales, réglementaires et contractuelles</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Établir des critères pour déterminer la criticité des capacités et des services selon les intervenants internes et externes
+Ex2 : Déterminer (p. ex., à partir d'une analyse d'impact sur les activités) les actifs et les opérations commerciales qui sont essentiels à l'atteinte des objectifs de la mission et l'impact potentiel d'une perte (ou d'une perte partielle) de ces opérations
+Ex3 : Établir et communiquer des objectifs de résilience (par exemple, des objectifs de temps de récupération) pour fournir des capacités et des services critiques dans divers états de fonctionnement (par exemple, en cas d'attaque, pendant la récupération, en fonctionnement normal)</t>
+  </si>
+  <si>
+    <t>Ex1 : Créer un inventaire des dépendances de l'organisation vis-à-vis des ressources externes (par exemple, installations, fournisseurs d'hébergement basés sur le cloud) et de leurs relations avec les actifs et les fonctions commerciales de l'organisation
+Ex2 : Identifier et documenter les dépendances externes qui sont des points de défaillance potentiels pour les capacités et les services critiques de l'organisation, et partager ces informations avec le personnel approprié
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Mettre à jour les objectifs de gestion des risques de cybersécurité à court et à long terme dans le cadre de la planification stratégique annuelle et lorsque des changements majeurs se produisent
+Ex2 : Établir des objectifs mesurables pour la gestion des risques de cybersécurité (par exemple, gérer la qualité de la formation des utilisateurs, assurer une protection adéquate contre les risques pour les systèmes de contrôle industriel)
+Ex3 : Les hauts dirigeants s'entendent sur les objectifs de cybersécurité et les utilisent pour mesurer et gérer les risques et les performances</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Déterminer et communiquer des énoncés de propension au risque qui expriment les attentes concernant le niveau de risque approprié pour l'organisation
+Ex2 : Traduire les déclarations d'appétit pour le risque en déclarations de tolérance au risque spécifiques, mesurables et largement compréhensibles
+Ex3 : Affiner périodiquement les objectifs organisationnels et l'appétit pour le risque en fonction de l'exposition au risque connue et du risque résiduel</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Regrouper et gérer les risques de cybersécurité en même temps que d'autres risques d'entreprise (par exemple, conformité, finances, opérations, réglementation, réputation, sécurité)
+Ex2 : Inclure les gestionnaires des risques de cybersécurité dans la planification de la gestion des risques d'entreprise
+Ex3 : Établir des critères pour l'escalade des risques de cybersécurité dans le cadre de la gestion des risques d'entreprise</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Spécifier les critères d'acceptation et d'évitement du risque de cybersécurité pour diverses classifications de données
+Ex2 : Déterminer s'il faut souscrire une assurance cybersécurité
+Ex3 : Documenter les conditions dans lesquelles les modèles de responsabilité partagée sont acceptables (p. ex., externalisation de certaines fonctions de cybersécurité, confiage d'opérations financières par un tiers au nom de l'organisation, utilisation de services basés sur le nuage public)</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Déterminer comment mettre à jour les cadres supérieurs, les directeurs et la direction sur la posture de cybersécurité de l'organisation à intervalles convenus
+Ex2 : Identifiez comment tous les services de l'organisation, tels que la direction, les opérations, les auditeurs internes, les services juridiques, les acquisitions, la sécurité physique et les RH, communiqueront entre eux sur les risques de cybersécurité</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Établir des critères d'utilisation d'une approche quantitative pour l'analyse des risques de cybersécurité et spécifier les formules de probabilité et d'exposition
+Ex2 : Créer et utiliser des modèles (p. ex., un registre des risques) pour documenter les informations sur les risques de cybersécurité (p. ex., description du risque, exposition, traitement et propriété)
+Ex3 : Établir des critères de hiérarchisation des risques aux niveaux appropriés au sein de l'entreprise
+Ex4 : Utiliser une liste cohérente de catégories de risques pour prendre en charge l'intégration, l'agrégation et la comparaison des risques de cybersécurité</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Définir et communiquer des directives et des méthodes pour identifier les opportunités et les inclure dans les discussions sur les risques (par exemple, analyse des forces, des faiblesses, des opportunités et des menaces [SWOT])
+Ex2 : Identifiez les objectifs ambitieux et documentez-les
+Ex3 : Calculer, documenter et hiérarchiser les risques positifs par rapport aux risques négatifs</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Les dirigeants (p. ex., les directeurs) s'entendent sur leurs rôles et responsabilités dans l'élaboration, la mise en œuvre et l'évaluation de la stratégie de cybersécurité de l'organisation.
+Ex2 : Partager les attentes des dirigeants concernant une culture de sécurité et d'éthique, en particulier lorsque l'actualité offre l'occasion de mettre en évidence des exemples positifs ou négatifs de gestion des risques de cybersécurité
+Ex3 : Les dirigeants demandent au RSSI de maintenir une stratégie complète de gestion des risques de cybersécurité, puis de l'examiner et de la mettre à jour au moins une fois par an et après des événements majeurs.
+Ex4 : Effectuer des examens pour s'assurer que les responsables de la gestion des risques liés à la cybersécurité disposent d'une autorité et d'une coordination adéquates.</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Documenter les rôles et les responsabilités en matière de gestion des risques dans la politique
+Ex2 : Documenter qui est responsable des activités de gestion des risques de cybersécurité et comment ces équipes et ces personnes doivent être consultées et informées.
+Ex3 : Inclure les responsabilités en matière de cybersécurité et les exigences de performance dans les descriptions du personnel
+Ex4 : Documenter les objectifs de performance du personnel ayant des responsabilités en matière de gestion des risques de cybersécurité et mesurer périodiquement le rendement pour identifier les domaines à améliorer
+Ex5 : Énoncer clairement les responsabilités en matière de cybersécurité au sein des opérations, des fonctions de risque et des fonctions d'audit interne</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Effectuer des examens de gestion périodiques pour s'assurer que les personnes chargées de la gestion des risques de cybersécurité ont l'autorité nécessaire
+Ex2 : Déterminer l'allocation des ressources et l'investissement en fonction de la tolérance au risque et de la réponse
+Ex3 : Fournir des personnes, des processus et des ressources techniques adéquats et suffisants pour soutenir la stratégie de cybersécurité</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Intégrer les considérations de gestion des risques de cybersécurité dans les processus de ressources humaines (p. ex., vérification du personnel, intégration, notification des changements, départ)
+Ex2 : Considérer les connaissances en cybersécurité comme un facteur positif dans les décisions d'embauche, de formation et de rétention
+Ex3 : Effectuer des vérifications des antécédents avant d'intégrer de nouveaux employés pour des rôles sensibles, et répéter périodiquement les vérifications des antécédents du personnel ayant de tels rôles
+Ex4 : Définir et faire respecter les obligations du personnel en matière de connaissances, d'adhésion et de respect des politiques de sécurité liées à leurs rôles</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Créer, diffuser et tenir à jour une politique de gestion des risques compréhensible et utilisable avec des énoncés d'intention, d'attentes et d'orientation de la direction
+Ex2 : Examiner périodiquement les politiques et les processus et procédures de soutien pour s'assurer qu'ils s'harmonisent avec les objectifs et les priorités de la stratégie de gestion des risques, ainsi qu'avec l'orientation générale de la politique de cybersécurité
+Ex3 : Exiger l'approbation de la haute direction sur la politique
+Ex4 : Communiquer la politique de gestion des risques de cybersécurité et les processus et procédures de soutien à l'échelle de l'organisation
+Ex5 : Exiger que le personnel accuse réception de la politique lors de son embauche, chaque année et chaque fois que la politique est mise à jour</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Mettre à jour la politique en fonction des examens périodiques des résultats de la gestion des risques de cybersécurité pour s'assurer que la politique et les processus et procédures connexes maintiennent adéquatement le risque à un niveau acceptable.
+Ex2 : Fournir un calendrier pour l'examen des changements apportés à l'environnement de risque de l'organisation (p. ex., changements dans le risque ou dans les objectifs de la mission de l'organisation) et communiquer les mises à jour de politique recommandées
+Ex3 : Mettre à jour la politique pour tenir compte des changements apportés aux exigences légales et réglementaires
+Ex4 : Mettre à jour la politique pour tenir compte des changements technologiques (p. ex., adoption de l'intelligence artificielle) et des changements apportés à l'entreprise (p. ex., acquisition d'une nouvelle entreprise, nouvelles exigences contractuelles)</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Mesurer dans quelle mesure la stratégie de gestion des risques et les résultats des risques ont aidé les dirigeants à prendre des décisions et à atteindre les objectifs organisationnels
+Ex2 : Examiner si les stratégies de risque de cybersécurité qui entravent les opérations ou l'innovation doivent être ajustées</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Examiner les résultats de l'audit pour confirmer si la stratégie de cybersécurité existante a assuré la conformité aux exigences internes et externes.
+Ex2 : Examiner la surveillance du rendement des personnes occupant des rôles liés à la cybersécurité afin de déterminer si des changements de politique sont nécessaires
+Ex3 : Revoir la stratégie à la lumière des incidents de cybersécurité</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Examiner les indicateurs clés de performance (IRC) pour s'assurer que les politiques et procédures à l'échelle de l'organisation atteignent les objectifs
+Ex2 : Examiner les indicateurs de risque clés (KRI) pour identifier les risques auxquels l'organisation est confrontée, y compris la probabilité et l'impact potentiel
+Ex3 : Recueillir et communiquer des mesures sur la gestion des risques de cybersécurité avec la haute direction</t>
+  </si>
+  <si>
+    <t>Ex1 : Établir une stratégie qui exprime les objectifs du programme de gestion des risques de la chaîne d'approvisionnement en cybersécurité
+Ex2 : Élaborer le programme de gestion des risques de la chaîne d'approvisionnement en cybersécurité, y compris un plan (avec des jalons), des politiques et des procédures qui guident la mise en œuvre et l'amélioration du programme, et partager les politiques et les procédures avec les parties prenantes de l'organisation.
+Ex3 : Élaborer et mettre en œuvre des processus de programme fondés sur la stratégie, les objectifs, les politiques et les procédures qui sont convenus et mis en œuvre par les intervenants de l'organisation.
+Ex4 : Établir un mécanisme interorganisationnel qui assure l'harmonisation entre les fonctions qui contribuent à la gestion des risques de la chaîne d'approvisionnement en cybersécurité, telles que la cybersécurité, les TI, les opérations, les services juridiques, les ressources humaines et l'ingénierie
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Identifier un ou plusieurs rôles ou postes spécifiques qui seront responsables de la planification, de l'approvisionnement et de l'exécution des activités de gestion des risques de la chaîne d'approvisionnement en cybersécurité
+Ex2 : Documenter les rôles et les responsabilités en matière de gestion des risques de la chaîne d'approvisionnement en cybersécurité dans la politique
+Ex3 : Créer des matrices de responsabilités pour documenter qui sera responsable des activités de gestion des risques de la chaîne d'approvisionnement en cybersécurité et comment ces équipes et ces personnes seront consultées et informées.
+Ex4 : Inclure les responsabilités en matière de gestion des risques de la chaîne d'approvisionnement en cybersécurité et les exigences de performance dans les descriptions du personnel afin d'assurer la clarté et d'améliorer la responsabilisation
+Ex5 : Documenter les objectifs de performance du personnel ayant des responsabilités spécifiques à la gestion des risques de cybersécurité, et les mesurer périodiquement pour démontrer et améliorer les performances
+Ex6 : Élaborer des rôles et des responsabilités pour les fournisseurs, les clients et les partenaires commerciaux afin de gérer les responsabilités partagées à l'égard des risques de cybersécurité applicables, et les intégrer aux politiques organisationnelles et aux ententes avec les tiers applicables.
+Ex7 : Communiquer à l'interne les rôles et responsabilités des tiers en matière de gestion des risques de la chaîne d'approvisionnement en matière de cybersécurité
+Ex8 : Établir des règles et des protocoles pour les processus d'échange d'information et de production de rapports entre l'organisation et ses fournisseurs
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Identifier les domaines d'alignement et de chevauchement avec la cybersécurité et la gestion des risques d'entreprise
+Ex2 : Établir des ensembles de contrôles intégrés pour la gestion des risques de cybersécurité et la gestion des risques de la chaîne d'approvisionnement en cybersécurité
+Ex3 : Intégrer la gestion des risques de la chaîne d'approvisionnement en cybersécurité dans les processus d'amélioration
+Ex4 : Faire remonter les risques de cybersécurité importants dans les chaînes d'approvisionnement à la direction générale et les aborder au niveau de la gestion des risques d'entreprise.
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Élaborer des critères de criticité des fournisseurs basés, par exemple, sur la sensibilité des données traitées ou détenues par les fournisseurs, le degré d'accès aux systèmes de l'organisation et l'importance des produits ou services pour la mission de l'organisation.
+Ex2 : Tenir un registre de tous les fournisseurs et hiérarchiser les fournisseurs en fonction des critères de criticité
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Établir des exigences de sécurité pour les fournisseurs, les produits et les services en fonction de leur niveau de criticité et de leur impact potentiel en cas de compromission
+Ex2 : Inclure toutes les exigences en matière de cybersécurité et de chaîne d'approvisionnement que les tiers doivent respecter et la manière dont la conformité aux exigences peut être vérifiée dans le langage contractuel par défaut
+Ex3 : Définir les règles et les protocoles d'échange d'information entre l'organisation et ses fournisseurs et fournisseurs de niveau inférieur dans les ententes
+Ex4 : Gérer les risques en incluant des exigences de sécurité dans les accords en fonction de leur criticité et de leur impact potentiel en cas de compromission
+Ex5 : Définir les exigences de sécurité dans les accords de niveau de service (SLA) pour surveiller les fournisseurs afin de s'assurer que les performances de sécurité sont acceptables tout au long du cycle de vie de la relation avec le fournisseur
+Ex6 : Exiger contractuellement des fournisseurs qu'ils divulguent les caractéristiques, les fonctions et les vulnérabilités de cybersécurité de leurs produits et services pendant la durée du produit ou la durée du service
+Ex7 : Exiger contractuellement des fournisseurs qu'ils fournissent et tiennent à jour un inventaire des composants (p. ex., nomenclature logicielle ou matérielle) pour les produits critiques.
+Ex8 : Exiger contractuellement des fournisseurs qu'ils vérifient leurs employés et se prémunissent contre les menaces internes
+Ex9 : Exiger contractuellement des fournisseurs qu'ils fournissent la preuve qu'ils appliquent des pratiques de sécurité acceptables, par exemple par le biais d'une auto-attestation, de la conformité à des normes connues, de certifications ou d'inspections
+Ex10 : Préciser dans les contrats et autres ententes les droits et responsabilités de l'organisation, de ses fournisseurs et de leurs chaînes d'approvisionnement en ce qui concerne les risques potentiels de cybersécurité
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Effectuer une diligence raisonnable approfondie sur les fournisseurs potentiels, conforme à la planification de l'approvisionnement et proportionnelle au niveau de risque, de criticité et de complexité de chaque relation avec le fournisseur
+Ex2 : Évaluer la pertinence de la technologie et des capacités de cybersécurité ainsi que les pratiques de gestion des risques des fournisseurs potentiels
+Ex3 : Effectuer des évaluations des risques liés aux fournisseurs par rapport aux exigences commerciales et de cybersécurité applicables
+Ex4 : Évaluer l'authenticité, l'intégrité et la sécurité des produits critiques avant l'acquisition et l'utilisation
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Ajuster les formats et les fréquences d'évaluation en fonction de la réputation du tiers et de la criticité des produits ou services qu'il fournit
+Ex2 : Évaluez les preuves de conformité des tiers aux exigences contractuelles en matière de cybersécurité, telles que les auto-attestations, les garanties, les certifications et autres artefacts
+Ex3 : Surveiller les fournisseurs critiques pour s'assurer qu'ils remplissent leurs obligations de sécurité tout au long du cycle de vie de la relation avec le fournisseur à l'aide de diverses méthodes et techniques, telles que des inspections, des audits, des tests ou d'autres formes d'évaluation
+Ex4 : Surveiller les fournisseurs, les services et les produits critiques pour détecter les modifications de leurs profils de risque, et réévaluer la criticité des fournisseurs et l'impact des risques en conséquence.
+Ex5 : Planifier les interruptions imprévues liées aux fournisseurs et à la chaîne d'approvisionnement pour assurer la continuité des activités
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Définir et utiliser des règles et des protocoles pour signaler les activités d'intervention et de récupération en cas d'incident et l'état d'avancement entre l'organisation et ses fournisseurs
+Ex2 : Identifier et documenter les rôles et les responsabilités de l'organisation et de ses fournisseurs en matière d'intervention en cas d'incident
+Ex3 : Inclure les fournisseurs critiques dans les exercices et les simulations de réponse aux incidents
+Ex4 : Définir et coordonner les méthodes et les protocoles de communication de crise entre l'organisation et ses fournisseurs critiques
+Ex5 : Organiser des sessions collaboratives sur les leçons apprises avec les fournisseurs critiques
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Les politiques et les procédures exigent des registres de provenance pour tous les produits et services technologiques acquis
+Ex2 : Fournir périodiquement des rapports sur les risques aux dirigeants sur la façon dont les composants acquis s'avèrent être intacts et authentiques
+Ex3 : Communiquer régulièrement entre les gestionnaires des risques de cybersécurité et le personnel d'exploitation sur la nécessité d'acquérir des correctifs, des mises à jour et des mises à niveau logicielles uniquement auprès de fournisseurs de logiciels authentifiés et dignes de confiance
+Ex4 : Examiner les politiques pour s'assurer qu'elles exigent que le personnel approuvé du fournisseur effectue l'entretien des produits du fournisseur
+Ex5 : Les politiques et procédures exigent la vérification des mises à niveau du matériel critique pour détecter les modifications non autorisées
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Établir des processus pour mettre fin aux relations critiques dans des circonstances normales et défavorables
+Ex2 : Définir et mettre en œuvre des plans de support de maintenance en fin de vie et d'obsolescence des composants
+Ex3 : Vérifiez que l'accès du fournisseur aux ressources de l'organisation est désactivé rapidement lorsqu'il n'est plus nécessaire
+Ex4 : Vérifier que les actifs contenant les données de l'organisation sont retournés ou éliminés correctement en temps opportun, de manière contrôlée et sûre
+Ex5 : Élaborer et exécuter un plan de résiliation ou de transition des relations avec les fournisseurs qui tient compte des risques de sécurité et de résilience de la chaîne d'approvisionnement
+Ex6 : Atténuer les risques pour les données et les systèmes créés par le licenciement d'un fournisseur
+Ex7 : Gérer les risques de fuite de données associés à la résiliation d'un fournisseur
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Tenir à jour des inventaires pour tous les types de matériel, y compris l'informatique, l'IoT, l'OT et les appareils mobiles
+Ex2 : Surveiller en permanence les réseaux pour détecter le nouveau matériel et mettre à jour automatiquement les inventaires</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Tenir à jour des inventaires pour tous les types de logiciels et de services, y compris les applications commerciales prêtes à l'emploi, les applications open source, les applications personnalisées, les services API et les applications et services basés sur le cloud
+Ex2 : Surveillez en permanence toutes les plateformes, y compris les conteneurs et les machines virtuelles, pour détecter les modifications de l'inventaire des logiciels et des services
+Ex3 : Tenir un inventaire des systèmes de l'organisation</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Maintenir les lignes de base de communication et les flux de données au sein des réseaux filaires et sans fil de l'organisation
+Ex2 : Maintenir des bases de référence pour la communication et les flux de données entre l'organisation et les tiers
+Ex3 : Maintenir les lignes de base de communication et les flux de données pour l'utilisation de l'infrastructure en tant que service (IaaS) de l'organisation
+Ex4 : Tenir à jour la documentation des ports, protocoles et services réseau attendus qui sont généralement utilisés par les systèmes autorisés</t>
+  </si>
+  <si>
+    <t>Ex1 : Inventorier tous les services externes utilisés par l'organisation, y compris les offres d'infrastructure en tant que service (IaaS), de plateforme en tant que service (PaaS) et de logiciel en tant que service (SaaS) ; Apis; et d'autres services applicatifs hébergés en externe
+Ex2 : Mettre à jour l'inventaire lorsqu'un nouveau service externe sera utilisé afin d'assurer une surveillance adéquate de la gestion des risques de cybersécurité de l'utilisation de ce service par l'organisation
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Définir les critères de priorisation de chaque classe d'actifs
+Ex2 : Appliquer les critères de priorisation aux actifs
+Ex3 : Suivre les priorités des actifs et les mettre à jour périodiquement ou lorsque des changements importants surviennent dans l'organisation</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Tenir à jour une liste des types de données d'intérêt désignés (p. ex., renseignements permettant d'identifier une personne, renseignements sur la santé protégés, numéros de compte financier, propriété intellectuelle de l'organisation, données sur la technologie opérationnelle)
+Ex2 : Découvrir et analyser en permanence des données ad hoc pour identifier de nouvelles instances de types de données désignés
+Ex3 : Attribuer des classifications de données à des types de données désignés par le biais de balises ou d'étiquettes
+Ex4 : Suivez la provenance, le propriétaire des données et la géolocalisation de chaque instance de types de données désignés</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Intégrer les considérations de cybersécurité tout au long du cycle de vie des systèmes, du matériel, des logiciels et des services
+Ex2 : Intégrer les considérations de cybersécurité dans le cycle de vie des produits
+Ex3 : Identifier les utilisations non officielles de la technologie pour atteindre les objectifs de la mission (c.-à-d. TI fantômes)
+Ex4 : Identifier périodiquement les systèmes, le matériel, les logiciels et les services redondants qui augmentent inutilement la surface d'attaque de l'organisation
+Ex5 : Configurer et sécuriser correctement les systèmes, le matériel, les logiciels et les services avant leur déploiement en production
+Ex6 : Mettre à jour les inventaires lorsque les systèmes, le matériel, les logiciels et les services sont déplacés ou transférés au sein de l'organisation
+Ex7 : Détruire en toute sécurité les données stockées conformément à la politique de conservation des données de l'organisation à l'aide de la méthode de destruction prescrite, et conserver et gérer un registre des destructions
+Ex8 : Nettoyer en toute sécurité le stockage de données lorsque le matériel est mis hors service, mis hors service, réattribué ou envoyé pour réparation ou remplacement
+Ex9 : Proposer des méthodes de destruction du papier, des supports de stockage et d'autres formes physiques de stockage de données</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Utiliser des technologies de gestion des vulnérabilités pour identifier les logiciels non corrigés et mal configurés
+Ex2 : Évaluer les architectures de réseau et de système pour détecter les faiblesses de conception et de mise en œuvre qui affectent la cybersécurité
+Ex3 : Examiner, analyser ou tester les logiciels développés par l'organisation pour identifier les vulnérabilités de conception, de codage et de configuration par défaut
+Ex4 : Évaluer les installations qui hébergent des actifs informatiques critiques pour détecter les vulnérabilités physiques et les problèmes de résilience
+Ex5 : Surveiller les sources de renseignements sur les cybermenaces pour obtenir des informations sur les nouvelles vulnérabilités des produits et services
+Ex6 : Examiner les processus et les procédures pour déceler les faiblesses qui pourraient être exploitées pour affecter la cybersécurité</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Configurer des outils et des technologies de cybersécurité dotés de capacités de détection ou de réponse pour ingérer en toute sécurité des flux de renseignements sur les cybermenaces
+Ex2 : Recevoir et examiner des avis de tiers réputés sur les auteurs de menace actuels et leurs tactiques, techniques et procédures (TTP)
+Ex3 : Surveiller les sources de renseignements sur les cybermenaces pour obtenir de l'information sur les types de vulnérabilités que les technologies émergentes peuvent présenter</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Utiliser les renseignements sur les cybermenaces pour se tenir au courant des types d'auteurs de menace susceptibles de cibler l'organisation et des TTP qu'ils sont susceptibles d'utiliser
+Ex2 : Effectuer une chasse aux menaces pour rechercher des signes d'acteurs malveillants dans l'environnement
+Ex3 : Mettre en œuvre des processus d'identification des auteurs de menace internes</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Les dirigeants d'entreprise et les praticiens de la gestion des risques de cybersécurité travaillent ensemble pour estimer la probabilité et l'impact des scénarios de risque et les consigner dans les registres des risques
+Ex2 : Énumérer les répercussions commerciales potentielles d'un accès non autorisé aux communications, aux systèmes et aux données de l'organisation traités dans ou par ces systèmes
+Ex3 : Tenir compte des impacts potentiels des défaillances en cascade sur les systèmes des systèmes</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Développer des modèles de menaces pour mieux comprendre les risques pour les données et identifier les réponses appropriées aux risques
+Ex2 : Prioriser l'allocation des ressources et les investissements en cybersécurité en fonction des probabilités et des impacts estimés</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Appliquer les critères du plan de gestion des vulnérabilités pour décider d'accepter, de transférer, d'atténuer ou d'éviter le risque
+Ex2 : Appliquer les critères du plan de gestion des vulnérabilités pour sélectionner des contrôles compensatoires afin d'atténuer les risques
+Ex3 : Suivre l'avancement de la mise en œuvre de la réponse aux risques (p. ex., plan d'action et jalons, registre des risques, rapport détaillé sur les risques)
+Ex4 : Utiliser les résultats de l'évaluation des risques pour éclairer les décisions et les mesures de réponse aux risques
+Ex5 : Communiquer les réponses aux risques prévues aux parties prenantes touchées par ordre de priorité</t>
+  </si>
+  <si>
+    <t>Ex1 : Mettre en œuvre et suivre les procédures de documentation officielle, d'examen, de mise à l'essai et d'approbation des modifications proposées et des exceptions demandées
+Ex2 : Documentez les risques possibles liés à l'apport ou à l'échec de chaque modification proposée, et fournissez des conseils sur l'annulation des modifications
+Ex3 : Documenter les risques liés à chaque exception demandée et le plan d'intervention à ces risques
+Ex4 : Examiner périodiquement les risques qui ont été acceptés en fonction des actions ou des jalons futurs prévus</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Effectuer le partage d'informations sur les vulnérabilités entre l'organisation et ses fournisseurs en suivant les règles et protocoles définis dans les contrats
+Ex2 : Attribuez les responsabilités et vérifiez l'exécution des procédures de traitement, d'analyse de l'impact et de réponse aux divulgations de menaces, de vulnérabilités ou d'incidents de cybersécurité par les fournisseurs, les clients, les partenaires et les organisations gouvernementales de cybersécurité</t>
+  </si>
+  <si>
+    <t>Ex1 : Évaluer l'authenticité et la cybersécurité des produits et services technologiques critiques avant l'acquisition et l'utilisation
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Effectuer des évaluations des risques liés aux fournisseurs par rapport aux exigences commerciales et de cybersécurité applicables, y compris la chaîne d'approvisionnement</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Effectuer des auto-évaluations des services critiques en tenant compte des menaces actuelles et des TTP
+Ex2 : Investir dans des évaluations par des tiers ou des audits indépendants de l'efficacité du programme de cybersécurité de l'organisation afin de cerner les domaines à améliorer
+Ex3 : Évaluer en permanence la conformité aux exigences de cybersécurité sélectionnées par des moyens automatisés</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Déterminer les améliorations à apporter aux activités d'intervention en cas d'incident futures en fonction des constatations des évaluations d'intervention en cas d'incident (p. ex., exercices et simulations sur table, essais, examens internes, vérifications indépendantes)
+Ex2 : Identifier les améliorations à apporter aux activités futures de continuité des activités, de reprise après sinistre et de réponse aux incidents sur la base d'exercices effectués en coordination avec les fournisseurs de services critiques et les fournisseurs de produits
+Ex3 : Impliquer les parties prenantes internes (p. ex., cadres supérieurs, service juridique, RH) dans les tests et les exercices de sécurité, le cas échéant
+Ex4 : Effectuer des tests d'intrusion pour identifier les possibilités d'améliorer la posture de sécurité de certains systèmes à haut risque, tels qu'approuvés par la direction
+Ex5 : Mettre à l'essai des plans d'urgence pour réagir et se remettre de la découverte que les produits ou services ne proviennent pas du fournisseur ou du partenaire contractuel ou qu'ils ont été modifiés avant leur réception
+Ex6 : Recueillir et analyser les indicateurs de performance à l'aide d'outils et de services de sécurité pour éclairer les améliorations du programme de cybersécurité</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Organiser des sessions collaboratives sur les leçons apprises avec les fournisseurs
+Ex2 : Examiner chaque année les politiques, les processus et les procédures de cybersécurité pour tenir compte des leçons apprises.
+Ex3 : Utiliser des indicateurs pour évaluer les performances opérationnelles en matière de cybersécurité au fil du temps</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Établir des plans d'urgence (p. ex., intervention en cas d'incident, continuité des activités, reprise après sinistre) pour intervenir et se remettre d'événements indésirables qui peuvent interférer avec les opérations, exposer des renseignements confidentiels ou mettre en danger la mission et la viabilité de l'organisation.
+Ex2 : Inclure les coordonnées et les informations de communication, les processus de gestion des scénarios courants et les critères de hiérarchisation, d'escalade et d'élévation dans tous les plans d'urgence
+Ex3 : Créer un plan de gestion des vulnérabilités pour identifier et évaluer tous les types de vulnérabilités et hiérarchiser, tester et mettre en œuvre des réponses aux risques
+Ex4 : Communiquer les plans de cybersécurité (y compris les mises à jour) aux personnes responsables de leur exécution et aux parties concernées
+Ex5 : Examiner et mettre à jour tous les plans de cybersécurité chaque année ou lorsqu'un besoin d'améliorations importantes est identifié</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Lancez des demandes d'accès nouveau ou supplémentaire pour les employés, les sous-traitants et d'autres personnes, et suivez, examinez et répondez aux demandes, avec l'autorisation des propriétaires du système ou des données, au besoin
+Ex2 : Émettre, gérer et révoquer des certificats cryptographiques et des jetons d'identité, des clés cryptographiques (c'est-à-dire la gestion des clés) et d'autres informations d'identification
+Ex3 : Sélectionnez un identifiant unique pour chaque appareil à partir de caractéristiques matérielles immuables ou d'un identifiant provisionné en toute sécurité sur l'appareil
+Ex4 : Étiquetez physiquement le matériel autorisé avec un identificateur à des fins d'inventaire et d'entretien</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Vérifier l'identité revendiquée d'une personne au moment de l'inscription à l'aide d'identifiants délivrés par le gouvernement (par exemple, passeport, visa, permis de conduire)
+Ex2 : Émettre un justificatif d'identité différent pour chaque personne (c'est-à-dire aucun partage d'identifiant)</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Exiger une authentification multifacteur
+Ex2 : Appliquer des politiques pour la sécurité minimale des mots de passe, des codes PIN et des authentificateurs similaires
+Ex3 : Réauthentifier périodiquement les utilisateurs, les services et le matériel en fonction du risque (par exemple, dans les architectures Zero Trust)
+Ex4 : S'assurer que le personnel autorisé peut accéder aux comptes essentiels à la protection de la sécurité en cas d'urgence</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Protéger les assertions d'identité utilisées pour transmettre l'authentification et les informations de l'utilisateur via des systèmes d'authentification unique
+Ex2 : Protéger les assertions d'identité utilisées pour transmettre l'authentification et les informations utilisateur entre les systèmes fédérés
+Ex3 : Mettre en œuvre des approches fondées sur des normes pour les assertions d'identité dans tous les contextes et suivre toutes les directives pour la génération (par exemple, modèles de données, métadonnées), la protection (par exemple, signature numérique, cryptage) et la vérification (par exemple, validation de signature) des assertions d'identité</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Examinez régulièrement les privilèges d'accès logique et physique et chaque fois qu'une personne change de rôle ou quitte l'organisation, et annulez rapidement les privilèges qui ne sont plus nécessaires
+Ex2 : Prendre en compte les attributs du demandeur et de la ressource demandée pour les décisions d'autorisation (par exemple, géolocalisation, jour/heure, cybersanté du point de terminaison du demandeur)
+Ex3 : Restreindre l'accès et les privilèges au minimum nécessaire (par exemple, architecture Zero Trust)
+Ex4 : Examiner périodiquement les privilèges associés aux fonctions opérationnelles essentielles pour confirmer la bonne séparation des tâches</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Utilisez des agents de sécurité, des caméras de sécurité, des entrées verrouillées, des systèmes d'alarme et d'autres contrôles physiques pour surveiller les installations et restreindre l'accès
+Ex2 : Utiliser des contrôles de sécurité physique supplémentaires pour les zones qui contiennent des actifs à risque élevé
+Ex3 : Escorter des invités, des fournisseurs et d'autres tiers dans des zones contenant des actifs critiques pour l'entreprise</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Fournir une sensibilisation et une formation de base en matière de cybersécurité aux employés, aux entrepreneurs, aux partenaires, aux fournisseurs et à tous les autres utilisateurs des ressources non publiques de l'organisation.
+Ex2 : Former le personnel à reconnaître les tentatives d'ingénierie sociale et autres attaques courantes, à signaler les attaques et les activités suspectes, à se conformer aux politiques d'utilisation acceptable et à effectuer des tâches de base en matière de cyberhygiène (p. ex., corriger les logiciels, choisir des mots de passe, protéger les justificatifs d'identité)
+Ex3 : Expliquer les conséquences des violations de la politique de cybersécurité, à la fois aux utilisateurs individuels et à l'organisation dans son ensemble
+Ex4 : Évaluer ou tester périodiquement les utilisateurs sur leur compréhension des pratiques de base en matière de cybersécurité
+Ex5 : Exiger des mises à jour annuelles pour renforcer les pratiques existantes et introduire de nouvelles pratiques</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Identifiez les rôles spécialisés au sein de l'organisation qui nécessitent une formation supplémentaire en cybersécurité, tels que le personnel physique et de cybersécurité, le personnel financier, la haute direction et toute personne ayant accès à des données critiques pour l'entreprise
+Ex2 : Fournir une sensibilisation et une formation en cybersécurité basées sur les rôles à toutes les personnes occupant des rôles spécialisés, y compris les entrepreneurs, les partenaires, les fournisseurs et d'autres tiers
+Ex3 : Évaluer ou tester périodiquement la compréhension des utilisateurs des pratiques de cybersécurité pour leurs rôles spécialisés
+Ex4 : Exiger des mises à jour annuelles pour renforcer les pratiques existantes et introduire de nouvelles pratiques</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Utilisez le chiffrement, les signatures numériques et les hachages cryptographiques pour protéger la confidentialité et l'intégrité des données stockées dans des fichiers, des bases de données, des images de disque de machine virtuelle, des images de conteneur et d'autres ressources
+Ex2 : Utiliser le chiffrement complet du disque pour protéger les données stockées sur les terminaux des utilisateurs
+Ex3 : Confirmer l'intégrité du logiciel en validant les signatures
+Ex4 : Restreindre l'utilisation des supports amovibles pour éviter l'exfiltration de données
+Ex5 : Supports amovibles physiquement sécurisés contenant des informations sensibles non cryptées, par exemple dans des bureaux verrouillés ou des classeurs</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Utilisez le cryptage, les signatures numériques et les hachages cryptographiques pour protéger la confidentialité et l'intégrité des communications réseau
+Ex2 : Chiffrer ou bloquer automatiquement les e-mails sortants et autres communications contenant des données sensibles, en fonction de la classification des données
+Ex3 : Bloquer l'accès à la messagerie personnelle, au partage de fichiers, aux services de stockage de fichiers et à d'autres applications et services de communications personnelles à partir des systèmes et réseaux de l'organisation
+Ex4 : Empêcher la réutilisation des données sensibles des environnements de production (par exemple, les dossiers clients) dans les environnements de développement, de test et autres environnements hors production</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Supprimez les données qui doivent rester confidentielles (par exemple, des processeurs et de la mémoire) dès qu'elles ne sont plus nécessaires
+Ex2 : Protéger les données en cours d'utilisation contre l'accès par d'autres utilisateurs et processus de la même plateforme</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Sauvegardez en continu les données critiques en temps quasi réel et sauvegardez fréquemment d'autres données selon des calendriers convenus
+Ex2 : Testez les sauvegardes et les restaurations pour tous les types de sources de données au moins une fois par an
+Ex3 : Stocker en toute sécurité certaines sauvegardes hors ligne et hors site afin qu'un incident ou un désastre ne les endommage pas
+Ex4 : Appliquer des restrictions de séparation géographique et de géolocalisation pour le stockage des sauvegardes de données</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Établir, tester, déployer et maintenir des bases de référence renforcées qui appliquent les politiques de cybersécurité de l'organisation et ne fournissent que des capacités essentielles (c'est-à-dire le principe de la moindre fonctionnalité)
+Ex2 : Passez en revue tous les paramètres de configuration par défaut susceptibles d'avoir un impact sur la cybersécurité lors de l'installation ou de la mise à niveau d'un logiciel
+Ex3 : Surveiller les logiciels mis en œuvre pour détecter les écarts par rapport aux lignes de base approuvées</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Effectuer des correctifs de routine et d'urgence dans les délais spécifiés dans le plan de gestion des vulnérabilités
+Ex2 : Mettre à jour les images de conteneur et déployer de nouvelles instances de conteneur pour remplacer plutôt que mettre à jour les instances existantes
+Ex3 : Remplacer les versions logicielles et de service en fin de vie par des versions prises en charge et gérées
+Ex4 : Désinstaller et supprimer les logiciels et services non autorisés qui présentent des risques excessifs
+Ex5 : Désinstallez et supprimez tous les composants logiciels inutiles (par exemple, les utilitaires du système d'exploitation) que les attaquants pourraient utiliser à mauvais escient
+Ex6 : Définir et mettre en œuvre des plans de support de maintenance en fin de vie et d'obsolescence des logiciels et des services</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Remplacer le matériel lorsqu'il ne dispose pas des fonctionnalités de sécurité nécessaires ou lorsqu'il ne peut pas prendre en charge les logiciels dotés des capacités de sécurité nécessaires
+Ex2 : Définir et mettre en œuvre des plans de support de maintenance en fin de vie et d'obsolescence du matériel
+Ex3 : Effectuer la mise au rebut du matériel de manière sécurisée, responsable et vérifiable</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Configurer tous les systèmes d'exploitation, applications et services (y compris les services basés sur le cloud) pour générer des enregistrements de journal
+Ex2 : Configurer les générateurs de journaux pour partager en toute sécurité leurs journaux avec les systèmes et services d'infrastructure de journalisation de l'organisation.
+Ex3 : Configurer des générateurs de journaux pour enregistrer les données requises par les architectures Zero Trust</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Lorsque le risque le justifie, limitez l'exécution du logiciel aux seuls produits autorisés ou refusez l'exécution des logiciels interdits et non autorisés
+Ex2 : Vérifiez la source du nouveau logiciel et son intégrité avant de l'installer
+Ex3 : Configurer les plates-formes pour qu'elles n'utilisent que des services DNS approuvés qui bloquent l'accès aux domaines malveillants connus
+Ex4 : Configurer les plates-formes pour autoriser l'installation de logiciels approuvés par l'organisation uniquement</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Protéger tous les composants des logiciels développés par l'organisation contre la falsification et l'accès non autorisé
+Ex2 : Sécuriser tous les logiciels produits par l'organisation, avec un minimum de vulnérabilités dans leurs versions
+Ex3 : Maintenir les logiciels utilisés dans les environnements de production et éliminer en toute sécurité les logiciels une fois qu'ils ne sont plus nécessaires</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Segmenter logiquement les réseaux d'organisation et les plateformes basées sur le cloud en fonction des limites de confiance et des types de plateformes (par exemple, IT, IoT, OT, mobile, invités) et autoriser les communications requises uniquement entre les segments
+Ex2 : Segmenter logiquement les réseaux de l'organisation des réseaux externes et autoriser uniquement les communications nécessaires à entrer dans les réseaux de l'organisation à partir des réseaux externes
+Ex3 : Mettre en œuvre des architectures Zero Trust pour limiter l'accès au réseau à chaque ressource au minimum nécessaire
+Ex4 : Vérifier la cybersanté des points de terminaison avant de les autoriser à accéder aux ressources de production et à les utiliser</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Protégez l'équipement organisationnel contre les menaces environnementales connues, telles que les inondations, les incendies, le vent, la chaleur et l'humidité excessives
+Ex2 : Inclure la protection contre les menaces environnementales et des dispositions relatives à une infrastructure d'exploitation adéquate dans les exigences pour les fournisseurs de services qui exploitent des systèmes au nom de l'organisation.</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Éviter les points de défaillance uniques dans les systèmes et l'infrastructure
+Ex2 : Utiliser l'équilibrage de charge pour augmenter la capacité et améliorer la fiabilité
+Ex3 : Utiliser des composants à haute disponibilité tels que le stockage redondant et les alimentations pour améliorer la fiabilité du système</t>
+  </si>
+  <si>
+    <t>Ex1 : Surveiller l'utilisation du stockage, de l'alimentation, du calcul, de la bande passante réseau et d'autres ressources
+Ex2 : Prévoir les besoins futurs et faire évoluer les ressources en conséquence</t>
+  </si>
+  <si>
+    <t>Ex1 : Surveiller les DNS, les BGP et d'autres services réseau à la recherche d'événements indésirables
+Ex2 : Surveiller les réseaux câblés et sans fil pour détecter les connexions à partir de points de terminaison non autorisés
+Ex3 : Surveiller les installations à la recherche de réseaux sans fil non autorisés ou non autorisés
+Ex4 : Comparer les flux réels du réseau par rapport aux lignes de base pour détecter les écarts
+Ex5 : Surveiller les communications réseau pour identifier les changements dans les postures de sécurité à des fins de Zero Trust
+1er : Risque de 1ère partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Surveillez les journaux des systèmes de contrôle d'accès physiques (par exemple, les lecteurs de badges) pour détecter les modèles d'accès inhabituels (par exemple, les écarts par rapport à la norme) et les tentatives d'accès infructueuses
+Ex2 : Examiner et surveiller les enregistrements d'accès physique (p. ex., enregistrement des visiteurs, feuilles d'émargement)
+Ex3 : Surveiller les contrôles d'accès physiques (p. ex., serrures, loquets, axes de charnière, alarmes) pour détecter tout signe d'altération
+Ex4 : Surveiller l'environnement physique à l'aide de systèmes d'alarme, de caméras et d'agents de sécurité
+1er : Risque de 1ère partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Utiliser un logiciel d'analyse comportementale pour détecter les activités anormales des utilisateurs afin d'atténuer les menaces internes
+Ex2 : Surveiller les journaux des systèmes de contrôle d'accès logique pour détecter les modèles d'accès inhabituels et les tentatives d'accès infructueuses
+Ex3 : Surveillez en permanence la technologie de tromperie, y compris les comptes d'utilisateurs, pour toute utilisation
+1er : Risque de 1ère partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Surveiller les activités d'administration et de maintenance à distance et sur site que les fournisseurs externes effectuent sur les systèmes organisationnels
+Ex2 : Surveiller l'activité des services cloud, des fournisseurs de services Internet et d'autres fournisseurs de services pour détecter les écarts par rapport au comportement attendu
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Surveillez les e-mails, le Web, le partage de fichiers, les services de collaboration et d'autres vecteurs d'attaque courants pour détecter les logiciels malveillants, le phishing, les fuites et l'exfiltration de données, ainsi que d'autres événements indésirables.
+Ex2 : Surveillez les tentatives d'authentification pour identifier les attaques contre les identifiants et la réutilisation non autorisée des identifiants
+Ex3 : Surveiller les configurations logicielles pour détecter les écarts par rapport aux bases de référence de sécurité
+Ex4 : Surveiller le matériel et les logiciels pour détecter les signes d'altération
+Ex5 : Utiliser des technologies présentes sur les terminaux pour détecter les problèmes de cybersanté (par exemple, correctifs manquants, infections par des logiciels malveillants, logiciels non autorisés) et rediriger les terminaux vers un environnement de conversion avant que l'accès ne soit autorisé
+1er : Risque de 1ère partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Utilisez la gestion des informations et des événements de sécurité (SIEM) ou d'autres outils pour surveiller en permanence les événements de journal à la recherche d'activités malveillantes et suspectes connues
+Ex2 : Utiliser des renseignements à jour sur les cybermenaces dans les outils d'analyse des journaux pour améliorer la précision de la détection et caractériser les acteurs de la menace, leurs méthodes et les indicateurs de compromission
+Ex3 : Effectuer régulièrement des examens manuels des événements de journal pour les technologies qui ne peuvent pas être suffisamment surveillées par l'automatisation
+Ex4 : Utiliser des outils d'analyse de journaux pour générer des rapports sur leurs résultats
+1er : Risque de 1ère partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Transférer constamment les données de journal générées par d'autres sources vers un nombre relativement restreint de serveurs de journaux
+Ex2 : Utiliser la technologie de corrélation d'événements (par exemple, SIEM) pour collecter des informations capturées par plusieurs sources
+Ex3 : Utiliser les renseignements sur les cybermenaces pour aider à corréler les événements entre les sources de journaux
+1er : Risque de 1ère partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Utiliser des SIEM ou d'autres outils pour estimer l'impact et la portée, et examiner et affiner les estimations
+Ex2 : Une personne crée ses propres estimations de l'impact et de la portée.
+1er : Risque de 1ère partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Utilisez un logiciel de cybersécurité pour générer des alertes et les transmettre au centre d'opérations de sécurité (SOC), aux intervenants en cas d'incident et aux outils de réponse aux incidents.
+Ex2 : Les intervenants en cas d'incident et les autres membres du personnel autorisé peuvent accéder aux résultats de l'analyse des journaux à tout moment
+Ex3 : Créer et attribuer automatiquement des tickets dans le système de billetterie de l'organisation lorsque certains types d'alertes se produisent
+Ex4 : Créer et attribuer manuellement des tickets dans le système de tickets de l'organisation lorsque le personnel technique découvre des indicateurs de compromission
+1er : Risque de 1ère partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Fournir en toute sécurité des flux de renseignements sur les cybermenaces aux technologies, aux processus et au personnel de détection
+Ex2 : Fournir en toute sécurité des informations allant des inventaires d'actifs aux technologies de détection, aux processus et au personnel
+Ex3 : Acquérir et analyser rapidement les divulgations de vulnérabilités pour les technologies de l'organisation auprès de fournisseurs, de vendeurs et d'avis de sécurité tiers
+1er : Risque de 1ère partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Appliquer les critères d'incident aux caractéristiques connues et présumées de l'activité afin de déterminer si un incident doit être déclaré
+Ex2 : Prendre en compte les faux positifs connus lors de l'application des critères d'incident
+1er : Risque de 1ère partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Les technologies de détection signalent automatiquement les incidents confirmés
+Ex2 : Demander de l'aide à l'externalisateur de réponse aux incidents de l'organisation
+Ex3 : Désignez un responsable d'incident pour chaque incident
+Ex4 : Lancer l'exécution de plans de cybersécurité supplémentaires au besoin pour soutenir la réponse aux incidents (par exemple, continuité des activités et reprise après sinistre)
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Examiner préliminairement les rapports d'incident pour confirmer qu'ils sont liés à la cybersécurité et qu'ils nécessitent des activités d'intervention en cas d'incident.
+Ex2 : Appliquer des critères pour estimer la gravité d'un incident</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Examiner et catégoriser les incidents en fonction du type d'incident (par exemple, violation de données, ransomware, DDoS, compromission de compte)
+Ex2 : Hiérarchiser les incidents en fonction de leur portée, de leur impact probable et de leur caractère critique
+Ex3 : Sélectionner des stratégies de réponse aux incidents actifs en équilibrant la nécessité de se remettre rapidement d'un incident et la nécessité d'observer l'attaquant ou de mener une enquête plus approfondie</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Suivre et valider l'état de tous les incidents en cours
+Ex2 : Coordonner l'escalade ou l'élévation des incidents avec les parties prenantes internes et externes désignées</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Appliquer des critères de récupération d'incident aux caractéristiques connues et présumées de l'incident pour déterminer si des processus de récupération d'incident doivent être lancés
+Ex2 : Prendre en compte l'éventuelle perturbation opérationnelle des activités de récupération d'incident</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Déterminez la séquence des événements qui se sont produits pendant l'incident et quels biens et ressources ont été impliqués dans chaque événement
+Ex2 : Tenter de déterminer quelles vulnérabilités, menaces et acteurs de menace ont été directement ou indirectement impliqués dans l'incident
+Ex3 : Analyser l'incident pour trouver les causes profondes systémiques sous-jacentes
+Ex4 : Vérifiez toute technologie de cyber-tromperie pour plus d'informations sur le comportement de l'attaquant</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Exiger que chaque intervenant en cas d'incident et d'autres personnes (par exemple, les administrateurs système, les ingénieurs en cybersécurité) qui effectuent des tâches d'intervention en cas d'incident consignent leurs actions et rendent l'enregistrement immuable
+Ex2 : Exiger que le responsable de l'incident documente l'incident en détail et être responsable de préserver l'intégrité de la documentation et les sources de toutes les informations signalées</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Recueillir, préserver et protéger l'intégrité de toutes les données et métadonnées pertinentes sur les incidents (p. ex., source de données, date et heure de la collecte) en fonction des procédures de préservation des preuves et de la chaîne de possession</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Examiner d'autres cibles potentielles de l'incident pour rechercher des indicateurs de compromission et des preuves de persistance
+Ex2 : Exécuter automatiquement des outils sur les cibles pour rechercher des indicateurs de compromission et des preuves de persistance</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Suivre les procédures de notification des atteintes à la vie privée de l'organisation après la découverte d'un incident d'atteinte à la protection des données, y compris la notification des clients touchés
+Ex2 : Informer les partenaires commerciaux et les clients des incidents conformément aux exigences contractuelles
+Ex3 : Informer les organismes d'application de la loi et les organismes de réglementation des incidents en fonction des critères du plan d'intervention en cas d'incident et de l'approbation de la direction</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Partager en toute sécurité des informations conformément aux plans d'intervention et aux ententes de partage d'informations
+Ex2 : Partager volontairement des informations sur les TTP observés d'un attaquant, en supprimant toutes les données sensibles, avec un centre de partage et d'analyse d'informations (ISAC)
+Ex3 : Informer les RH en cas d'activité interne malveillante
+Ex4 : Informer régulièrement la haute direction de l'état des incidents majeurs
+Ex5 : Suivre les règles et protocoles définis dans les contrats d'échange d'informations sur les incidents entre l'organisation et ses fournisseurs
+Ex6 : Coordonner les méthodes de communication de crise entre l'organisation et ses fournisseurs critiques</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Les technologies de cybersécurité (par exemple, les logiciels antivirus) et les fonctionnalités de cybersécurité d'autres technologies (par exemple, les systèmes d'exploitation, les périphériques d'infrastructure réseau) effectuent automatiquement des actions de confinement
+Ex2 : Autoriser les intervenants en cas d'incident à sélectionner et à exécuter manuellement des actions de confinement
+Ex3 : Permettre à un tiers (par exemple, un fournisseur de services Internet, un fournisseur de services de sécurité gérés) d'effectuer des actions de confinement au nom de l'organisation
+Ex4 : Transfert automatique des points de terminaison compromis vers un réseau local virtuel (VLAN) de conversion</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Les technologies de cybersécurité et les fonctionnalités de cybersécurité d'autres technologies (par exemple, les systèmes d'exploitation, les périphériques d'infrastructure réseau) effectuent automatiquement des actions d'éradication
+Ex2 : Autoriser les intervenants en cas d'incident à sélectionner et à exécuter manuellement des actions d'éradication
+Ex3 : Autoriser un tiers (par exemple, un fournisseur de services de sécurité gérés) à effectuer des actions d'éradication au nom de l'organisation</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Commencer les procédures de récupération pendant ou après les processus de réponse aux incidents
+Ex2 : Informer toutes les personnes ayant des responsabilités en matière de rétablissement des plans de rétablissement et des autorisations requises pour mettre en œuvre chaque aspect des plans.</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Sélectionner les actions de récupération en fonction des critères définis dans le plan de réponse à l'incident et des ressources disponibles
+Ex2 : Modifier les mesures de rétablissement prévues en fonction d'une réévaluation des besoins et des ressources organisationnelles</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Vérifiez les ressources de restauration pour détecter des indicateurs de compromission, de corruption de fichiers et d'autres problèmes d'intégrité avant de les utiliser</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Utiliser les enregistrements d'impact sur l'entreprise et de catégorisation du système (y compris les objectifs de prestation de services) pour confirmer que les services essentiels sont rétablis dans l'ordre approprié
+Ex2 : Travailler avec les propriétaires de systèmes pour confirmer la réussite de la restauration des systèmes et le retour à des opérations normales
+Ex3 : Surveiller le rendement des systèmes restaurés pour vérifier la pertinence de la restauration</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Vérifier les actifs restaurés pour détecter les indicateurs de compromission et remédier aux causes profondes de l'incident avant l'utilisation en production
+Ex2 : Vérifier l'exactitude et l'adéquation des actions de restauration entreprises avant de mettre en ligne un système restauré</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Préparer un rapport après action qui documente l'incident lui-même, les mesures d'intervention et de rétablissement prises, ainsi que les leçons apprises.
+Ex2 : Déclarer la fin de la reprise d'incident une fois les critères remplis</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Partagez en toute sécurité les informations de récupération, y compris la progression de la restauration, conformément aux plans d'intervention et aux ententes de partage d'informations
+Ex2 : Informer régulièrement la haute direction de l'état du rétablissement et des progrès du rétablissement en cas d'incidents majeurs.
+Ex3 : Suivre les règles et les protocoles définis dans les contrats pour l'échange d'informations sur les incidents entre l'organisation et ses fournisseurs
+Ex4 : Coordonner la communication de crise entre l'organisation et ses fournisseurs critiques</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Suivre les procédures de notification des atteintes à la vie privée de l'organisation pour se remettre d'un incident d'atteinte à la protection des données.
+Ex2 : Expliquer les mesures prises pour se remettre de l'incident et éviter qu'il ne se reproduise</t>
+  </si>
+  <si>
+    <t>annotation[fr]</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t>La mission organisationnelle est comprise et informe la gestion des risques de cybersécurité</t>
+  </si>
+  <si>
+    <t>Les parties prenantes internes et externes sont comprises, et leurs besoins et attentes en matière de gestion des risques de cybersécurité sont compris et pris en compte</t>
+  </si>
+  <si>
+    <t>Les exigences légales, réglementaires et contractuelles en matière de cybersécurité, y compris les obligations en matière de vie privée et de libertés civiles, sont comprises et gérées</t>
+  </si>
+  <si>
+    <t>Les objectifs, capacités et services critiques dont dépendent les parties prenantes externes ou qu’ils attendent de l’organisation sont compris et communiqués</t>
+  </si>
+  <si>
+    <t>Les résultats, les capacités et les services dont dépend l’organisation sont compris et communiqués</t>
+  </si>
+  <si>
+    <t>Les objectifs de gestion des risques sont établis et acceptés par les parties prenantes organisationnelles</t>
+  </si>
+  <si>
+    <t>Les déclarations d’appétence et de tolérance au risque sont établies, communiquées et maintenues</t>
+  </si>
+  <si>
+    <t>Les activités et les résultats de la gestion des risques de cybersécurité sont inclus dans les processus de gestion des risques de l’entreprise</t>
+  </si>
+  <si>
+    <t>Une orientation stratégique décrivant les options de réponse aux risques appropriées est établie et communiquée</t>
+  </si>
+  <si>
+    <t>Les lignes de communication au sein de l’organisation sont établies pour les risques de cybersécurité, y compris les risques liés aux fournisseurs et autres tiers</t>
+  </si>
+  <si>
+    <t>Une méthode normalisée de calcul, de documentation, de catégorisation et de priorisation des risques de cybersécurité est établie et communiquée</t>
+  </si>
+  <si>
+    <t>Les opportunités stratégiques (c-à-d., les risques positifs) sont caractérisées et incluses dans les discussions sur les risques de cybersécurité organisationnels</t>
+  </si>
+  <si>
+    <t>La direction organisationnelle est responsable des risques liés à la cybersécurité et favorise une culture consciente des risques, éthique et en constante amélioration</t>
+  </si>
+  <si>
+    <t>Les rôles, responsabilités et autorités liés à la gestion des risques de cybersécurité sont établis, communiqués, compris et appliqués</t>
+  </si>
+  <si>
+    <t>Les ressources adéquates sont allouées en fonction de la stratégie, des rôles, des responsabilités et des politiques en matière de risques de cybersécurité</t>
+  </si>
+  <si>
+    <t>La cybersécurité est incluse dans les pratiques en matières des ressources humaines</t>
+  </si>
+  <si>
+    <t>La politique de gestion des risques de cybersécurité est établie en fonction du contexte organisationnel, de la stratégie de cybersécurité et des priorités, et est communiquée et appliquée</t>
+  </si>
+  <si>
+    <t>La politique de gestion des risques de cybersécurité est revue, mise à jour, communiquée et appliquée pour refléter les changements dans les exigences, les menaces, la technologie et la mission organisationnelle</t>
+  </si>
+  <si>
+    <t>Les résultats de la stratégie de gestion des risques de cybersécurité sont examinés pour éclairer et ajuster la stratégie et l’orientation</t>
+  </si>
+  <si>
+    <t>La stratégie de gestion des risques de cybersécurité est revue et ajustée pour garantir la couverture des exigences et des risques organisationnels</t>
+  </si>
+  <si>
+    <t>La performance de la gestion des risques de cybersécurité organisationnelle est évaluée et révisée pour les ajustements nécessaires</t>
+  </si>
+  <si>
+    <t>Un programme, une stratégie, des objectifs, des politiques et des processus de gestion des risques liés à la chaîne d’approvisionnement en matière de cybersécurité sont établis et acceptés par les parties prenantes de l’organisation</t>
+  </si>
+  <si>
+    <t>Les rôles et responsabilités en matière de cybersécurité pour les fournisseurs, les clients et les partenaires sont établis, communiqués et coordonnés en interne et en externe</t>
+  </si>
+  <si>
+    <t>La gestion des risques de la chaîne d’approvisionnement en cybersécurité est intégrée aux processus de cybersécurité et de gestion des risques d’entreprise, d’évaluation des risques et d’amélioration</t>
+  </si>
+  <si>
+    <t>Les fournisseurs sont connus et priorisés par criticité</t>
+  </si>
+  <si>
+    <t>Les exigences visant à s’adresser aux risques de cybersécurité dans les chaînes d’approvisionnement sont établies, priorisées et intégrées dans les contrats et autres types d’accords avec les fournisseurs et autres tiers concernés</t>
+  </si>
+  <si>
+    <t>La planification et la diligence raisonnable sont effectuées pour réduire les risques avant d’entrer dans des relations formelles avec des fournisseurs ou d’autres tiers</t>
+  </si>
+  <si>
+    <t>Les risques posés par un fournisseur, ses produits et services et d’autres tiers sont compris, enregistrés, priorisés, évalués, traités et surveillés tout au long de la relation</t>
+  </si>
+  <si>
+    <t>Les fournisseurs concernés et autres tiers sont inclus dans les activités de planification, de réponse et de récupération en cas d’incident</t>
+  </si>
+  <si>
+    <t>Les pratiques de sécurité de la chaîne d’approvisionnement sont intégrées aux programmes de cybersécurité et de gestion des risques d’entreprise, et leurs performances sont surveillées tout au long du cycle de vie des produits et services technologiques</t>
+  </si>
+  <si>
+    <t>Les plans de gestion des risques de la chaîne d’approvisionnement en matière de cybersécurité comprennent des dispositions pour les activités qui se produisent après la conclusion d’un accord de partenariat ou de service</t>
+  </si>
+  <si>
+    <t>Les actifs (p. ex., données, matériel, logiciels, systèmes, installations, services, personnes) qui permettent à l’organisation d’atteindre ses objectifs commerciaux sont identifiés et gérés en fonction de leur importance relative par rapport aux objectifs organisationnels et à la stratégie de risque de l’organisation</t>
+  </si>
+  <si>
+    <t>Les inventaires du matériel géré par l’organisation sont maintenus</t>
+  </si>
+  <si>
+    <t>Les inventaires des logiciels, services et systèmes gérés par l’organisation sont maintenus</t>
+  </si>
+  <si>
+    <t>Les représentations des communications réseau autorisées de l’organisation et des flux de données réseau internes et externes sont maintenues</t>
+  </si>
+  <si>
+    <t>Les inventaires des services fournis par les fournisseurs sont maintenus</t>
+  </si>
+  <si>
+    <t>Les actifs sont priorisés en fonction de la classification, de la criticité, des ressources et de l’impact sur la mission</t>
+  </si>
+  <si>
+    <t>Les inventaires de données et les métadonnées correspondantes pour les types de données désignés sont maintenus</t>
+  </si>
+  <si>
+    <t>Les systèmes, matériels, logiciels, services et données sont gérés tout au long de leur cycle de vie</t>
+  </si>
+  <si>
+    <t>Les vulnérabilités des actifs sont identifiées, validées et enregistrées</t>
+  </si>
+  <si>
+    <t>Les renseignements sur les cybermenaces sont reçus de forums et de sources de partage d’informations</t>
+  </si>
+  <si>
+    <t>Les menaces internes et externes à l’organisation sont identifiées et enregistrées</t>
+  </si>
+  <si>
+    <t>Les impacts potentiels et les probabilités des menaces exploitant les vulnérabilités sont identifiés et enregistrés</t>
+  </si>
+  <si>
+    <t>Les menaces, les vulnérabilités, les probabilités et les impacts sont utilisés pour comprendre les risques inhérents et informer la priorisation des réponses aux risques.</t>
+  </si>
+  <si>
+    <t>Les réponses aux risques sont choisies, priorisées, planifiées, suivies et communiquées</t>
+  </si>
+  <si>
+    <t>Les changements et les exceptions sont gérés, évalués en termes d’impact sur les risques, enregistrés et suivis</t>
+  </si>
+  <si>
+    <t>Les processus de réception, d’analyse et de réponse aux divulgations de vulnérabilités sont établis</t>
+  </si>
+  <si>
+    <t>L’authenticité et l’intégrité du matériel et des logiciels sont évaluées avant l’acquisition et l’utilisation.</t>
+  </si>
+  <si>
+    <t>Les fournisseurs critiques sont évalués avant l’acquisition</t>
+  </si>
+  <si>
+    <t>Les améliorations sont identifiées à partir des évaluations</t>
+  </si>
+  <si>
+    <t>Les améliorations sont identifiées à partir de tests et d’exercices de sécurité, y compris ceux effectués en coordination avec les fournisseurs et les tiers concernés</t>
+  </si>
+  <si>
+    <t>Les améliorations sont identifiées à partir de l’exécution des processus opérationnels, des procédures et des activités</t>
+  </si>
+  <si>
+    <t>Les plans de réponse aux incidents et d’autres plans de cybersécurité qui affectent les opérations sont établis, communiqués, maintenus et améliorés</t>
+  </si>
+  <si>
+    <t>L’accès aux actifs physiques et logiques est limité aux utilisateurs, services et matériels autorisés et géré en fonction du risque évalué d’accès non autorisé</t>
+  </si>
+  <si>
+    <t>Les identités et les informations d’identification des utilisateurs, services et matériels autorisés sont gérées par l’organisation</t>
+  </si>
+  <si>
+    <t>Les identités sont vérifiées et liées aux informations d’identification en fonction du contexte des interactions</t>
+  </si>
+  <si>
+    <t>Les utilisateurs, les services et le matériel sont authentifiés</t>
+  </si>
+  <si>
+    <t>Les affirmations d’identité sont protégées, transmises et vérifiées</t>
+  </si>
+  <si>
+    <t>Les autorisations d’accès, les droits et les autorisations sont définis dans une politique, gérés, appliqués et revus, et intègrent les principes du moindre privilège et de la séparation des tâches</t>
+  </si>
+  <si>
+    <t>L’accès physique aux actifs est géré, surveillé et appliqué en fonction du risque</t>
+  </si>
+  <si>
+    <t>Le personnel est sensibilisé et formé afin qu’il possède les connaissances et les compétences nécessaires pour effectuer des tâches générales en tenant compte des risques de cybersécurité</t>
+  </si>
+  <si>
+    <t>Les personnes occupant des postes spécialisés reçoivent une sensibilisation et une formation afin qu’elles possèdent les connaissances et les compétences nécessaires pour effectuer des tâches pertinentes en tenant compte des risques de cybersécurité</t>
+  </si>
+  <si>
+    <t>La confidentialité, l’intégrité et la disponibilité des données au repos sont protégées</t>
+  </si>
+  <si>
+    <t>La confidentialité, l’intégrité et la disponibilité des données en transit sont protégées</t>
+  </si>
+  <si>
+    <t>La confidentialité, l’intégrité et la disponibilité des données en cours d’utilisation sont protégées</t>
+  </si>
+  <si>
+    <t>Les sauvegardes des données sont créées, protégées, maintenues et testées</t>
+  </si>
+  <si>
+    <t>Les pratiques de gestion de la configuration sont établies et appliquées</t>
+  </si>
+  <si>
+    <t>Le logiciel est maintenu, remplacé et supprimé en fonction du risque</t>
+  </si>
+  <si>
+    <t>Le matériel est entretenu, remplacé et retiré en fonction du risque</t>
+  </si>
+  <si>
+    <t>Les enregistrements de journaux sont générés et mis à disposition pour une surveillance continue</t>
+  </si>
+  <si>
+    <t>L’installation et l’exécution de logiciels non autorisés sont empêchées</t>
+  </si>
+  <si>
+    <t>Les pratiques de développement de logiciels sécurisés sont intégrées et leurs performances sont surveillées tout au long du cycle de vie du développement logiciel</t>
+  </si>
+  <si>
+    <t>Les réseaux et les environnements sont protégés contre les accès logiques et les utilisations non autorisés</t>
+  </si>
+  <si>
+    <t>Les actifs technologiques de l’organisation sont protégés contres les menaces environnementales</t>
+  </si>
+  <si>
+    <t>Les mécanismes sont mis en œuvre pour satisfaire aux exigences de résilience dans des situations normales et défavorables</t>
+  </si>
+  <si>
+    <t>Les capacité de ressources adéquate pour assurer la disponibilité sont maintenues</t>
+  </si>
+  <si>
+    <t>Les actifs sont surveillés pour détecter des anomalies, des indicateurs de compromission et d’autres événements potentiellement indésirables</t>
+  </si>
+  <si>
+    <t>Les réseaux et services réseau sont surveillés pour détecter les événements potentiellement indésirables</t>
+  </si>
+  <si>
+    <t>L’environnement physique est surveillé pour détecter les événements potentiellement indésirables</t>
+  </si>
+  <si>
+    <t>L’activité du personnel et l’utilisation de la technologie sont surveillées pour détecter les événements potentiellement indésirables</t>
+  </si>
+  <si>
+    <t>Les activités et services des prestataires de services externes sont surveillés pour détecter les événements potentiellement indésirables</t>
+  </si>
+  <si>
+    <t>Le matériel informatique et les logiciels, les environnements d’exécution et leurs données sont surveillés pour détecter les événements potentiellement indésirables</t>
+  </si>
+  <si>
+    <t>Les événements potentiellement indésirables sont analysés pour mieux comprendre les activités associées</t>
+  </si>
+  <si>
+    <t>Les informations sont corrélées à partir de sources multiples</t>
+  </si>
+  <si>
+    <t>L’impact et la portée estimés des événements indésirables sont compris</t>
+  </si>
+  <si>
+    <t>Les informations sur les événements indésirables sont fournies au personnel et aux outils autorisés</t>
+  </si>
+  <si>
+    <t>Les renseignements sur les cybermenaces et d’autres informations contextuelles sont intégrés dans l’analyse</t>
+  </si>
+  <si>
+    <t>Les incidents sont déclarés lorsque les événements indésirables répondent aux critères d’incident définis</t>
+  </si>
+  <si>
+    <t>Les réponses aux incidents de cybersécurité détectés sont gérées</t>
+  </si>
+  <si>
+    <t>Le plan de réponse aux incidents est exécuté en coordination avec les tiers concernés une fois qu’un incident est déclaré</t>
+  </si>
+  <si>
+    <t>Les rapports d’incidents sont triés et validés</t>
+  </si>
+  <si>
+    <t>Les incidents sont catégorisés et priorisés</t>
+  </si>
+  <si>
+    <t>Les incidents sont escaladés ou augmentés selon les besoins</t>
+  </si>
+  <si>
+    <t>Les critères d’initiation de la reprise après incident sont appliqués</t>
+  </si>
+  <si>
+    <t>Une analyse est effectuée pour établir ce qui s’est passé lors d’un incident et la cause profonde de l’incident</t>
+  </si>
+  <si>
+    <t>Les actions effectuées au cours d’une enquête sont enregistrées et l’intégrité et la provenance des enregistrements sont préservées</t>
+  </si>
+  <si>
+    <t>Les données et métadonnées relatives aux incidents sont collectées, et leur intégrité et leur provenance sont préservées</t>
+  </si>
+  <si>
+    <t>L’ampleur d’un incident est estimée et validée</t>
+  </si>
+  <si>
+    <t>Les parties prenantes internes et externes sont informées des incidents</t>
+  </si>
+  <si>
+    <t>Les informations sont partagées avec des parties prenantes internes et externes désignées</t>
+  </si>
+  <si>
+    <t>Les incidents sont contenus</t>
+  </si>
+  <si>
+    <t>Les incidents sont éradiqués</t>
+  </si>
+  <si>
+    <t>Les activités de restauration sont effectuées pour garantir la disponibilité opérationnelle des systèmes et services affectés par les incidents de cybersécurité</t>
+  </si>
+  <si>
+    <t>La partie récupération du plan de réponse aux incidents est exécutée une fois lancée à partir du processus de réponse aux incidents.</t>
+  </si>
+  <si>
+    <t>Les actions de récupération sont sélectionnées, délimitées, priorisées et exécutées</t>
+  </si>
+  <si>
+    <t>L’intégrité des sauvegardes et autres actifs de restauration est vérifiée avant de les utiliser pour la restauration</t>
+  </si>
+  <si>
+    <t>Les fonctions critiques de la mission et la gestion des risques de cybersécurité sont considérées pour établir des normes opérationnelles après incident.</t>
+  </si>
+  <si>
+    <t>L’intégrité des actifs restaurés est vérifiée, les systèmes et services sont restaurés et l’état de fonctionnement normal est confirmé</t>
+  </si>
+  <si>
+    <t>La fin de la reprise après incident est déclarée sur la base de critères et la documentation relative à l’incident est complétée.</t>
+  </si>
+  <si>
+    <t>Les activités de récupération et les progrès réalisés dans la restauration des capacités opérationnelles sont communiqués aux parties prenantes internes et externes désignées.</t>
+  </si>
+  <si>
+    <t>Les mises à jour publiques sur la récupération après incident sont partagées à l’aide de méthodes et de messages approuvés.</t>
+  </si>
+  <si>
+    <t>name[sp]</t>
+  </si>
+  <si>
+    <t>description[sp]</t>
+  </si>
+  <si>
+    <t>annotation[sp]</t>
+  </si>
+  <si>
+    <t>GOBERNAR</t>
+  </si>
+  <si>
+    <t>Se establecen, comunican y supervisan la estrategia, las expectativas y la política de gestión de riesgos de seguridad cibernética de la organización.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contexto organizativo </t>
+  </si>
+  <si>
+    <t>Se comprenden las circunstancias - misión, expectativas de las partes interesadas, dependencias y requisitos legales, normativos y contractuales - que afectan a las decisiones de gestión de riesgos de seguridad cibernética de la organización</t>
+  </si>
+  <si>
+    <t>Se comprende la misión de la organización y se informa sobre la gestión de riesgos de seguridad cibernética.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Compartir la misión de la organización (por ejemplo, a través de declaraciones de visión y misión, marketing y estrategias de servicio) para proporcionar una base para identificar los riesgos que pueden obstaculizar esa misión</t>
+  </si>
+  <si>
+    <t>Las partes interesadas internas y externas son comprendidas, y sus necesidades y expectativas con respecto a la gestión de riesgos de seguridad cibernética son comprendidas y consideradas.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Identificar a las partes interesadas internas relevantes y sus expectativas relacionadas con la ciberseguridad (por ejemplo, expectativas de rendimiento y riesgo de funcionarios, directores y asesores; expectativas culturales de los empleados)
+Ex2: Identificar a las partes interesadas externas relevantes y sus expectativas relacionadas con la ciberseguridad (por ejemplo, expectativas de privacidad de los clientes, expectativas comerciales de las asociaciones, expectativas de cumplimiento de los reguladores, expectativas éticas de la sociedad)</t>
+  </si>
+  <si>
+    <t>Se comprenden y gestionan los requisitos legales, normativos y contractuales relativos a la seguridad cibernética, incluidas las obligaciones en materia de privacidad y libertades civiles.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Determinar un proceso para rastrear y administrar los requisitos legales y reglamentarios relacionados con la protección de la información de las personas (por ejemplo, la Ley de Portabilidad y Responsabilidad de Seguros Médicos, la Ley de Privacidad del Consumidor de California, el Reglamento General de Protección de Datos)
+Ex2: Determinar un proceso para rastrear y gestionar los requisitos contractuales para la gestión de la ciberseguridad de la información de proveedores, clientes y socios
+Ex3: Alinear la estrategia de ciberseguridad de la organización con los requisitos legales, regulatorios y contractuales</t>
+  </si>
+  <si>
+    <t>Se comprenden y comunican los objetivos, las capacidades y los servicios críticos de los que dependen las partes interesadas externas o que esperan de la organización</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Establecer criterios para determinar la criticidad de las capacidades y servicios desde el punto de vista de las partes interesadas internas y externas.
+Ex2: Determinar (por ejemplo, a partir de un análisis de impacto en el negocio) los activos y las operaciones comerciales que son vitales para lograr los objetivos de la misión y el impacto potencial de una pérdida (o pérdida parcial) de dichas operaciones
+Ex3: Establecer y comunicar objetivos de resiliencia (p. ej., objetivos de tiempo de recuperación) para la entrega de capacidades y servicios críticos en varios estados operativos (p. ej., bajo ataque, durante la recuperación, operación normal)</t>
+  </si>
+  <si>
+    <t>Se comprenden y comunican los resultados, capacidades y servicios de los que depende la organización</t>
+  </si>
+  <si>
+    <t>Ex1: Crear un inventario de las dependencias de la organización de recursos externos (por ejemplo, instalaciones, proveedores de alojamiento basado en la nube) y sus relaciones con los activos de la organización y las funciones comerciales
+Ex2: Identificar y documentar las dependencias externas que son puntos potenciales de falla para las capacidades y servicios críticos de la organización, y compartir esa información con el personal adecuado
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrategia de gestión de riesgos </t>
+  </si>
+  <si>
+    <t>Se establecen, comunican y utilizan las prioridades, las restricciones, las declaraciones de tolerancia y apetito por el riesgo y los supuestos de la organización para respaldar las decisiones sobre el riesgo operativo</t>
+  </si>
+  <si>
+    <t>Los objetivos de la gestión de riesgos son establecidos y acordados por las partes interesadas de la organización</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Actualizar los objetivos de gestión de riesgos de ciberseguridad a corto y largo plazo como parte de la planificación estratégica anual y cuando se produzcan cambios importantes
+Ex2: Establecer objetivos medibles para la gestión de riesgos de ciberseguridad (por ejemplo, gestionar la calidad de la formación de los usuarios, garantizar una protección adecuada contra los riesgos de los sistemas de control industrial)
+Ex3: Los líderes sénior acuerdan los objetivos de ciberseguridad y los utilizan para medir y gestionar el riesgo y el rendimiento</t>
+  </si>
+  <si>
+    <t>Se establecen, se comunican y se mantienen las declaraciones sobre el apetito de riesgo y la tolerancia al riesgo</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Determinar y comunicar declaraciones de apetito de riesgo que transmitan expectativas sobre el nivel apropiado de riesgo para la organización.
+Ex2: Traducir las declaraciones de apetito de riesgo en declaraciones de tolerancia al riesgo específicas, medibles y ampliamente comprensibles
+Ex3: Refinar periódicamente los objetivos de la organización y el apetito de riesgo en función de la exposición al riesgo conocida y el riesgo residual</t>
+  </si>
+  <si>
+    <t>Las actividades y los resultados de la gestión de riesgos de seguridad cibernética se incluyen en los procesos de gestión de riesgos de la empresa</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Agregar y gestionar los riesgos de ciberseguridad junto con otros riesgos empresariales (por ejemplo, cumplimiento, financieros, operativos, regulatorios, de reputación, de seguridad)
+Ex2: Incluir a los gestores de riesgos de ciberseguridad en la planificación de la gestión de riesgos empresariales
+Ex3: Establecer criterios para escalar los riesgos de ciberseguridad dentro de la gestión de riesgos empresariales</t>
+  </si>
+  <si>
+    <t>Se establece y comunica una dirección estratégica que describa las opciones adecuadas de respuesta al riesgo.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Especificar los criterios para aceptar y evitar el riesgo de ciberseguridad para diversas clasificaciones de datos
+Ex2: Determinar si comprar un seguro de ciberseguridad
+Ex3: Documentar las condiciones en las que los modelos de responsabilidad compartida son aceptables (por ejemplo, externalización de ciertas funciones de ciberseguridad, hacer que un tercero realice transacciones financieras en nombre de la organización, utilizar servicios basados en la nube pública)</t>
+  </si>
+  <si>
+    <t>Se establecen líneas de comunicación en toda la organización para los riesgos de seguridad cibernética, lo que incluye a los riesgos de proveedores y otros terceros.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Determinar cómo actualizar a los altos ejecutivos, directores y gerentes sobre la postura de ciberseguridad de la organización a intervalos acordados
+Ex2: Identificar cómo se comunicarán entre sí todos los departamentos de la organización, como la dirección, las operaciones, los auditores internos, el departamento jurídico, el de adquisiciones, el de seguridad física y el de RRHH sobre los riesgos de ciberseguridad.</t>
+  </si>
+  <si>
+    <t>Se establece y comunica un método estandarizado para calcular, documentar, categorizar y priorizar los riesgos de seguridad cibernética.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Establecer criterios para utilizar un enfoque cuantitativo para el análisis de riesgos de ciberseguridad, y especificar fórmulas de probabilidad y exposición.
+Ex2: Crear y utilizar plantillas (por ejemplo, un registro de riesgos) para documentar la información sobre riesgos de ciberseguridad (por ejemplo, descripción del riesgo, exposición, tratamiento y propiedad)
+Ex3: Establecer criterios para la priorización de riesgos en los niveles apropiados dentro de la empresa
+Ex4: Utilice una lista coherente de categorías de riesgo para respaldar la integración, la agregación y la comparación de riesgos de ciberseguridad</t>
+  </si>
+  <si>
+    <t>Se caracterizan las oportunidades estratégicas (es decir, los riesgos positivos) y se incluyen en las discusiones sobre riesgos de seguridad cibernética de la organización.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Definir y comunicar la orientación y los métodos para identificar oportunidades e incluirlas en las discusiones de riesgos (p. ej., análisis de fortalezas, debilidades, oportunidades y amenazas [FODA])
+Ex2: Identificar los objetivos ambiciosos y documentarlos
+Ex3: Calcule, documente y priorice los riesgos positivos junto con los riesgos negativos</t>
+  </si>
+  <si>
+    <t>Funciones, responsabilidades y autoridades</t>
+  </si>
+  <si>
+    <t>Se establecen y comunican las funciones, las responsabilidades y las competencias en materia de seguridad cibernética para fomentar la rendición de cuentas, la evaluación del desempeño y la mejora continua.</t>
+  </si>
+  <si>
+    <t>El liderazgo organizativo es responsable de los riesgos de seguridad cibernética y fomenta una cultura consciente de los riesgos, ética y de mejora continua.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Los líderes (por ejemplo, los directores) acuerdan sus roles y responsabilidades en el desarrollo, la implementación y la evaluación de la estrategia de ciberseguridad de la organización
+Ex2: Compartir las expectativas de los líderes con respecto a una cultura segura y ética, especialmente cuando los acontecimientos actuales presentan la oportunidad de destacar ejemplos positivos o negativos de gestión de riesgos de ciberseguridad.
+Ex3: Los líderes ordenan al CISO que mantenga una estrategia integral de riesgo de ciberseguridad y la revise y actualice al menos una vez al año y después de eventos importantes
+Ex4: Llevar a cabo revisiones para garantizar la autoridad y la coordinación adecuadas entre los responsables de la gestión del riesgo de ciberseguridad.</t>
+  </si>
+  <si>
+    <t>Se establecen, comunican, comprenden y aplican las funciones, responsabilidades y autoridades relacionadas con la gestión de riesgos de seguridad cibernética.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Documentar las funciones y responsabilidades de la gestión de riesgos en la política
+Ex2: Documentar quién es responsable de las actividades de gestión de riesgos de ciberseguridad y cómo se debe consultar e informar a esos equipos e individuos.
+Ex3: Incluir las responsabilidades de ciberseguridad y los requisitos de rendimiento en las descripciones del personal
+Ex4: Documentar los objetivos de rendimiento del personal con responsabilidades de gestión de riesgos de ciberseguridad y medir periódicamente el rendimiento para identificar áreas de mejora
+Ex5: Articular claramente las responsabilidades de ciberseguridad dentro de las operaciones, las funciones de riesgo y las funciones de auditoría interna</t>
+  </si>
+  <si>
+    <t>Se asignan recursos adecuados de acuerdo con la estrategia de riesgos de seguridad cibernética, las funciones, las responsabilidades y las políticas.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Llevar a cabo revisiones periódicas de la gestión para garantizar que las personas a las que se han asignado responsabilidades de gestión de riesgos de ciberseguridad tengan la autoridad necesaria
+Ex2: Identificar la asignación de recursos y la inversión en consonancia con la tolerancia al riesgo y la respuesta
+Ex3: Proporcionar las personas, los procesos y los recursos técnicos adecuados y suficientes para respaldar la estrategia de ciberseguridad.</t>
+  </si>
+  <si>
+    <t>La seguridad cibernética se incluye en las prácticas de recursos humanos</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Integrar las consideraciones de gestión de riesgos de ciberseguridad en los procesos de recursos humanos (por ejemplo, selección de personal, incorporación, notificación de cambios, desvinculación)
+Ex2: Considerar el conocimiento de ciberseguridad como un factor positivo en las decisiones de contratación, capacitación y retención
+Ex3: Realizar verificaciones de antecedentes antes de incorporar nuevo personal para roles confidenciales y repetir periódicamente las verificaciones de antecedentes para el personal con dichas funciones
+Ex4: Definir y hacer cumplir las obligaciones para que el personal conozca, se adhiera y defienda las políticas de seguridad en relación con sus funciones</t>
+  </si>
+  <si>
+    <t>Política</t>
+  </si>
+  <si>
+    <t>La política de seguridad cibernética de la organización es establecida, comunicada y aplicada.</t>
+  </si>
+  <si>
+    <t>La política de gestión de riesgos de seguridad cibernética se establece en base al contexto organizativo, la estrategia de seguridad cibernética y las prioridades, y es comunicada y aplicada</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Crear, difundir y mantener una política de gestión de riesgos comprensible y utilizable con declaraciones de la intención, las expectativas y la dirección de la dirección.
+Ex2: Revisar periódicamente la política y los procesos y procedimientos de apoyo para garantizar que se alinean con los objetivos y prioridades de la estrategia de gestión de riesgos, así como con la dirección de alto nivel de la política de ciberseguridad
+Ex3: Requerir la aprobación de la alta dirección sobre la política
+Ex4: Comunicar la política de gestión de riesgos de ciberseguridad y los procesos y procedimientos de apoyo en toda la organización
+Ex5: Exigir que el personal acuse recibo de la póliza cuando se contrata por primera vez, anualmente y siempre que se actualice la póliza.</t>
+  </si>
+  <si>
+    <t>La política de gestión de riesgos de seguridad cibernética se revisa, actualiza, comunica y aplica para reflejar los cambios en los requisitos, las amenazas, la tecnología y la misión de la organización</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Actualizar la política sobre la base de revisiones periódicas de los resultados de la gestión de riesgos de ciberseguridad para garantizar que la política y los procesos y procedimientos de apoyo mantengan adecuadamente el riesgo en un nivel aceptable
+Ex2: Proporcionar un cronograma para revisar los cambios en el entorno de riesgo de la organización (por ejemplo, cambios en el riesgo o en los objetivos de la misión de la organización) y comunicar las actualizaciones de políticas recomendadas
+Ex3: Actualizar la política para reflejar los cambios en los requisitos legales y reglamentarios
+Ej.4: Actualizar la política para reflejar los cambios en la tecnología (por ejemplo, la adopción de la inteligencia artificial) y los cambios en el negocio (por ejemplo, la adquisición de un nuevo negocio, los nuevos requisitos del contrato)</t>
+  </si>
+  <si>
+    <t>Supervisión</t>
+  </si>
+  <si>
+    <t>Los resultados de las actividades de gestión de riesgos de seguridad cibernética en toda la organización y el rendimiento se utilizan para informar, mejorar y ajustar la estrategia de gestión de riesgos</t>
+  </si>
+  <si>
+    <t>Los resultados de la estrategia de gestión de riesgos de seguridad cibernética se revisan para informar y ajustar la estrategia y la dirección</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ej. Medir qué tan bien la estrategia de gestión de riesgos y los resultados de riesgos han ayudado a los líderes a tomar decisiones y alcanzar los objetivos organizacionales.
+Ex2: Examinar si se deben ajustar las estrategias de riesgo de ciberseguridad que obstaculizan las operaciones o la innovación</t>
+  </si>
+  <si>
+    <t>La estrategia de gestión de riesgos de seguridad cibernética se revisa y ajusta para garantizar la cobertura de los requisitos y riesgos de la organización</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Revisar los resultados de la auditoría para confirmar si la estrategia de ciberseguridad existente ha garantizado el cumplimiento de los requisitos internos y externos.
+Ex2: Revisar la supervisión del rendimiento de los que desempeñan funciones relacionadas con la ciberseguridad para determinar si es necesario realizar cambios en las políticas
+Ex3: Revisar la estrategia a la luz de los incidentes de ciberseguridad</t>
+  </si>
+  <si>
+    <t>El rendimiento de la gestión de riesgos de seguridad cibernética de la organización se evalúa y revisa para realizar los ajustes necesarios</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Revisar los indicadores clave de rendimiento (KPI) para garantizar que las políticas y procedimientos de toda la organización alcancen los objetivos
+Ex2: Revisar los indicadores clave de riesgo (KRI) para identificar los riesgos a los que se enfrenta la organización, incluida la probabilidad y el impacto potencial
+Ex3: Recopilar y comunicar métricas sobre la gestión de riesgos de ciberseguridad con la alta dirección</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de riesgos de la cadena de suministro en materia de
+seguridad cibernética </t>
+  </si>
+  <si>
+    <t>Las partes interesadas de la organización identifican, establecen, gestionan, supervisan y mejoran los procesos de gestión de riesgos de la cadena de suministro cibernética</t>
+  </si>
+  <si>
+    <t>Las partes interesadas de la organización establecen y acuerdan un programa, estrategia, objetivos, políticas y procesos de gestión de riesgos de seguridad cibernética en la cadena de suministro</t>
+  </si>
+  <si>
+    <t>Ex1: Establecer una estrategia que exprese los objetivos del programa de gestión de riesgos de la cadena de suministro de ciberseguridad
+Ex2: Desarrollar el programa de gestión de riesgos de la cadena de suministro de ciberseguridad, incluido un plan (con hitos), políticas y procedimientos que guíen la implementación y mejora del programa, y compartir las políticas y procedimientos con las partes interesadas de la organización
+Ex3: Desarrollar e implementar procesos del programa basados en la estrategia, los objetivos, las políticas y los procedimientos acordados y realizados por las partes interesadas de la organización
+Ex4: Establecer un mecanismo interorganizacional que garantice la alineación entre las funciones que contribuyen a la gestión de riesgos de la cadena de suministro de ciberseguridad, como la ciberseguridad, la informática, las operaciones, el ámbito jurídico, el de recursos humanos y el de ingeniería
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Se establecen, comunican y coordinan interna y externamente las funciones y responsabilidades de seguridad cibernética para proveedores, clientes y colaboradores</t>
+  </si>
+  <si>
+    <t>Ex1: Identificar uno o más roles o puestos específicos que serán responsables y rendir cuentas de la planificación, dotación de recursos y ejecución de actividades de gestión de riesgos de la cadena de suministro de ciberseguridad
+Ex2: Documentar las funciones y responsabilidades de la gestión de riesgos de la cadena de suministro de ciberseguridad en la política
+Ex3: Crear matrices de responsabilidad para documentar quién será responsable de las actividades de gestión de riesgos de la cadena de suministro de ciberseguridad y cómo se consultará e informará a esos equipos e individuos
+Ex4: Incluir las responsabilidades de gestión de riesgos de la cadena de suministro de ciberseguridad y los requisitos de rendimiento en las descripciones del personal para garantizar la claridad y mejorar la rendición de cuentas
+Ex5: Documentar los objetivos de rendimiento del personal con responsabilidades específicas de gestión de riesgos de ciberseguridad y medirlos periódicamente para demostrar y mejorar el rendimiento
+Ex6: Desarrollar roles y responsabilidades para proveedores, clientes y socios comerciales para abordar las responsabilidades compartidas por los riesgos de ciberseguridad aplicables e integrarlos en las políticas organizacionales y los acuerdos de terceros aplicables.
+Ex7: Comunicar internamente las funciones y responsabilidades de la gestión de riesgos de la cadena de suministro de ciberseguridad para terceros
+Ex8: Establecer reglas y protocolos para el intercambio de información y los procesos de presentación de informes entre la organización y sus proveedores.
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>La gestión de riesgos de la cadena de suministro de seguridad cibernética está integrada en la seguridad cibernética y la gestión de riesgos empresariales, la evaluación de riesgos y los procesos de mejora</t>
+  </si>
+  <si>
+    <t>Ex1: Identificar áreas de alineación y superposición con la ciberseguridad y la gestión de riesgos empresariales
+Ex2: Establecer conjuntos de control integrados para la gestión de riesgos de ciberseguridad y la gestión de riesgos de la cadena de suministro de ciberseguridad
+Ex3: Integrar la gestión de riesgos de la cadena de suministro de ciberseguridad en los procesos de mejora
+Ex4: Escalar los riesgos materiales de ciberseguridad en las cadenas de suministro a la alta dirección y abordarlos a nivel de gestión de riesgos empresariales
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Los proveedores son conocidos y priorizados por criticidad</t>
+  </si>
+  <si>
+    <t>Ex1: Desarrollar criterios para la criticidad de los proveedores basados, por ejemplo, en la sensibilidad de los datos procesados o en posesión de los proveedores, el grado de acceso a los sistemas de la organización y la importancia de los productos o servicios para la misión de la organización.
+Ex2: Mantener un registro de todos los proveedores y priorizar a los proveedores en función de los criterios de criticidad
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Los requisitos para abordar los riesgos de seguridad cibernética en las cadenas de suministro se establecen, priorizan e integran en contratos y otros tipos de acuerdos con proveedores y otras terceras partes pertinentes</t>
+  </si>
+  <si>
+    <t>Ex1: Establecer requisitos de seguridad para proveedores, productos y servicios acordes con su nivel de criticidad y su posible impacto en caso de verse comprometidos.
+Ex2: Incluya todos los requisitos de ciberseguridad y de la cadena de suministro que deben seguir los terceros y cómo se puede verificar el cumplimiento de los requisitos en el lenguaje contractual predeterminado
+Ex3: Definir las reglas y protocolos para el intercambio de información entre la organización y sus proveedores y proveedores de subnivel en acuerdos
+Ex4: Gestionar el riesgo incluyendo requisitos de seguridad en los acuerdos en función de su criticidad y posible impacto en caso de verse comprometidos.
+Ex5: Definir los requisitos de seguridad en los acuerdos de nivel de servicio (SLA) para supervisar el rendimiento de seguridad aceptable de los proveedores a lo largo del ciclo de vida de la relación con los proveedores
+Ex6: Exigir contractualmente a los proveedores que divulguen las características, funciones y vulnerabilidades de ciberseguridad de sus productos y servicios durante la vida útil del producto o el plazo del servicio.
+Ex7: Exigir contractualmente a los proveedores que proporcionen y mantengan un inventario actualizado de componentes (por ejemplo, una lista de materiales de software o hardware) para productos críticos.
+Ex8: Exigir por contrato a los proveedores que investiguen a sus empleados y se protejan contra las amenazas internas
+Ex9: Exigir contractualmente a los proveedores que proporcionen pruebas de la realización de prácticas de seguridad aceptables a través, por ejemplo, de la autocertificación, la conformidad con normas conocidas, certificaciones o inspecciones.
+Ex10: Especificar en contratos y otros acuerdos los derechos y responsabilidades de la organización, sus proveedores y sus cadenas de suministro, con respecto a los posibles riesgos de ciberseguridad
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Se llevan a cabo la planificación y la diligencia debida para reducir los riesgos antes de entablar relaciones formales con proveedores u otros terceros</t>
+  </si>
+  <si>
+    <t>Ex1: Realizar una debida diligencia exhaustiva sobre los posibles proveedores que sea coherente con la planificación de adquisiciones y proporcional al nivel de riesgo, criticidad y complejidad de cada relación con el proveedor.
+Ex2: Evaluar la idoneidad de las capacidades tecnológicas y de ciberseguridad y las prácticas de gestión de riesgos de los posibles proveedores
+Ex3: Realizar evaluaciones de riesgos de los proveedores en relación con los requisitos empresariales y de ciberseguridad aplicables
+Ex4: Evaluar la autenticidad, integridad y seguridad de los productos críticos antes de su adquisición y uso
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Los riesgos planteados por un proveedor, sus productos y servicios y otros terceros se comprenden, registran, priorizan, evalúan, responden y monitorean a lo largo de la relación</t>
+  </si>
+  <si>
+    <t>Ex1: Ajustar los formatos y frecuencias de evaluación en función de la reputación del tercero y la criticidad de los productos o servicios que proporcionan
+Ex2: Evalúe las pruebas de cumplimiento de los requisitos contractuales de ciberseguridad por parte de terceros, como autocertificaciones, garantías, certificaciones y otros artefactos.
+Ex3: Supervisar a los proveedores críticos para asegurarse de que cumplen sus obligaciones de seguridad a lo largo del ciclo de vida de la relación con los proveedores utilizando una variedad de métodos y técnicas, como inspecciones, auditorías, pruebas u otras formas de evaluación.
+Ex4: Supervise a los proveedores, servicios y productos críticos para detectar cambios en sus perfiles de riesgo, y reevalúe la criticidad de los proveedores y el impacto del riesgo en consecuencia.
+Ex5: Planifique las interrupciones inesperadas relacionadas con los proveedores y la cadena de suministro para garantizar la continuidad del negocio
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Los proveedores pertinentes y otros terceros se incluyen en las actividades de planificación, respuesta y recuperación de incidentes</t>
+  </si>
+  <si>
+    <t>Ex1: Definir y utilizar reglas y protocolos para informar sobre las actividades de respuesta y recuperación de incidentes y el estado entre la organización y sus proveedores
+Ex2: Identificar y documentar las funciones y responsabilidades de la organización y sus proveedores para la respuesta a incidentes
+Ex3: Incluir a los proveedores críticos en los ejercicios y simulaciones de respuesta a incidentes
+Ex4: Definir y coordinar los métodos y protocolos de comunicación de crisis entre la organización y sus proveedores críticos
+Ex5: Llevar a cabo sesiones colaborativas de lecciones aprendidas con proveedores críticos
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Las prácticas de seguridad de la cadena de suministro se integran en los programas de seguridad cibernética y de gestión de riesgos empresariales, y su rendimiento se monitorea a lo largo del ciclo de vida de los productos y servicios tecnológicos</t>
+  </si>
+  <si>
+    <t>Ex1: Las políticas y procedimientos exigen registros de procedencia para todos los productos y servicios tecnológicos adquiridos
+Ex2: Proporcionar periódicamente informes de riesgo a los líderes sobre cómo se ha demostrado que los componentes adquiridos son auténticos y no manipulados.
+Ex3: Comunícate regularmente entre los gerentes de riesgos de ciberseguridad y el personal de operaciones sobre la necesidad de adquirir parches, actualizaciones y mejoras de software solo de proveedores de software autenticados y confiables
+Ex4: Revisar las políticas para asegurarse de que requieren que el personal aprobado del proveedor realice el mantenimiento de los productos del proveedor
+Ex5: Las políticas y los procedimientos requieren la comprobación de las actualizaciones de hardware crítico en busca de cambios no autorizados
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Los planes de gestión de riesgos de la cadena de suministro de seguridad cibernética incluyen disposiciones para las actividades que ocurren después de la conclusión de un acuerdo de colaboración o servicio</t>
+  </si>
+  <si>
+    <t>Ex1: Establecer procesos para terminar relaciones críticas tanto en circunstancias normales como adversas
+Ex2: Definir e implementar planes para el soporte de mantenimiento al final de la vida útil de los componentes y la obsolescencia
+Ex3: Verifique que el acceso de los proveedores a los recursos de la organización se desactive de inmediato cuando ya no sea necesario
+Ex4: Verificar que los activos que contienen los datos de la organización se devuelvan o se eliminen correctamente de manera oportuna, controlada y segura
+Ex5: Desarrollar y ejecutar un plan para terminar o hacer la transición de las relaciones con los proveedores que tenga en cuenta el riesgo de seguridad y la resiliencia de la cadena de suministro
+Ex6: Mitigar los riesgos para los datos y los sistemas creados por la rescisión de proveedores
+Ex7: Gestionar los riesgos de fuga de datos asociados a la rescisión de proveedores
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>IDENTIFICAR</t>
+  </si>
+  <si>
+    <t>Se conocen los riesgos de seguridad cibernética actuales de la organización</t>
+  </si>
+  <si>
+    <t>Gestión de activos</t>
+  </si>
+  <si>
+    <t>Los activos (p. ej., datos, hardware, software, sistemas, instalaciones, servicios, personas) que permiten a la organización alcanzar sus objetivos empresariales se identifican y gestionan de acuerdo con su importancia relativa para los objetivos organizativos y la estrategia de riesgos de la organización</t>
+  </si>
+  <si>
+    <t>Se mantienen inventarios del hardware gestionado por la organización</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Mantener inventarios para todo tipo de hardware, incluidos TI, IoT, OT y dispositivos móviles
+Ex2: Monitoree constantemente las redes para detectar nuevo hardware y actualizar automáticamente los inventarios</t>
+  </si>
+  <si>
+    <t>Se mantienen inventarios de software, servicios y sistemas gestionados por la organización</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Mantener inventarios para todo tipo de software y servicios, incluidos los comerciales, de código abierto, aplicaciones personalizadas, servicios de API y aplicaciones y servicios basados en la nube
+Ex2: Supervise constantemente todas las plataformas, incluidos los contenedores y las máquinas virtuales, para detectar cambios en el inventario de software y servicios.
+Ex3: Mantener un inventario de los sistemas de la organización</t>
+  </si>
+  <si>
+    <t>Se mantienen representaciones de la comunicación de red autorizada de la organización y de los flujos de datos de red internos y externos</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Mantener las líneas de base de los flujos de comunicación y datos dentro de las redes cableadas e inalámbricas de la organización
+Ex2: Mantener las líneas de base de la comunicación y los flujos de datos entre la organización y terceros
+Ex3: Mantener las líneas de base de los flujos de comunicación y datos para el uso de la infraestructura como servicio (IaaS) de la organización
+Ex4: Mantener la documentación de los puertos de red, protocolos y servicios esperados que se utilizan normalmente entre los sistemas autorizados</t>
+  </si>
+  <si>
+    <t>Se mantienen inventarios de los servicios prestados por los proveedores</t>
+  </si>
+  <si>
+    <t>Ex1: Inventario de todos los servicios externos utilizados por la organización, incluidas las ofertas de infraestructura como servicio (IaaS), plataforma como servicio (PaaS) y software como servicio (SaaS) de terceros; Apis; y otros servicios de aplicaciones alojados externamente
+Ex2: Actualizar el inventario cuando se vaya a utilizar un nuevo servicio externo para garantizar un seguimiento adecuado de la gestión de riesgos de ciberseguridad del uso de ese servicio por parte de la organización
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Se priorizan los activos en función de su clasificación, criticidad, recursos e impacto en la misión</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Definir criterios para priorizar cada clase de activos
+Ex2: Aplicar los criterios de priorización a los activos
+Ex3: Realice un seguimiento de las prioridades de los activos y actualícelas periódicamente o cuando se produzcan cambios significativos en la organización</t>
+  </si>
+  <si>
+    <t>Se mantienen inventarios de datos y los metadatos correspondientes para los tipos de datos designados</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Mantener una lista de los tipos de datos designados de interés (por ejemplo, información de identificación personal, información de salud protegida, números de cuentas financieras, propiedad intelectual de la organización, datos de tecnología operativa)
+Ex2: Descubrir y analizar continuamente datos ad hoc para identificar nuevas instancias de tipos de datos designados
+Ex3: Asigne clasificaciones de datos a tipos de datos designados a través de etiquetas o rótulos
+Ex4: Rastree la procedencia, el propietario de los datos y la geolocalización de cada instancia de los tipos de datos designados</t>
+  </si>
+  <si>
+    <t>Los sistemas, el hardware, el software, los servicios y los datos se gestionan durante todo su ciclo de vida</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Integrar las consideraciones de ciberseguridad a lo largo de los ciclos de vida de los sistemas, el hardware, el software y los servicios
+Ex2: Integrar las consideraciones de ciberseguridad en los ciclos de vida de los productos
+Ex3: Identificar los usos no oficiales de la tecnología para cumplir con los objetivos de la misión (es decir, TI en la sombra)
+Ex4: Identifique periódicamente sistemas, hardware, software y servicios redundantes que aumenten innecesariamente la superficie de ataque de la organización
+Ex5: Configurar y proteger correctamente los sistemas, el hardware, el software y los servicios antes de su implementación en producción
+Ex6: Actualizar los inventarios cuando los sistemas, el hardware, el software y los servicios se mueven o transfieren dentro de la organización
+Ex7: Destruya de forma segura los datos almacenados en función de la política de retención de datos de la organización utilizando el método de destrucción prescrito, y mantenga y administre un registro de las destrucciones.
+Ex8: Desinfecte de forma segura el almacenamiento de datos cuando el hardware se retire, se retire, se reasigne o se envíe para su reparación o reemplazo
+Ex9: Ofrecer métodos para destruir papel, medios de almacenamiento y otras formas físicas de almacenamiento de datos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación de riesgos </t>
+  </si>
+  <si>
+    <t>La organización comprende el riesgo de seguridad cibernética para la organización, los activos y los individuos</t>
+  </si>
+  <si>
+    <t>Se identifican, validan y registran las vulnerabilidades de los activos</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Utilizar tecnologías de gestión de vulnerabilidades para identificar software sin parches y mal configurado
+Ex2: Evaluar las arquitecturas de redes y sistemas para detectar debilidades de diseño e implementación que afecten a la ciberseguridad
+Ex3: Revisar, analizar o probar el software desarrollado por la organización para identificar vulnerabilidades de diseño, codificación y configuración predeterminada
+Ex4: Evaluar las instalaciones que albergan activos informáticos críticos para detectar vulnerabilidades físicas y problemas de resiliencia
+Ex5: Supervisar las fuentes de inteligencia de amenazas cibernéticas para obtener información sobre nuevas vulnerabilidades en productos y servicios
+Ex6: Revisar los procesos y procedimientos en busca de debilidades que puedan aprovecharse para afectar a la ciberseguridad.</t>
+  </si>
+  <si>
+    <t>Se recibe información sobre amenazas cibernéticas de foros y fuentes de intercambio de información</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Configure herramientas y tecnologías de ciberseguridad con capacidades de detección o respuesta para ingerir de forma segura las fuentes de inteligencia de amenazas cibernéticas
+Ex2: Reciba y revise avisos de terceros acreditados sobre los actores de amenazas actuales y sus tácticas, técnicas y procedimientos (TTP)
+Ex3: Monitorear las fuentes de inteligencia de amenazas cibernéticas para obtener información sobre los tipos de vulnerabilidades que pueden tener las tecnologías emergentes</t>
+  </si>
+  <si>
+    <t>Se identifican y registran las amenazas internas y externas a la organización</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Utilice la inteligencia de amenazas cibernéticas para mantener el conocimiento de los tipos de actores de amenazas que probablemente se dirijan a la organización y los TTP que probablemente usarán
+Ex2: Realizar la búsqueda de amenazas para buscar signos de actores de amenazas dentro del entorno
+Ex3: Implementar procesos para identificar a los actores de amenazas internas</t>
+  </si>
+  <si>
+    <t>Se identifican y registran los impactos potenciales y las probabilidades de que las amenazas exploten las vulnerabilidades</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Los líderes empresariales y los profesionales de la gestión de riesgos de ciberseguridad trabajan juntos para estimar la probabilidad y el impacto de los escenarios de riesgo y registrarlos en registros de riesgos
+Ex2: Enumerar los posibles impactos en el negocio del acceso no autorizado a las comunicaciones, los sistemas y los datos de la organización procesados en o por esos sistemas
+Ex3: Tener en cuenta los impactos potenciales de los fallos en cascada para los sistemas de sistemas</t>
+  </si>
+  <si>
+    <t>Las amenazas, las vulnerabilidades, las probabilidades y los impactos se utilizan para comprender el riesgo inherente e informar sobre la priorización de la respuesta al riesgo</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Desarrollar modelos de amenazas para comprender mejor los riesgos para los datos e identificar las respuestas adecuadas a los riesgos
+Ex2: Priorizar las asignaciones de recursos de ciberseguridad y las inversiones en función de las probabilidades y los impactos estimados</t>
+  </si>
+  <si>
+    <t>Se eligen, priorizan, planifican, controlan y comunican las respuestas al riesgo</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Aplicar los criterios del plan de gestión de vulnerabilidades para decidir si aceptar, transferir, mitigar o evitar el riesgo
+Ex2: Aplicar los criterios del plan de gestión de vulnerabilidades para seleccionar controles de compensación para mitigar el riesgo
+Ex3: Seguimiento del progreso de la implementación de la respuesta al riesgo (por ejemplo, plan de acción e hitos [POA&amp;M], registro de riesgos, informe detallado de riesgos)
+Ex4: Utilizar los resultados de la evaluación de riesgos para informar las decisiones y acciones de respuesta al riesgo
+Ex5: Comunicar las respuestas planificadas a los riesgos a las partes interesadas afectadas en orden de prioridad</t>
+  </si>
+  <si>
+    <t>Se gestionan los cambios y las excepciones, se evalúa su impacto en el riesgo, se registran y se realiza su seguimiento</t>
+  </si>
+  <si>
+    <t>Ex1: Implementar y seguir procedimientos para la documentación formal, revisión, prueba y aprobación de los cambios propuestos y las excepciones solicitadas
+Ex2: Documentar los posibles riesgos de realizar o no realizar cada cambio propuesto y proporcionar orientación sobre cómo revertir los cambios.
+Ex3: Documentar los riesgos relacionados con cada excepción solicitada y el plan para responder a esos riesgos.
+Ex4: Revisar periódicamente los riesgos que se aceptaron en función de las acciones o hitos futuros planificados</t>
+  </si>
+  <si>
+    <t>Se establecen procesos para recibir, analizar y responder a las divulgaciones de vulnerabilidades</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Llevar a cabo el intercambio de información sobre vulnerabilidades entre la organización y sus proveedores siguiendo las reglas y protocolos definidos en los contratos.
+Ex2: Asignar responsabilidades y verificar la ejecución de procedimientos para procesar, analizar el impacto y responder a las divulgaciones de amenazas, vulnerabilidades o incidentes de ciberseguridad por parte de proveedores, clientes, socios y organizaciones gubernamentales de ciberseguridad</t>
+  </si>
+  <si>
+    <t>Se evalúa la autenticidad e integridad del hardware y software antes de su adquisición y uso</t>
+  </si>
+  <si>
+    <t>Ex1: Evaluar la autenticidad y la ciberseguridad de los productos y servicios tecnológicos críticos antes de su adquisición y uso
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Se evalúan los proveedores críticos antes de su adquisición</t>
+  </si>
+  <si>
+    <t>Ex1: Realizar evaluaciones de riesgos de los proveedores en relación con los requisitos empresariales y de ciberseguridad aplicables, incluida la cadena de suministro</t>
+  </si>
+  <si>
+    <t>Mejora</t>
+  </si>
+  <si>
+    <t>Se identifican mejoras en los procesos, procedimientos y actividades de gestión de riesgos de seguridad cibernética de la organización en todas las funciones del CSF</t>
+  </si>
+  <si>
+    <t>Las mejoras se identifican a partir de evaluaciones</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Realizar autoevaluaciones de los servicios críticos que tengan en cuenta las amenazas actuales y los TTP
+Ex2: Invertir en evaluaciones de terceros o auditorías independientes de la eficacia del programa de ciberseguridad de la organización para identificar las áreas que necesitan mejoras.
+Ex3: Evaluar constantemente el cumplimiento de los requisitos de ciberseguridad seleccionados a través de medios automatizados</t>
+  </si>
+  <si>
+    <t>Las mejoras se identifican a partir de pruebas y ejercicios de seguridad, lo que incluye a los realizados en coordinación con proveedores y terceros pertinentes</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Identificar mejoras para futuras actividades de respuesta a incidentes en función de los hallazgos de las evaluaciones de respuesta a incidentes (por ejemplo, ejercicios de mesa y simulaciones, pruebas, revisiones internas, auditorías independientes)
+Ex2: Identificar mejoras para futuras actividades de continuidad del negocio, recuperación ante desastres y respuesta a incidentes en función de ejercicios realizados en coordinación con proveedores de servicios críticos y proveedores de productos
+Ex3: Involucrar a las partes interesadas internas (por ejemplo, altos ejecutivos, departamento legal, recursos humanos) en pruebas y ejercicios de seguridad, según corresponda
+Ex4: Realizar pruebas de penetración para identificar oportunidades para mejorar la postura de seguridad de los sistemas de alto riesgo seleccionados según lo aprobado por el liderazgo
+Ex5: Ejercitar planes de contingencia para responder y recuperarse del descubrimiento de que los productos o servicios no se originaron con el proveedor o socio contratado o fueron alterados antes de su recepción
+Ex6: Recopilar y analizar métricas de rendimiento utilizando herramientas y servicios de seguridad para informar sobre las mejoras en el programa de ciberseguridad</t>
+  </si>
+  <si>
+    <t>Las mejoras se identifican a partir de la ejecución de procesos, procedimientos y actividades operativos</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Llevar a cabo sesiones colaborativas de lecciones aprendidas con los proveedores
+Ex2: Revisar anualmente las políticas, procesos y procedimientos de ciberseguridad para tener en cuenta las lecciones aprendidas.
+Ex3: Utilice métricas para evaluar el rendimiento de la ciberseguridad operativa a lo largo del tiempo</t>
+  </si>
+  <si>
+    <t>Se establecen, comunican, mantienen y mejoran los planes de respuesta a incidentes y otros planes de seguridad cibernética que afectan a las operaciones.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Establecer planes de contingencia (por ejemplo, respuesta a incidentes, continuidad del negocio, recuperación ante desastres) para responder y recuperarse de eventos adversos que puedan interferir con las operaciones, exponer información confidencial o poner en peligro la misión y viabilidad de la organización.
+Ex2: Incluya información de contacto y comunicación, procesos para manejar escenarios comunes y criterios para la priorización, escalamiento y elevación en todos los planes de contingencia
+Ex3: Crear un plan de gestión de vulnerabilidades para identificar y evaluar todos los tipos de vulnerabilidades y priorizar, probar e implementar respuestas al riesgo
+Ex4: Comunicar los planes de ciberseguridad (incluidas las actualizaciones) a los responsables de llevarlos a cabo y a las partes afectadas
+Ex5: Revisar y actualizar todos los planes de ciberseguridad anualmente o cuando se identifique la necesidad de mejoras significativas.</t>
+  </si>
+  <si>
+    <t>PROTEGER</t>
+  </si>
+  <si>
+    <t>Se utilizan medidas de protección para gestionar los riesgos de seguridad cibernética de la organización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de identidades, autenticación y control de acceso </t>
+  </si>
+  <si>
+    <t>El acceso a los activos físicos y lógicos se limita a los usuarios, servicios y hardware autorizados y se gestiona de forma proporcional al riesgo evaluado de acceso no autorizado</t>
+  </si>
+  <si>
+    <t>La organización gestiona las identidades y credenciales de los usuarios, servicios y equipos autorizados</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Iniciar solicitudes de nuevo acceso o acceso adicional para empleados, contratistas y otros, y rastrear, revisar y cumplir con las solicitudes, con el permiso de los propietarios del sistema o de los datos cuando sea necesario
+Ex2: emita, administre y revoque certificados criptográficos y tokens de identidad, claves criptográficas (es decir, administración de claves) y otras credenciales
+Ex3: seleccione un identificador único para cada dispositivo a partir de características de hardware inmutables o un identificador aprovisionado de forma segura en el dispositivo
+Ex4: Etiquete físicamente el hardware autorizado con un identificador para fines de inventario y servicio</t>
+  </si>
+  <si>
+    <t>Las identidades están comprobadas y vinculadas a credenciales basadas en el contexto de las interacciones</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Verificar la identidad declarada de una persona en el momento de la inscripción utilizando credenciales de identidad emitidas por el gobierno (p. ej., pasaporte, visa, licencia de conducir)
+Ex2: Emitir una credencial diferente para cada persona (es decir, no compartir credenciales)</t>
+  </si>
+  <si>
+    <t>Los usuarios, servicios y hardware están autenticados</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Requerir autenticación multifactor
+Ex2: Aplique políticas para la seguridad mínima de contraseñas, PIN y autenticadores similares
+Ex3: Volver a autenticar periódicamente a los usuarios, servicios y hardware en función del riesgo (por ejemplo, en arquitecturas de confianza cero)
+Punto 4: Garantizar que el personal autorizado pueda acceder a las cuentas esenciales para proteger la seguridad en condiciones de emergencia</t>
+  </si>
+  <si>
+    <t>Las afirmaciones de identidad se protegen, transmiten y verifican</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Proteger las aserciones de identidad que se utilizan para transmitir información de autenticación y usuario a través de sistemas de inicio de sesión único
+Ex2: Proteger las aserciones de identidad que se utilizan para transmitir información de autenticación y usuario entre sistemas federados
+Ex3: Implemente enfoques basados en estándares para las aserciones de identidad en todos los contextos y siga todas las instrucciones para la generación (p. ej., modelos de datos, metadatos), protección (p. ej., firma digital, cifrado) y verificación (p. ej., validación de firma) de aserciones de identidad</t>
+  </si>
+  <si>
+    <t>Los permisos de acceso, los derechos y las autorizaciones se definen en una política, se gestionan, se aplican y se revisan, e incorporan los principios de privilegio mínimo y separación de funciones</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Revise los privilegios de acceso lógico y físico periódicamente y cada vez que alguien cambie de rol o abandone la organización, y rescinda de inmediato los privilegios que ya no sean necesarios
+Ex2: Tenga en cuenta los atributos del solicitante y el recurso solicitado para las decisiones de autorización (por ejemplo, geolocalización, día/hora, estado cibernético del punto final del solicitante)
+Ex3: Restrinja el acceso y los privilegios al mínimo necesario (por ejemplo, arquitectura de confianza cero)
+Ex4: Revisar periódicamente los privilegios asociados con las funciones críticas del negocio para confirmar la separación adecuada de funciones</t>
+  </si>
+  <si>
+    <t>El acceso físico a los activos se gestiona, supervisa y aplica de forma proporcional al riesgo</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Use guardias de seguridad, cámaras de seguridad, entradas cerradas, sistemas de alarma y otros controles físicos para monitorear las instalaciones y restringir el acceso
+Ex2: Emplear controles de seguridad física adicionales para áreas que contienen activos de alto riesgo
+Ex3: Acompañe a invitados, proveedores y otros terceros dentro de áreas que contengan activos críticos para el negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concienciación y capacitación </t>
+  </si>
+  <si>
+    <t>Se proporciona al personal de la organización concienciación y capacitación en seguridad cibernética para que puedan realizar sus tareas relacionadas con la seguridad cibernética</t>
+  </si>
+  <si>
+    <t>Se sensibiliza y capacita al personal para que disponga de los conocimientos y habilidades necesarios para realizar tareas generales teniendo en cuenta los riesgos de seguridad cibernética</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Proporcionar concienciación y formación básicas en materia de ciberseguridad a los empleados, contratistas, socios, proveedores y todos los demás usuarios de los recursos no públicos de la organización.
+Ex2: Capacitar al personal para reconocer intentos de ingeniería social y otros ataques comunes, informar ataques y actividades sospechosas, cumplir con las políticas de uso aceptable y realizar tareas básicas de higiene cibernética (por ejemplo, parchear software, elegir contraseñas, proteger credenciales)
+Ex3: Explicar las consecuencias de las violaciones de las políticas de ciberseguridad, tanto a los usuarios individuales como a la organización en su conjunto
+Ex4: Evaluar o evaluar periódicamente a los usuarios en su comprensión de las prácticas básicas de ciberseguridad
+Ex5: Exigir un repaso anual para reforzar las prácticas existentes e introducir nuevas prácticas</t>
+  </si>
+  <si>
+    <t>Se sensibiliza y capacita a las personas que desempeñan funciones especializadas para que posean los conocimientos y aptitudes necesarios para realizar las tareas pertinentes teniendo en cuenta los riesgos de seguridad cibernética</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Identificar los roles especializados dentro de la organización que requieren capacitación adicional en ciberseguridad, como el personal físico y de ciberseguridad, el personal financiero, el liderazgo sénior y cualquier persona con acceso a datos críticos para el negocio
+Ex2: Proporcionar concienciación y formación en ciberseguridad basada en funciones a todos los que desempeñan funciones especializadas, incluidos contratistas, socios, proveedores y otros terceros.
+Ex3: Evaluar o evaluar periódicamente a los usuarios sobre su comprensión de las prácticas de ciberseguridad para sus roles especializados
+Ex4: Exigir un repaso anual para reforzar las prácticas existentes e introducir nuevas prácticas</t>
+  </si>
+  <si>
+    <t>Seguridad de datos</t>
+  </si>
+  <si>
+    <t>Los datos se gestionan de forma coherente con la estrategia de riesgos de la organización para proteger la confidencialidad, integridad y disponibilidad de la información</t>
+  </si>
+  <si>
+    <t>La confidencialidad, la integridad y la disponibilidad de los datos en reposo están protegidas</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: use el cifrado, las firmas digitales y los hashes criptográficos para proteger la confidencialidad y la integridad de los datos almacenados en archivos, bases de datos, imágenes de disco de máquina virtual, imágenes de contenedor y otros recursos
+Ex2: Utilice el cifrado de disco completo para proteger los datos almacenados en los puntos de conexión de usuario
+Ex3: Confirme la integridad del software mediante la validación de firmas
+Ex4: Restrinja el uso de medios extraíbles para evitar la exfiltración de datos
+Ex5: Medios extraíbles físicamente seguros que contienen información confidencial sin cifrar, como dentro de oficinas o archivadores cerrados con llave</t>
+  </si>
+  <si>
+    <t>La confidencialidad, la integridad y la disponibilidad de los datos en tránsito están protegidas</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Utilice el cifrado, las firmas digitales y los hashes criptográficos para proteger la confidencialidad y la integridad de las comunicaciones de red
+Ex2: Cifre o bloquee automáticamente los correos electrónicos salientes y otras comunicaciones que contengan datos confidenciales, según la clasificación de datos
+Ex3: Bloquear el acceso al correo electrónico personal, el uso compartido de archivos, los servicios de almacenamiento de archivos y otras aplicaciones y servicios de comunicaciones personales desde los sistemas y redes de la organización
+Ex4: Evitar la reutilización de datos confidenciales de entornos de producción (por ejemplo, registros de clientes) en entornos de desarrollo, pruebas y otros entornos que no sean de producción</t>
+  </si>
+  <si>
+    <t>La confidencialidad, la integridad y la disponibilidad de los datos en uso están protegidas</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Eliminar los datos que deben permanecer confidenciales (por ejemplo, de los procesadores y la memoria) tan pronto como ya no sean necesarios
+Ex2: Proteger los datos en uso del acceso de otros usuarios y procesos de la misma plataforma</t>
+  </si>
+  <si>
+    <t>Se crean, protegen, mantienen y comprueban copias de seguridad de los datos</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Realice copias de seguridad continuas de datos críticos casi en tiempo real y haga copias de seguridad de otros datos con frecuencia en los horarios acordados
+Ex2: Pruebe las copias de seguridad y restauraciones de todos los tipos de fuentes de datos al menos una vez al año
+Ex3: Almacene de forma segura algunas copias de seguridad fuera de línea y fuera del sitio para que un incidente o desastre no las dañe
+Ex4: Aplicar restricciones de separación geográfica y geolocalización para el almacenamiento de copias de seguridad de datos</t>
+  </si>
+  <si>
+    <t>Seguridad de plataformas</t>
+  </si>
+  <si>
+    <t>El hardware, el software (p. ej., firmware, sistemas operativos, aplicaciones) y los servicios de las plataformas físicas y virtuales se gestionan de acuerdo con la estrategia de riesgos de la organización para proteger su confidencialidad, integridad y disponibilidad</t>
+  </si>
+  <si>
+    <t>Se establecen y aplican prácticas de gestión de la configuración</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Establecer, probar, implementar y mantener líneas de base reforzadas que hagan cumplir las políticas de ciberseguridad de la organización y proporcionen solo capacidades esenciales (es decir, el principio de funcionalidad mínima)
+Ex2: Revise todos los ajustes de configuración predeterminados que puedan afectar a la ciberseguridad al instalar o actualizar software
+Ex3: Supervisar el software implementado para detectar desviaciones de las líneas de base aprobadas</t>
+  </si>
+  <si>
+    <t>Se mantiene, sustituye y elimina el software en función del riesgo</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Realizar parches de rutina y de emergencia dentro de los plazos especificados en el plan de gestión de vulnerabilidades
+Ex2: Actualice las imágenes de contenedor e implemente nuevas instancias de contenedor para reemplazar las instancias existentes en lugar de actualizarlas
+Ex3: Sustituya las versiones de software y servicios al final de su vida útil por versiones compatibles y mantenidas
+Ex4: Desinstalar y eliminar software y servicios no autorizados que presenten riesgos indebidos
+Ex5: Desinstale y elimine cualquier componente de software innecesario (por ejemplo, utilidades del sistema operativo) que los atacantes puedan utilizar indebidamente
+Ex6: Definir e implementar planes para el soporte de mantenimiento al final de la vida útil del software y los servicios y la obsolescencia</t>
+  </si>
+  <si>
+    <t>Se mantiene, sustituye y elimina el hardware en función del riesgo</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Reemplace el hardware cuando carezca de las capacidades de seguridad necesarias o cuando no pueda admitir software con las capacidades de seguridad necesarias
+Ex2: Definir e implementar planes para el soporte de mantenimiento al final de la vida útil del hardware y la obsolescencia
+Ex3: Realizar la eliminación de hardware de forma segura, responsable y auditable</t>
+  </si>
+  <si>
+    <t>Se generen registros y se ponen a disposición para una supervisión continua</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Configurar todos los sistemas operativos, aplicaciones y servicios (incluidos los servicios basados en la nube) para generar registros
+Ex2: Configurar generadores de registros para compartir de forma segura sus registros con los sistemas y servicios de infraestructura de registro de la organización
+Ex3: Configurar generadores de registros para registrar los datos que necesitan las arquitecturas de confianza cero</t>
+  </si>
+  <si>
+    <t>Se impide la instalación y la ejecución de software no autorizado</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Cuando el riesgo lo justifique, restrinja la ejecución del software solo a los productos permitidos o deniegue la ejecución de software prohibido y no autorizado
+Ex2: Verifique la fuente del nuevo software y la integridad del software antes de instalarlo
+Ex3: Configurar plataformas para usar solo servicios DNS aprobados que bloqueen el acceso a dominios malintencionados conocidos
+Ex4: Configurar plataformas para permitir la instalación solo de software aprobado por la organización</t>
+  </si>
+  <si>
+    <t>Se integran prácticas seguras de desarrollo de software y se supervisa su rendimiento durante todo el ciclo de vida de desarrollo del software</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Proteger todos los componentes del software desarrollado por la organización contra la manipulación y el acceso no autorizado
+Ex2: Asegurar todo el software producido por la organización, con vulnerabilidades mínimas en sus versiones
+Ex3: Mantener el software utilizado en los entornos de producción y desechar de forma segura el software una vez que ya no sea necesario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistencia de la infraestructura tecnológica </t>
+  </si>
+  <si>
+    <t>Las arquitecturas de seguridad se gestionan con la estrategia de riesgos de la organización a fin de proteger la confidencialidad, la integridad y la disponibilidad de los activos, así como la resiliencia de la organización</t>
+  </si>
+  <si>
+    <t>Las redes y los entornos están protegidos contra el acceso lógico y el uso no autorizados</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Segmentar lógicamente las redes de la organización y las plataformas basadas en la nube de acuerdo con los límites de confianza y los tipos de plataforma (por ejemplo, TI, IoT, OT, móvil, invitados) y permitir las comunicaciones necesarias solo entre segmentos.
+Ex2: Segmentar lógicamente las redes de la organización de las redes externas y permitir que solo las comunicaciones necesarias ingresen a las redes de la organización desde las redes externas
+Ex3: Implementar arquitecturas de confianza cero para restringir el acceso a la red a cada recurso al mínimo necesario
+Ex4: Comprobar el estado cibernético de los endpoints antes de permitirles acceder y utilizar los recursos de producción</t>
+  </si>
+  <si>
+    <t>Los activos tecnológicos de la organización están protegidos de las amenazas del entorno</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Proteger el equipo de la organización de amenazas ambientales conocidas, como inundaciones, incendios, vientos y calor y humedad excesivos
+Ex2: Incluir la protección contra las amenazas ambientales y las disposiciones para una infraestructura operativa adecuada en los requisitos para los proveedores de servicios que operan sistemas en nombre de la organización.</t>
+  </si>
+  <si>
+    <t>Se implementan mecanismos para lograr los requisitos de resiliencia en situaciones normales y adversas</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Evitar puntos únicos de fallo en los sistemas y la infraestructura
+Ex2: Utilice el equilibrio de carga para aumentar la capacidad y mejorar la confiabilidad
+Ex3: Utilice componentes de alta disponibilidad, como almacenamiento redundante y fuentes de alimentación, para mejorar la fiabilidad del sistema</t>
+  </si>
+  <si>
+    <t>Se mantiene una capacidad de recursos adecuada para garantizar la disponibilidad</t>
+  </si>
+  <si>
+    <t>Ex1: Supervise el uso del almacenamiento, la energía, la computación, el ancho de banda de red y otros recursos
+Ex2: Pronostique las necesidades futuras y escale los recursos en consecuencia</t>
+  </si>
+  <si>
+    <t>DETECTAR</t>
+  </si>
+  <si>
+    <t>Se detectan y analizan posibles ataques y situaciones comprometedoras en materia de seguridad cibernética.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoreo continuo </t>
+  </si>
+  <si>
+    <t>Los activos se monitorean para encontrar anomalías, indicadores de compromiso y otros acontecimientos potencialmente adversos</t>
+  </si>
+  <si>
+    <t>Las redes y los servicios de red se monitorean para detectar acontecimientos potencialmente adversos</t>
+  </si>
+  <si>
+    <t>Ex1: Supervise DNS, BGP y otros servicios de red en busca de eventos adversos
+Ex2: Supervise las redes cableadas e inalámbricas en busca de conexiones desde puntos finales no autorizados
+Ex3: Supervise las instalaciones en busca de redes inalámbricas no autorizadas o no autorizadas
+Ex4: Compare los flujos de red reales con las líneas de base para detectar desviaciones
+Ex5: Supervisar las comunicaciones de red para identificar cambios en las posturas de seguridad con fines de confianza cero
+1º: Riesgo de 1ª parte</t>
+  </si>
+  <si>
+    <t>Se monitorea el entorno físico para detectar posibles acontecimientos adversos</t>
+  </si>
+  <si>
+    <t>Ex1: Supervise los registros de los sistemas físicos de control de acceso (p. ej., lectores de credenciales) para encontrar patrones de acceso inusuales (p. ej., desviaciones de la norma) e intentos de acceso fallidos
+Ex2: Revisar y supervisar los registros de acceso físico (p. ej., desde el registro de visitantes, las hojas de registro)
+Ex3: Supervise los controles de acceso físico (p. ej., cerraduras, pestillos, pasadores de bisagras, alarmas) para detectar signos de manipulación
+Ex4: Monitoree el entorno físico utilizando sistemas de alarma, cámaras y guardias de seguridad
+1º: Riesgo de 1ª parte</t>
+  </si>
+  <si>
+    <t>Se monitorea la actividad del personal y el uso de la tecnología para detectar posibles acontecimientos adversos</t>
+  </si>
+  <si>
+    <t>Ex1: Utilice software de análisis de comportamiento para detectar actividad anómala de los usuarios y mitigar las amenazas internas
+Ex2: Supervise los registros de los sistemas lógicos de control de acceso para encontrar patrones de acceso inusuales e intentos de acceso fallidos
+Ex3: Supervise continuamente la tecnología de engaño, incluidas las cuentas de usuario, para cualquier uso
+1º: Riesgo de 1ª parte</t>
+  </si>
+  <si>
+    <t>Se monitorean las actividades y los servicios de los proveedores de servicios externos para detectar acontecimientos potencialmente adversos.</t>
+  </si>
+  <si>
+    <t>Ex1: Supervisar las actividades de administración y mantenimiento remotas e in situ que los proveedores externos realizan en los sistemas de la organización
+Ex2: Supervise la actividad de los servicios basados en la nube, los proveedores de servicios de Internet y otros proveedores de servicios para detectar desviaciones del comportamiento esperado
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Se monitorean el hardware y el software informáticos, los entornos de ejecución y sus datos para detectar posibles acontecimientos adversos</t>
+  </si>
+  <si>
+    <t>Ex1: Supervise el correo electrónico, la web, el uso compartido de archivos, los servicios de colaboración y otros vectores de ataque comunes para detectar malware, phishing, fugas y exfiltraciones de datos y otros eventos adversos
+Ex2: Supervise los intentos de autenticación para identificar ataques contra credenciales y reutilización no autorizada de credenciales
+Ex3: Supervisar las configuraciones de software para detectar desviaciones de las líneas de base de seguridad
+Ex4: Supervise el hardware y el software en busca de signos de manipulación
+Ex5: Utilice tecnologías con presencia en los puntos finales para detectar problemas de salud cibernética (por ejemplo, parches faltantes, infecciones de malware, software no autorizado) y redirija los puntos finales a un entorno de corrección antes de que se autorice el acceso
+1º: Riesgo de 1ª parte</t>
+  </si>
+  <si>
+    <t>Análisis de eventos adversos</t>
+  </si>
+  <si>
+    <t>Se analizan anomalías, indicadores de compromiso y otros acontecimientos potencialmente adversos para caracterizarlos y detectar incidentes de seguridad cibernética</t>
+  </si>
+  <si>
+    <t>Los acontecimientos potencialmente adversos se analizan para comprender mejor las actividades asociadas</t>
+  </si>
+  <si>
+    <t>Ex1: Utilice la administración de eventos e información de seguridad (SIEM) u otras herramientas para monitorear continuamente los eventos de registro en busca de actividades maliciosas y sospechosas conocidas.
+Ex2: Utilice inteligencia actualizada sobre amenazas cibernéticas en herramientas de análisis de registros para mejorar la precisión de la detección y caracterizar a los actores de amenazas, sus métodos e indicadores de compromiso.
+Ex3: Realizar revisiones manuales periódicas de los eventos de registro para las tecnologías que no se pueden supervisar suficientemente mediante la automatización
+Ex4: Utilice herramientas de análisis de registros para generar informes sobre sus hallazgos
+1º: Riesgo de 1ª parte</t>
+  </si>
+  <si>
+    <t>Se correlaciona la información procedente de diversas fuentes</t>
+  </si>
+  <si>
+    <t>Ex1: Transfiera constantemente datos de registro generados por otras fuentes a un número relativamente pequeño de servidores de registro
+Ex2: Utilice la tecnología de correlación de eventos (por ejemplo, SIEM) para recopilar información capturada por múltiples fuentes
+Ex3: Utilice la inteligencia de amenazas cibernéticas para ayudar a correlacionar eventos entre orígenes de registro
+1º: Riesgo de 1ª parte</t>
+  </si>
+  <si>
+    <t>Se comprende el impacto estimado y el alcance de los acontecimientos adversos</t>
+  </si>
+  <si>
+    <t>Ex1: Utilice SIEM u otras herramientas para estimar el impacto y el alcance, y revise y perfeccione las estimaciones
+Ex2: Una persona crea sus propias estimaciones de impacto y alcance
+1º: Riesgo de 1ª parte</t>
+  </si>
+  <si>
+    <t>La información sobre acontecimientos adversos se proporciona al personal y a las herramientas autorizadas</t>
+  </si>
+  <si>
+    <t>Ex1: Utilice el software de ciberseguridad para generar alertas y proporcionarlas al centro de operaciones de seguridad (SOC), los respondedores a incidentes y las herramientas de respuesta a incidentes
+Ex2: Los respondedores de incidentes y otro personal autorizado pueden acceder a los resultados del análisis de registros en todo momento
+Ex3: Cree y asigne tickets automáticamente en el sistema de tickets de la organización cuando se produzcan ciertos tipos de alertas.
+Ex4: Crear y asignar tickets manualmente en el sistema de tickets de la organización cuando el personal técnico descubra indicadores de compromiso
+1º: Riesgo de 1ª parte</t>
+  </si>
+  <si>
+    <t>La inteligencia sobre amenazas cibernéticas y otra información contextual se integran en el análisis</t>
+  </si>
+  <si>
+    <t>Ex1: Proporcionar de forma segura información sobre inteligencia de amenazas cibernéticas a las tecnologías de detección, los procesos y el personal
+Ex2: Proporcione de forma segura información desde los inventarios de activos hasta las tecnologías de detección, los procesos y el personal
+Ex3: Adquiera y analice rápidamente las divulgaciones de vulnerabilidades de las tecnologías de la organización de proveedores, vendedores y avisos de seguridad de terceros.
+1º: Riesgo de 1ª parte</t>
+  </si>
+  <si>
+    <t>Se declaran incidentes cuando los acontecimientos adversos cumplen con los criterios de incidente definidos</t>
+  </si>
+  <si>
+    <t>Ex1: Aplicar criterios de incidente a las características conocidas y supuestas de la actividad para determinar si un incidente debe declararse
+Ex2: Tener en cuenta los falsos positivos conocidos al aplicar los criterios de incidentes
+1º: Riesgo de 1ª parte</t>
+  </si>
+  <si>
+    <t>RESPONDER</t>
+  </si>
+  <si>
+    <t>Se toman medidas en relación con un incidente de seguridad cibernética detectado</t>
+  </si>
+  <si>
+    <t>Gestión de incidentes</t>
+  </si>
+  <si>
+    <t>Se gestionan las respuestas a los incidentes de seguridad cibernética detectados</t>
+  </si>
+  <si>
+    <t>Se ejecuta el plan de respuesta a incidentes en coordinación con los terceros pertinentes una vez que se declara un incidente</t>
+  </si>
+  <si>
+    <t>Ex1: Las tecnologías de detección informan automáticamente de los incidentes confirmados
+Ex2: Solicitar asistencia de respuesta a incidentes del subcontratista de respuesta a incidentes de la organización
+Ex3: Designar un líder de incidentes para cada incidente
+Ex4: Iniciar la ejecución de planes de ciberseguridad adicionales según sea necesario para respaldar la respuesta a incidentes (por ejemplo, continuidad del negocio y recuperación ante desastres)
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Se clasifican y validan los informes de incidentes</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Revisar preliminarmente los informes de incidentes para confirmar que están relacionados con la ciberseguridad y requieren actividades de respuesta a incidentes.
+Ex2: Aplicar criterios para estimar la gravedad de un incidente</t>
+  </si>
+  <si>
+    <t>Se clasifican y priorizan los incidentes</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Revise y clasifique los incidentes en función del tipo de incidente (por ejemplo, violación de datos, ransomware, DDoS, compromiso de la cuenta)
+Ex2: Priorice los incidentes en función de su alcance, impacto probable y naturaleza crítica en el tiempo
+Ex3: seleccione estrategias de respuesta a incidentes para incidentes activos equilibrando la necesidad de recuperarse rápidamente de un incidente con la necesidad de observar al atacante o realizar una investigación más exhaustiva</t>
+  </si>
+  <si>
+    <t>Se escalan o elevan los incidentes según sea necesario</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Seguimiento y validación del estado de todos los incidentes en curso
+Ex2: Coordinar la escalada o elevación de incidentes con las partes interesadas internas y externas designadas</t>
+  </si>
+  <si>
+    <t>Se aplican los criterios para iniciar la recuperación de incidentes</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Aplicar criterios de recuperación de incidentes a las características conocidas y supuestas del incidente para determinar si se deben iniciar procesos de recuperación de incidentes
+Ex2: Tener en cuenta la posible interrupción operativa de las actividades de recuperación de incidentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análisis de incidentes </t>
+  </si>
+  <si>
+    <t>Se llevan a cabo investigaciones con el fin de garantizar una respuesta eficaz y apoyar las actividades forenses y de recuperación</t>
+  </si>
+  <si>
+    <t>Se realizan análisis para determinar lo que ocurrió durante un incidente y la causa raíz del mismo</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Determine la secuencia de eventos que ocurrieron durante el incidente y qué activos y recursos estuvieron involucrados en cada evento
+Ex2: Intento de determinar qué vulnerabilidades, amenazas y actores de amenazas estuvieron directa o indirectamente involucrados en el incidente
+Ex3: Analice el incidente para encontrar las causas raíz sistémicas subyacentes
+Ex4: Compruebe cualquier tecnología de engaño cibernético para obtener información adicional sobre el comportamiento del atacante</t>
+  </si>
+  <si>
+    <t>Se registran las acciones realizadas durante una investigación y se preservan la integridad y la procedencia de los registros</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Exigir a cada respondedor de incidentes y a otros (por ejemplo, administradores de sistemas, ingenieros de ciberseguridad) que realizan tareas de respuesta a incidentes que registren sus acciones y hagan que el registro sea inmutable.
+Ex2: Exigir al líder del incidente que documente el incidente en detalle y sea responsable de preservar la integridad de la documentación y las fuentes de toda la información que se informa.</t>
+  </si>
+  <si>
+    <t>Se recopilan los datos y metadatos del incidente y se preservan su integridad y su procedencia</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Recopilar, preservar y salvaguardar la integridad de todos los datos y metadatos pertinentes del incidente (por ejemplo, fuente de datos, fecha/hora de recopilación) en función de los procedimientos de preservación de pruebas y cadena de custodia</t>
+  </si>
+  <si>
+    <t>Se estima y valida la magnitud de un incidente.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Revisar otros posibles objetivos del incidente para buscar indicadores de compromiso y evidencia de persistencia
+Ex2: Ejecute automáticamente herramientas en los objetivos para buscar indicadores de compromiso y evidencia de persistencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notificación y comunicación de la respuesta al incidente </t>
+  </si>
+  <si>
+    <t>Las actividades de respuesta se coordinan con las partes interesadas internas y externas, según lo exijan las leyes, las normativas o las políticas</t>
+  </si>
+  <si>
+    <t>Se notifican los incidentes a las partes interesadas internas y externas</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Siga los procedimientos de notificación de infracciones de la organización después de descubrir un incidente de infracción de datos, incluida la notificación a los clientes afectados
+Ex2: Notificar a los socios comerciales y clientes de los incidentes de acuerdo con los requisitos contractuales
+Ex3: Notificar a las agencias de aplicación de la ley y a los organismos reguladores de los incidentes en función de los criterios del plan de respuesta a incidentes y la aprobación de la dirección.</t>
+  </si>
+  <si>
+    <t>La información se comparte con las partes interesadas internas y externas designadas</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Compartir información de forma segura de acuerdo con los planes de respuesta y los acuerdos de intercambio de información
+Ex2: Compartir voluntariamente información sobre las TTP observadas por un atacante, con todos los datos confidenciales eliminados, con un Centro de análisis e intercambio de información (ISAC)
+Ex3: Notificar a RRHH cuando se produzca una actividad interna maliciosa
+Ex4: Actualizar periódicamente a la alta dirección sobre el estado de los incidentes importantes
+Ex5: Seguir las reglas y protocolos definidos en los contratos para el intercambio de información sobre incidentes entre la organización y sus proveedores
+Ex6: Coordinar los métodos de comunicación de crisis entre la organización y sus proveedores críticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitigación de incidentes </t>
+  </si>
+  <si>
+    <t>Se llevan a cabo actividades a fin de evitar la expansión de un incidente y mitigar sus efectos</t>
+  </si>
+  <si>
+    <t>Se contienen los incidentes</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Las tecnologías de ciberseguridad (por ejemplo, software antivirus) y las características de ciberseguridad de otras tecnologías (por ejemplo, sistemas operativos, dispositivos de infraestructura de red) realizan automáticamente acciones de contención
+Ex2: Permitir que los respondedores de incidentes seleccionen y realicen manualmente acciones de contención
+Ex3: Permitir que un tercero (por ejemplo, proveedor de servicios de Internet, proveedor de servicios de seguridad administrada) realice acciones de contención en nombre de la organización
+Ex4: Transfiera automáticamente los puntos de conexión comprometidos a una red de área local virtual (VLAN) de corrección</t>
+  </si>
+  <si>
+    <t>Se erradican los incidentes</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Las tecnologías de ciberseguridad y las características de ciberseguridad de otras tecnologías (por ejemplo, sistemas operativos, dispositivos de infraestructura de red) realizan automáticamente acciones de erradicación
+Ex2: Permitir que los respondedores de incidentes seleccionen y realicen manualmente acciones de erradicación
+Ex3: Permitir que un tercero (por ejemplo, un proveedor de servicios de seguridad administrados) realice acciones de erradicación en nombre de la organización.</t>
+  </si>
+  <si>
+    <t>RECUPERAR</t>
+  </si>
+  <si>
+    <t>Se restauran los activos y las operaciones afectados por un incidente de seguridad cibernética</t>
+  </si>
+  <si>
+    <t>Ejecución del Plan de Recuperación de Incidentes</t>
+  </si>
+  <si>
+    <t>Se realizan actividades de restauración que garantizan la disponibilidad operativa de los sistemas y servicios afectados por incidentes de seguridad cibernética</t>
+  </si>
+  <si>
+    <t>La parte de recuperación del plan de respuesta a incidentes se ejecuta una vez que se inicia desde el proceso de respuesta a incidentes</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Iniciar procedimientos de recuperación durante o después de los procesos de respuesta a incidentes
+Ex2: Informar a todas las personas con responsabilidades de recuperación de los planes de recuperación y de las autorizaciones necesarias para implementar cada aspecto de los planes</t>
+  </si>
+  <si>
+    <t>Se seleccionan, delimitan, priorizan y llevan a cabo las acciones de recuperación</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Seleccione las acciones de recuperación en función de los criterios definidos en el plan de respuesta a incidentes y los recursos disponibles
+Ex2: Cambiar las acciones de recuperación planificadas en función de una reevaluación de las necesidades y los recursos de la organización</t>
+  </si>
+  <si>
+    <t>Se verifica la integridad de las copias de seguridad y otros activos de restauración antes de usarlos para la restauración</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Compruebe los activos de restauración en busca de indicadores de compromiso, daños en los archivos y otros problemas de integridad antes de su uso</t>
+  </si>
+  <si>
+    <t>Se tienen en cuenta las funciones críticas de la misión y la gestión de riesgos de seguridad cibernética para establecer normas operativas posteriores al incidente</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Utilice los registros de categorización del sistema y de impacto en el negocio (incluidos los objetivos de prestación de servicios) para validar que los servicios esenciales se restablezcan en el orden adecuado
+Ex2: Trabajar con los propietarios de los sistemas para confirmar la restauración exitosa de los sistemas y el retorno a las operaciones normales
+Ex3: Supervisar el rendimiento de los sistemas restaurados para verificar la idoneidad de la restauración</t>
+  </si>
+  <si>
+    <t>Se verifica la integridad de los activos restaurados, se restauran los sistemas y servicios y se confirma el estado operativo normal</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Compruebe los activos restaurados en busca de indicadores de compromiso y corrección de las causas raíz del incidente antes del uso en producción
+Ex2: Verificar la exactitud y adecuación de las acciones de restauración realizadas antes de poner en línea un sistema restaurado</t>
+  </si>
+  <si>
+    <t>Se declara el fin de la recuperación del incidente sobre la base de criterios y se completa la documentación relacionada con el incidente</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Prepare un informe posterior a la acción que documente el incidente en sí, las acciones de respuesta y recuperación tomadas, y las lecciones aprendidas
+Ex2: Declarar el fin de la recuperación de incidentes una vez que se cumplan los criterios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicación de la recuperación del incidente </t>
+  </si>
+  <si>
+    <t>Se coordinan las actividades de restauración con las partes internas y externas</t>
+  </si>
+  <si>
+    <t>Las actividades de recuperación y los progresos en el restablecimiento de las capacidades operativas se comunican a las partes interesadas internas y externas designadas</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Compartir de forma segura la información de recuperación, incluido el progreso de la restauración, de acuerdo con los planes de respuesta y los acuerdos de intercambio de información
+Ex2: Actualizar periódicamente a la alta dirección sobre el estado de la recuperación y el progreso de la restauración en caso de incidentes graves
+Ex3: Seguir las reglas y protocolos definidos en los contratos para el intercambio de información sobre incidentes entre la organización y sus proveedores
+Ex4: Coordinar la comunicación de crisis entre la organización y sus proveedores críticos</t>
+  </si>
+  <si>
+    <t>Las actualizaciones públicas sobre la recuperación del incidente se comparten mediante el uso de métodos y mensajes aprobados</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Siga los procedimientos de notificación de violación de la organización para recuperarse de un incidente de violación de datos
+Ex2: Explique los pasos que se están tomando para recuperarse del incidente y evitar que se repita</t>
+  </si>
+  <si>
+    <t>Parcial</t>
+  </si>
+  <si>
+    <t>La aplicación de la estrategia de riesgo de ciberseguridad organizacional se gestiona de manera ad hoc. Existe una conciencia limitada de los riesgos de ciberseguridad a nivel organizacional.</t>
+  </si>
+  <si>
+    <t>Informado sobre riesgos</t>
+  </si>
+  <si>
+    <t>Las prácticas de gestión de riesgos son aprobadas por la gerencia, pero es posible que no se establezcan como una política para toda la organización. Existe una conciencia de los riesgos de ciberseguridad a nivel organizacional, pero no se ha establecido un enfoque de toda la organización para gestionar los riesgos de ciberseguridad.</t>
+  </si>
+  <si>
+    <t>Repetible</t>
+  </si>
+  <si>
+    <t>Las prácticas de gestión de riesgos de la organización se aprueban formalmente y se expresan como política. Las prácticas de ciberseguridad organizacional se actualizan periódicamente en función de la aplicación de procesos de gestión de riesgos a los cambios en los requisitos comerciales/de misión, las amenazas y el panorama tecnológico.</t>
+  </si>
+  <si>
+    <t>Adaptable</t>
+  </si>
+  <si>
+    <t>Existe un enfoque de toda la organización para gestionar los riesgos de ciberseguridad que utiliza políticas, procesos y procedimientos informados sobre el riesgo para abordar posibles eventos de ciberseguridad. La organización adapta sus prácticas de ciberseguridad en función de las actividades de ciberseguridad anteriores y actuales, incluidas las lecciones aprendidas y los indicadores predictivos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1931,6 +4187,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1940,10 +4208,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1952,7 +4246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1963,6 +4257,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2269,7 +4581,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="231" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2292,7 +4604,7 @@
         <v>409</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2428,11 +4740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView topLeftCell="H1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2440,12 +4751,16 @@
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="5" max="5" width="71.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="44.5" customWidth="1"/>
+    <col min="6" max="6" width="57.6640625" customWidth="1"/>
     <col min="7" max="7" width="43.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="75.6640625" customWidth="1"/>
+    <col min="8" max="8" width="238" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="33" style="2" customWidth="1"/>
+    <col min="11" max="11" width="150.6640625" customWidth="1"/>
+    <col min="12" max="12" width="168.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2462,16 +4777,28 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>457</v>
+        <v>604</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2485,13 +4812,19 @@
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+      <c r="H2" t="s">
+        <v>461</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="K2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2</v>
       </c>
@@ -2505,13 +4838,19 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+      <c r="H3" t="s">
+        <v>491</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="K3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2528,8 +4867,20 @@
         <v>14</v>
       </c>
       <c r="G4"/>
-    </row>
-    <row r="5" spans="1:8" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>605</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="K4" t="s">
+        <v>723</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2546,8 +4897,20 @@
         <v>17</v>
       </c>
       <c r="G5"/>
-    </row>
-    <row r="6" spans="1:8" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>606</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="K5" t="s">
+        <v>725</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2564,8 +4927,20 @@
         <v>20</v>
       </c>
       <c r="G6"/>
-    </row>
-    <row r="7" spans="1:8" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>607</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="K6" t="s">
+        <v>727</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2582,8 +4957,20 @@
         <v>23</v>
       </c>
       <c r="G7"/>
-    </row>
-    <row r="8" spans="1:8" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>608</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="K7" t="s">
+        <v>729</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2600,8 +4987,20 @@
         <v>26</v>
       </c>
       <c r="G8"/>
-    </row>
-    <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>609</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="K8" t="s">
+        <v>731</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>2</v>
       </c>
@@ -2615,13 +5014,19 @@
         <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="K9" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2638,8 +5043,20 @@
         <v>32</v>
       </c>
       <c r="G10"/>
-    </row>
-    <row r="11" spans="1:8" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>610</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="K10" t="s">
+        <v>735</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2656,8 +5073,20 @@
         <v>35</v>
       </c>
       <c r="G11"/>
-    </row>
-    <row r="12" spans="1:8" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>611</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="K11" t="s">
+        <v>737</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2674,8 +5103,20 @@
         <v>38</v>
       </c>
       <c r="G12"/>
-    </row>
-    <row r="13" spans="1:8" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>612</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="K12" t="s">
+        <v>739</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2692,8 +5133,20 @@
         <v>41</v>
       </c>
       <c r="G13"/>
-    </row>
-    <row r="14" spans="1:8" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>613</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="K13" t="s">
+        <v>741</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2710,8 +5163,20 @@
         <v>44</v>
       </c>
       <c r="G14"/>
-    </row>
-    <row r="15" spans="1:8" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>614</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="K14" t="s">
+        <v>743</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2728,8 +5193,20 @@
         <v>47</v>
       </c>
       <c r="G15"/>
-    </row>
-    <row r="16" spans="1:8" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>615</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="K15" t="s">
+        <v>745</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -2746,8 +5223,20 @@
         <v>50</v>
       </c>
       <c r="G16"/>
-    </row>
-    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>616</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="K16" t="s">
+        <v>747</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>2</v>
       </c>
@@ -2761,13 +5250,19 @@
         <v>53</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="224" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="K17" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2784,8 +5279,20 @@
         <v>56</v>
       </c>
       <c r="G18"/>
-    </row>
-    <row r="19" spans="1:8" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>617</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="K18" t="s">
+        <v>751</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2802,8 +5309,20 @@
         <v>59</v>
       </c>
       <c r="G19"/>
-    </row>
-    <row r="20" spans="1:8" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>618</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="K19" t="s">
+        <v>753</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -2820,8 +5339,20 @@
         <v>62</v>
       </c>
       <c r="G20"/>
-    </row>
-    <row r="21" spans="1:8" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>619</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="K20" t="s">
+        <v>755</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -2838,8 +5369,20 @@
         <v>65</v>
       </c>
       <c r="G21"/>
-    </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>620</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="K21" t="s">
+        <v>757</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>2</v>
       </c>
@@ -2853,13 +5396,19 @@
         <v>68</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H22" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="272" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="K22" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2876,8 +5425,20 @@
         <v>71</v>
       </c>
       <c r="G23"/>
-    </row>
-    <row r="24" spans="1:8" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>621</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="K23" t="s">
+        <v>761</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2894,8 +5455,20 @@
         <v>74</v>
       </c>
       <c r="G24"/>
-    </row>
-    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>622</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="K24" t="s">
+        <v>763</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>2</v>
       </c>
@@ -2909,13 +5482,19 @@
         <v>77</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="K25" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2932,8 +5511,20 @@
         <v>80</v>
       </c>
       <c r="G26"/>
-    </row>
-    <row r="27" spans="1:8" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>623</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="K26" t="s">
+        <v>767</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2950,8 +5541,20 @@
         <v>83</v>
       </c>
       <c r="G27"/>
-    </row>
-    <row r="28" spans="1:8" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>624</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="K27" t="s">
+        <v>769</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2968,8 +5571,20 @@
         <v>86</v>
       </c>
       <c r="G28"/>
-    </row>
-    <row r="29" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>625</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="K28" t="s">
+        <v>771</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>2</v>
       </c>
@@ -2983,13 +5598,19 @@
         <v>89</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="304" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="K29" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="304" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -3006,8 +5627,20 @@
         <v>92</v>
       </c>
       <c r="G30"/>
-    </row>
-    <row r="31" spans="1:8" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>626</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="K30" t="s">
+        <v>775</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -3024,8 +5657,20 @@
         <v>95</v>
       </c>
       <c r="G31"/>
-    </row>
-    <row r="32" spans="1:8" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>627</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="K31" t="s">
+        <v>777</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -3042,8 +5687,20 @@
         <v>98</v>
       </c>
       <c r="G32"/>
-    </row>
-    <row r="33" spans="1:8" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>628</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K32" t="s">
+        <v>779</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -3060,8 +5717,20 @@
         <v>101</v>
       </c>
       <c r="G33"/>
-    </row>
-    <row r="34" spans="1:8" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>629</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="K33" t="s">
+        <v>781</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -3078,8 +5747,20 @@
         <v>104</v>
       </c>
       <c r="G34"/>
-    </row>
-    <row r="35" spans="1:8" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>630</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="K34" t="s">
+        <v>783</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -3096,8 +5777,20 @@
         <v>107</v>
       </c>
       <c r="G35"/>
-    </row>
-    <row r="36" spans="1:8" ht="288" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>631</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="K35" t="s">
+        <v>785</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -3114,8 +5807,20 @@
         <v>110</v>
       </c>
       <c r="G36"/>
-    </row>
-    <row r="37" spans="1:8" ht="224" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>632</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K36" t="s">
+        <v>787</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -3132,8 +5837,20 @@
         <v>113</v>
       </c>
       <c r="G37"/>
-    </row>
-    <row r="38" spans="1:8" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>633</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K37" t="s">
+        <v>789</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -3150,8 +5867,20 @@
         <v>116</v>
       </c>
       <c r="G38"/>
-    </row>
-    <row r="39" spans="1:8" ht="288" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>634</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K38" t="s">
+        <v>791</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -3168,8 +5897,20 @@
         <v>119</v>
       </c>
       <c r="G39"/>
-    </row>
-    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>635</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="K39" t="s">
+        <v>793</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>1</v>
       </c>
@@ -3183,13 +5924,19 @@
         <v>122</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H40" t="s">
         <v>459</v>
       </c>
-      <c r="H40" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="J40" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="K40" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>2</v>
       </c>
@@ -3203,10 +5950,19 @@
         <v>125</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+      <c r="H41" t="s">
+        <v>636</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="K41" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -3223,8 +5979,20 @@
         <v>128</v>
       </c>
       <c r="G42"/>
-    </row>
-    <row r="43" spans="1:8" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>637</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="K42" t="s">
+        <v>799</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -3241,8 +6009,20 @@
         <v>131</v>
       </c>
       <c r="G43"/>
-    </row>
-    <row r="44" spans="1:8" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>638</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="K43" t="s">
+        <v>801</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -3259,8 +6039,20 @@
         <v>134</v>
       </c>
       <c r="G44"/>
-    </row>
-    <row r="45" spans="1:8" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>639</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K44" t="s">
+        <v>803</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -3277,8 +6069,20 @@
         <v>137</v>
       </c>
       <c r="G45"/>
-    </row>
-    <row r="46" spans="1:8" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>640</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="K45" t="s">
+        <v>805</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -3295,8 +6099,20 @@
         <v>140</v>
       </c>
       <c r="G46"/>
-    </row>
-    <row r="47" spans="1:8" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>641</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="K46" t="s">
+        <v>807</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -3313,8 +6129,20 @@
         <v>143</v>
       </c>
       <c r="G47"/>
-    </row>
-    <row r="48" spans="1:8" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>642</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="K47" t="s">
+        <v>809</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -3331,8 +6159,20 @@
         <v>146</v>
       </c>
       <c r="G48"/>
-    </row>
-    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>643</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="K48" t="s">
+        <v>811</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>2</v>
       </c>
@@ -3346,10 +6186,16 @@
         <v>149</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="256" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="K49" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="256" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -3366,8 +6212,20 @@
         <v>152</v>
       </c>
       <c r="G50"/>
-    </row>
-    <row r="51" spans="1:7" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>644</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="K50" t="s">
+        <v>815</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -3384,8 +6242,20 @@
         <v>155</v>
       </c>
       <c r="G51"/>
-    </row>
-    <row r="52" spans="1:7" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>645</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="K51" t="s">
+        <v>817</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -3402,8 +6272,20 @@
         <v>158</v>
       </c>
       <c r="G52"/>
-    </row>
-    <row r="53" spans="1:7" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>646</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="K52" t="s">
+        <v>819</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -3420,8 +6302,20 @@
         <v>161</v>
       </c>
       <c r="G53"/>
-    </row>
-    <row r="54" spans="1:7" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>647</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="K53" t="s">
+        <v>821</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -3438,8 +6332,20 @@
         <v>164</v>
       </c>
       <c r="G54"/>
-    </row>
-    <row r="55" spans="1:7" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>648</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="K54" t="s">
+        <v>823</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -3456,8 +6362,20 @@
         <v>167</v>
       </c>
       <c r="G55"/>
-    </row>
-    <row r="56" spans="1:7" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>649</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="K55" t="s">
+        <v>825</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -3474,8 +6392,20 @@
         <v>170</v>
       </c>
       <c r="G56"/>
-    </row>
-    <row r="57" spans="1:7" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>650</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="K56" t="s">
+        <v>827</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -3492,8 +6422,20 @@
         <v>173</v>
       </c>
       <c r="G57"/>
-    </row>
-    <row r="58" spans="1:7" ht="64" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>651</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K57" t="s">
+        <v>829</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -3510,8 +6452,20 @@
         <v>176</v>
       </c>
       <c r="G58"/>
-    </row>
-    <row r="59" spans="1:7" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>652</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="K58" t="s">
+        <v>831</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -3528,8 +6482,20 @@
         <v>179</v>
       </c>
       <c r="G59"/>
-    </row>
-    <row r="60" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
+        <v>653</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="K59" t="s">
+        <v>833</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>2</v>
       </c>
@@ -3543,10 +6509,16 @@
         <v>182</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="K60" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -3563,8 +6535,20 @@
         <v>185</v>
       </c>
       <c r="G61"/>
-    </row>
-    <row r="62" spans="1:7" ht="365" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H61" t="s">
+        <v>654</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="K61" t="s">
+        <v>837</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="365" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -3581,8 +6565,20 @@
         <v>188</v>
       </c>
       <c r="G62"/>
-    </row>
-    <row r="63" spans="1:7" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>655</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="K62" t="s">
+        <v>839</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -3599,8 +6595,20 @@
         <v>191</v>
       </c>
       <c r="G63"/>
-    </row>
-    <row r="64" spans="1:7" ht="320" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>656</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="K63" t="s">
+        <v>841</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="320" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -3617,8 +6625,20 @@
         <v>194</v>
       </c>
       <c r="G64"/>
-    </row>
-    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H64" t="s">
+        <v>657</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="K64" t="s">
+        <v>843</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>1</v>
       </c>
@@ -3632,13 +6652,19 @@
         <v>197</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="H65" t="s">
+        <v>462</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="K65" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>2</v>
       </c>
@@ -3652,10 +6678,19 @@
         <v>200</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+      <c r="H66" t="s">
+        <v>658</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="K66" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -3672,8 +6707,20 @@
         <v>203</v>
       </c>
       <c r="G67"/>
-    </row>
-    <row r="68" spans="1:8" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>659</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="K67" t="s">
+        <v>849</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -3690,8 +6737,20 @@
         <v>206</v>
       </c>
       <c r="G68"/>
-    </row>
-    <row r="69" spans="1:8" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H68" t="s">
+        <v>660</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="K68" t="s">
+        <v>851</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -3708,8 +6767,20 @@
         <v>209</v>
       </c>
       <c r="G69"/>
-    </row>
-    <row r="70" spans="1:8" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H69" t="s">
+        <v>661</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="K69" t="s">
+        <v>853</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -3726,8 +6797,20 @@
         <v>212</v>
       </c>
       <c r="G70"/>
-    </row>
-    <row r="71" spans="1:8" ht="224" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H70" t="s">
+        <v>662</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="K70" t="s">
+        <v>855</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -3744,8 +6827,20 @@
         <v>215</v>
       </c>
       <c r="G71"/>
-    </row>
-    <row r="72" spans="1:8" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
+        <v>663</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="K71" t="s">
+        <v>857</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -3762,8 +6857,20 @@
         <v>218</v>
       </c>
       <c r="G72"/>
-    </row>
-    <row r="73" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>664</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="K72" t="s">
+        <v>859</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>2</v>
       </c>
@@ -3777,10 +6884,16 @@
         <v>221</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="256" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="K73" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="256" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -3797,8 +6910,20 @@
         <v>224</v>
       </c>
       <c r="G74"/>
-    </row>
-    <row r="75" spans="1:8" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
+        <v>665</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="K74" t="s">
+        <v>863</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -3815,8 +6940,20 @@
         <v>227</v>
       </c>
       <c r="G75"/>
-    </row>
-    <row r="76" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H75" t="s">
+        <v>666</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="K75" t="s">
+        <v>865</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>2</v>
       </c>
@@ -3830,10 +6967,16 @@
         <v>230</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="K76" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -3850,8 +6993,20 @@
         <v>233</v>
       </c>
       <c r="G77"/>
-    </row>
-    <row r="78" spans="1:8" ht="224" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>667</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="K77" t="s">
+        <v>869</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -3868,8 +7023,20 @@
         <v>236</v>
       </c>
       <c r="G78"/>
-    </row>
-    <row r="79" spans="1:8" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>668</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="K78" t="s">
+        <v>871</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -3886,8 +7053,20 @@
         <v>239</v>
       </c>
       <c r="G79"/>
-    </row>
-    <row r="80" spans="1:8" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>669</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="K79" t="s">
+        <v>873</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -3904,8 +7083,20 @@
         <v>242</v>
       </c>
       <c r="G80"/>
-    </row>
-    <row r="81" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H80" t="s">
+        <v>670</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="K80" t="s">
+        <v>875</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>2</v>
       </c>
@@ -3919,10 +7110,16 @@
         <v>245</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="K81" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -3939,8 +7136,20 @@
         <v>248</v>
       </c>
       <c r="G82"/>
-    </row>
-    <row r="83" spans="1:8" ht="272" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
+        <v>671</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="K82" t="s">
+        <v>879</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -3957,8 +7166,20 @@
         <v>251</v>
       </c>
       <c r="G83"/>
-    </row>
-    <row r="84" spans="1:8" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H83" t="s">
+        <v>672</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="K83" t="s">
+        <v>881</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -3975,8 +7196,20 @@
         <v>254</v>
       </c>
       <c r="G84"/>
-    </row>
-    <row r="85" spans="1:8" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H84" t="s">
+        <v>673</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="K84" t="s">
+        <v>883</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -3993,8 +7226,20 @@
         <v>257</v>
       </c>
       <c r="G85"/>
-    </row>
-    <row r="86" spans="1:8" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H85" t="s">
+        <v>674</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="K85" t="s">
+        <v>885</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -4011,8 +7256,20 @@
         <v>260</v>
       </c>
       <c r="G86"/>
-    </row>
-    <row r="87" spans="1:8" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H86" t="s">
+        <v>675</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="K86" t="s">
+        <v>887</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -4029,8 +7286,20 @@
         <v>263</v>
       </c>
       <c r="G87"/>
-    </row>
-    <row r="88" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H87" t="s">
+        <v>676</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="K87" t="s">
+        <v>889</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>2</v>
       </c>
@@ -4044,10 +7313,16 @@
         <v>266</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="256" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="K88" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="256" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -4064,8 +7339,20 @@
         <v>269</v>
       </c>
       <c r="G89"/>
-    </row>
-    <row r="90" spans="1:8" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H89" t="s">
+        <v>677</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="K89" t="s">
+        <v>893</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -4082,8 +7369,20 @@
         <v>272</v>
       </c>
       <c r="G90"/>
-    </row>
-    <row r="91" spans="1:8" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H90" t="s">
+        <v>678</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="K90" t="s">
+        <v>895</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -4100,8 +7399,20 @@
         <v>275</v>
       </c>
       <c r="G91"/>
-    </row>
-    <row r="92" spans="1:8" ht="64" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H91" t="s">
+        <v>679</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="K91" t="s">
+        <v>897</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -4118,8 +7429,20 @@
         <v>278</v>
       </c>
       <c r="G92"/>
-    </row>
-    <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H92" t="s">
+        <v>680</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="K92" t="s">
+        <v>899</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>1</v>
       </c>
@@ -4133,13 +7456,19 @@
         <v>281</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H93" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="K93" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>2</v>
       </c>
@@ -4153,10 +7482,19 @@
         <v>284</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+      <c r="H94" t="s">
+        <v>681</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="K94" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -4173,8 +7511,20 @@
         <v>287</v>
       </c>
       <c r="G95"/>
-    </row>
-    <row r="96" spans="1:8" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H95" t="s">
+        <v>682</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="K95" t="s">
+        <v>905</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -4191,8 +7541,20 @@
         <v>290</v>
       </c>
       <c r="G96"/>
-    </row>
-    <row r="97" spans="1:8" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H96" t="s">
+        <v>683</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="K96" t="s">
+        <v>907</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -4209,8 +7571,20 @@
         <v>293</v>
       </c>
       <c r="G97"/>
-    </row>
-    <row r="98" spans="1:8" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H97" t="s">
+        <v>684</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="K97" t="s">
+        <v>909</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -4227,8 +7601,20 @@
         <v>296</v>
       </c>
       <c r="G98"/>
-    </row>
-    <row r="99" spans="1:8" ht="272" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H98" t="s">
+        <v>685</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="K98" t="s">
+        <v>911</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -4245,8 +7631,20 @@
         <v>299</v>
       </c>
       <c r="G99"/>
-    </row>
-    <row r="100" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H99" t="s">
+        <v>686</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="K99" t="s">
+        <v>913</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>2</v>
       </c>
@@ -4260,10 +7658,16 @@
         <v>302</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="K100" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -4280,8 +7684,20 @@
         <v>305</v>
       </c>
       <c r="G101"/>
-    </row>
-    <row r="102" spans="1:8" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H101" t="s">
+        <v>687</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="K101" t="s">
+        <v>917</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -4298,8 +7714,20 @@
         <v>308</v>
       </c>
       <c r="G102"/>
-    </row>
-    <row r="103" spans="1:8" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H102" t="s">
+        <v>688</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="K102" t="s">
+        <v>919</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -4316,8 +7744,20 @@
         <v>311</v>
       </c>
       <c r="G103"/>
-    </row>
-    <row r="104" spans="1:8" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H103" t="s">
+        <v>689</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="K103" t="s">
+        <v>921</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -4334,8 +7774,20 @@
         <v>314</v>
       </c>
       <c r="G104"/>
-    </row>
-    <row r="105" spans="1:8" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H104" t="s">
+        <v>690</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="K104" t="s">
+        <v>923</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -4352,8 +7804,20 @@
         <v>317</v>
       </c>
       <c r="G105"/>
-    </row>
-    <row r="106" spans="1:8" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H105" t="s">
+        <v>691</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="K105" t="s">
+        <v>925</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -4370,8 +7834,20 @@
         <v>320</v>
       </c>
       <c r="G106"/>
-    </row>
-    <row r="107" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H106" t="s">
+        <v>692</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="K106" t="s">
+        <v>927</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B107">
         <v>1</v>
       </c>
@@ -4385,13 +7861,19 @@
         <v>323</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+      <c r="H107" t="s">
+        <v>466</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="K107" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B108">
         <v>2</v>
       </c>
@@ -4405,10 +7887,19 @@
         <v>326</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+      <c r="H108" t="s">
+        <v>693</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="K108" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -4425,8 +7916,20 @@
         <v>329</v>
       </c>
       <c r="G109"/>
-    </row>
-    <row r="110" spans="1:8" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H109" t="s">
+        <v>694</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="K109" t="s">
+        <v>933</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -4443,8 +7946,20 @@
         <v>332</v>
       </c>
       <c r="G110"/>
-    </row>
-    <row r="111" spans="1:8" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H110" t="s">
+        <v>695</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="K110" t="s">
+        <v>935</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -4461,8 +7976,20 @@
         <v>335</v>
       </c>
       <c r="G111"/>
-    </row>
-    <row r="112" spans="1:8" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H111" t="s">
+        <v>696</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="K111" t="s">
+        <v>937</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -4479,8 +8006,20 @@
         <v>338</v>
       </c>
       <c r="G112"/>
-    </row>
-    <row r="113" spans="1:8" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H112" t="s">
+        <v>697</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="K112" t="s">
+        <v>939</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -4497,8 +8036,20 @@
         <v>341</v>
       </c>
       <c r="G113"/>
-    </row>
-    <row r="114" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H113" t="s">
+        <v>698</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="K113" t="s">
+        <v>941</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B114">
         <v>2</v>
       </c>
@@ -4512,10 +8063,16 @@
         <v>344</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K114" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -4532,8 +8089,20 @@
         <v>347</v>
       </c>
       <c r="G115"/>
-    </row>
-    <row r="116" spans="1:8" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H115" t="s">
+        <v>699</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="K115" t="s">
+        <v>945</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -4550,8 +8119,20 @@
         <v>350</v>
       </c>
       <c r="G116"/>
-    </row>
-    <row r="117" spans="1:8" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H116" t="s">
+        <v>700</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="K116" t="s">
+        <v>947</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -4568,8 +8149,20 @@
         <v>353</v>
       </c>
       <c r="G117"/>
-    </row>
-    <row r="118" spans="1:8" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H117" t="s">
+        <v>701</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="K117" t="s">
+        <v>949</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -4586,8 +8179,20 @@
         <v>356</v>
       </c>
       <c r="G118"/>
-    </row>
-    <row r="119" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H118" t="s">
+        <v>702</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="K118" t="s">
+        <v>951</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B119">
         <v>2</v>
       </c>
@@ -4601,10 +8206,16 @@
         <v>359</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="K119" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -4621,8 +8232,20 @@
         <v>362</v>
       </c>
       <c r="G120"/>
-    </row>
-    <row r="121" spans="1:8" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H120" t="s">
+        <v>703</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="K120" t="s">
+        <v>955</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -4639,8 +8262,20 @@
         <v>365</v>
       </c>
       <c r="G121"/>
-    </row>
-    <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H121" t="s">
+        <v>704</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="K121" t="s">
+        <v>957</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B122">
         <v>2</v>
       </c>
@@ -4654,10 +8289,16 @@
         <v>368</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="K122" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -4674,8 +8315,20 @@
         <v>371</v>
       </c>
       <c r="G123"/>
-    </row>
-    <row r="124" spans="1:8" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H123" t="s">
+        <v>705</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="K123" t="s">
+        <v>961</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -4692,8 +8345,20 @@
         <v>374</v>
       </c>
       <c r="G124"/>
-    </row>
-    <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H124" t="s">
+        <v>706</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="K124" t="s">
+        <v>963</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B125">
         <v>1</v>
       </c>
@@ -4707,13 +8372,19 @@
         <v>377</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="H125" s="2" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H125" t="s">
+        <v>467</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="K125" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B126">
         <v>2</v>
       </c>
@@ -4727,10 +8398,19 @@
         <v>380</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+      <c r="H126" t="s">
+        <v>707</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="K126" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -4747,8 +8427,20 @@
         <v>383</v>
       </c>
       <c r="G127"/>
-    </row>
-    <row r="128" spans="1:8" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H127" t="s">
+        <v>708</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="K127" t="s">
+        <v>969</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -4765,8 +8457,20 @@
         <v>386</v>
       </c>
       <c r="G128"/>
-    </row>
-    <row r="129" spans="1:7" ht="64" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H128" t="s">
+        <v>709</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="K128" t="s">
+        <v>971</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -4783,8 +8487,20 @@
         <v>389</v>
       </c>
       <c r="G129"/>
-    </row>
-    <row r="130" spans="1:7" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H129" t="s">
+        <v>710</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="K129" t="s">
+        <v>973</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -4801,8 +8517,20 @@
         <v>392</v>
       </c>
       <c r="G130"/>
-    </row>
-    <row r="131" spans="1:7" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H130" t="s">
+        <v>711</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="K130" t="s">
+        <v>975</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -4819,8 +8547,20 @@
         <v>395</v>
       </c>
       <c r="G131"/>
-    </row>
-    <row r="132" spans="1:7" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H131" t="s">
+        <v>712</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="K131" t="s">
+        <v>977</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -4837,8 +8577,20 @@
         <v>398</v>
       </c>
       <c r="G132"/>
-    </row>
-    <row r="133" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H132" t="s">
+        <v>713</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="K132" t="s">
+        <v>979</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B133">
         <v>2</v>
       </c>
@@ -4852,10 +8604,16 @@
         <v>401</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="K133" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -4872,8 +8630,20 @@
         <v>404</v>
       </c>
       <c r="G134"/>
-    </row>
-    <row r="135" spans="1:7" ht="1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H134" t="s">
+        <v>714</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="K134" t="s">
+        <v>983</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -4890,26 +8660,30 @@
         <v>407</v>
       </c>
       <c r="G135"/>
+      <c r="H135" t="s">
+        <v>715</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="K135" t="s">
+        <v>985</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>986</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F135" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1"/>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2A9460-ABFE-D94A-A339-D6A58073F6E8}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4918,9 +8692,11 @@
     <col min="3" max="3" width="114.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="105.5" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>435</v>
       </c>
@@ -4936,8 +8712,14 @@
       <c r="E1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>716</v>
+      </c>
+      <c r="G1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4953,8 +8735,14 @@
       <c r="E2" s="4" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="F2" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4970,8 +8758,14 @@
       <c r="E3" s="4" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="F3" s="9" t="s">
+        <v>989</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4987,8 +8781,14 @@
       <c r="E4" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="F4" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5004,8 +8804,14 @@
       <c r="E5" s="2" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="2"/>
     </row>
   </sheetData>

--- a/tools/nist/nist-csf-2.0.xlsx
+++ b/tools/nist/nist-csf-2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/nist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FDF226-932B-4C4B-9F65-73188013069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864A5994-4092-2744-B341-56F183E3E581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="1001">
   <si>
     <t>assessable</t>
   </si>
@@ -2615,6 +2615,9 @@
     <t>annotation</t>
   </si>
   <si>
+    <t>library_name[fr]</t>
+  </si>
+  <si>
     <t>La mission organisationnelle est comprise et informe la gestion des risques de cybersécurité</t>
   </si>
   <si>
@@ -2952,9 +2955,6 @@
   </si>
   <si>
     <t>description[sp]</t>
-  </si>
-  <si>
-    <t>annotation[sp]</t>
   </si>
   <si>
     <t>GOBERNAR</t>
@@ -4166,6 +4166,24 @@
   </si>
   <si>
     <t>Existe un enfoque de toda la organización para gestionar los riesgos de ciberseguridad que utiliza políticas, procesos y procedimientos informados sobre el riesgo para abordar posibles eventos de ciberseguridad. La organización adapta sus prácticas de ciberseguridad en función de las actividades de ciberseguridad anteriores y actuales, incluidas las lecciones aprendidas y los indicadores predictivos.</t>
+  </si>
+  <si>
+    <t>library_description[fr]</t>
+  </si>
+  <si>
+    <t>library_name[es]</t>
+  </si>
+  <si>
+    <t>library_description[es]</t>
+  </si>
+  <si>
+    <t>name[es]</t>
+  </si>
+  <si>
+    <t>description[es]</t>
+  </si>
+  <si>
+    <t>annotation[es]</t>
   </si>
 </sst>
 </file>
@@ -4578,10 +4596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6663DDE6-1E5F-334B-86D6-FF0D04872286}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="231" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A2" zoomScale="231" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4733,6 +4751,38 @@
         <v>434</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>605</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>995</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>996</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>997</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4742,9 +4792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4789,13 +4837,13 @@
         <v>603</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>716</v>
+        <v>998</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>717</v>
+        <v>999</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>718</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -4868,7 +4916,7 @@
       </c>
       <c r="G4"/>
       <c r="H4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>497</v>
@@ -4898,7 +4946,7 @@
       </c>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>498</v>
@@ -4928,7 +4976,7 @@
       </c>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>499</v>
@@ -4958,7 +5006,7 @@
       </c>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>500</v>
@@ -4988,7 +5036,7 @@
       </c>
       <c r="G8"/>
       <c r="H8" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>501</v>
@@ -5044,7 +5092,7 @@
       </c>
       <c r="G10"/>
       <c r="H10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>502</v>
@@ -5074,7 +5122,7 @@
       </c>
       <c r="G11"/>
       <c r="H11" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>503</v>
@@ -5104,7 +5152,7 @@
       </c>
       <c r="G12"/>
       <c r="H12" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>504</v>
@@ -5134,7 +5182,7 @@
       </c>
       <c r="G13"/>
       <c r="H13" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>505</v>
@@ -5164,7 +5212,7 @@
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>506</v>
@@ -5194,7 +5242,7 @@
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>507</v>
@@ -5224,7 +5272,7 @@
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>508</v>
@@ -5280,7 +5328,7 @@
       </c>
       <c r="G18"/>
       <c r="H18" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>509</v>
@@ -5310,7 +5358,7 @@
       </c>
       <c r="G19"/>
       <c r="H19" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>510</v>
@@ -5340,7 +5388,7 @@
       </c>
       <c r="G20"/>
       <c r="H20" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>511</v>
@@ -5370,7 +5418,7 @@
       </c>
       <c r="G21"/>
       <c r="H21" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>512</v>
@@ -5426,7 +5474,7 @@
       </c>
       <c r="G23"/>
       <c r="H23" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>513</v>
@@ -5456,7 +5504,7 @@
       </c>
       <c r="G24"/>
       <c r="H24" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>514</v>
@@ -5512,7 +5560,7 @@
       </c>
       <c r="G26"/>
       <c r="H26" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>515</v>
@@ -5542,7 +5590,7 @@
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>516</v>
@@ -5572,7 +5620,7 @@
       </c>
       <c r="G28"/>
       <c r="H28" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>517</v>
@@ -5628,7 +5676,7 @@
       </c>
       <c r="G30"/>
       <c r="H30" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>518</v>
@@ -5658,7 +5706,7 @@
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>519</v>
@@ -5688,7 +5736,7 @@
       </c>
       <c r="G32"/>
       <c r="H32" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>520</v>
@@ -5718,7 +5766,7 @@
       </c>
       <c r="G33"/>
       <c r="H33" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>521</v>
@@ -5748,7 +5796,7 @@
       </c>
       <c r="G34"/>
       <c r="H34" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>522</v>
@@ -5778,7 +5826,7 @@
       </c>
       <c r="G35"/>
       <c r="H35" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>523</v>
@@ -5808,7 +5856,7 @@
       </c>
       <c r="G36"/>
       <c r="H36" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>524</v>
@@ -5838,7 +5886,7 @@
       </c>
       <c r="G37"/>
       <c r="H37" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>525</v>
@@ -5868,7 +5916,7 @@
       </c>
       <c r="G38"/>
       <c r="H38" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>526</v>
@@ -5898,7 +5946,7 @@
       </c>
       <c r="G39"/>
       <c r="H39" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>527</v>
@@ -5953,7 +6001,7 @@
         <v>482</v>
       </c>
       <c r="H41" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>797</v>
@@ -5980,7 +6028,7 @@
       </c>
       <c r="G42"/>
       <c r="H42" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>528</v>
@@ -6010,7 +6058,7 @@
       </c>
       <c r="G43"/>
       <c r="H43" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>529</v>
@@ -6040,7 +6088,7 @@
       </c>
       <c r="G44"/>
       <c r="H44" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>530</v>
@@ -6070,7 +6118,7 @@
       </c>
       <c r="G45"/>
       <c r="H45" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>531</v>
@@ -6100,7 +6148,7 @@
       </c>
       <c r="G46"/>
       <c r="H46" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>532</v>
@@ -6130,7 +6178,7 @@
       </c>
       <c r="G47"/>
       <c r="H47" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>533</v>
@@ -6160,7 +6208,7 @@
       </c>
       <c r="G48"/>
       <c r="H48" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>534</v>
@@ -6213,7 +6261,7 @@
       </c>
       <c r="G50"/>
       <c r="H50" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>535</v>
@@ -6243,7 +6291,7 @@
       </c>
       <c r="G51"/>
       <c r="H51" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>536</v>
@@ -6273,7 +6321,7 @@
       </c>
       <c r="G52"/>
       <c r="H52" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>537</v>
@@ -6303,7 +6351,7 @@
       </c>
       <c r="G53"/>
       <c r="H53" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>538</v>
@@ -6333,7 +6381,7 @@
       </c>
       <c r="G54"/>
       <c r="H54" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>539</v>
@@ -6363,7 +6411,7 @@
       </c>
       <c r="G55"/>
       <c r="H55" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>540</v>
@@ -6393,7 +6441,7 @@
       </c>
       <c r="G56"/>
       <c r="H56" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>541</v>
@@ -6423,7 +6471,7 @@
       </c>
       <c r="G57"/>
       <c r="H57" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>542</v>
@@ -6453,7 +6501,7 @@
       </c>
       <c r="G58"/>
       <c r="H58" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>543</v>
@@ -6483,7 +6531,7 @@
       </c>
       <c r="G59"/>
       <c r="H59" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>544</v>
@@ -6536,7 +6584,7 @@
       </c>
       <c r="G61"/>
       <c r="H61" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>545</v>
@@ -6566,7 +6614,7 @@
       </c>
       <c r="G62"/>
       <c r="H62" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>546</v>
@@ -6596,7 +6644,7 @@
       </c>
       <c r="G63"/>
       <c r="H63" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>547</v>
@@ -6626,7 +6674,7 @@
       </c>
       <c r="G64"/>
       <c r="H64" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>548</v>
@@ -6681,7 +6729,7 @@
         <v>480</v>
       </c>
       <c r="H66" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>847</v>
@@ -6708,7 +6756,7 @@
       </c>
       <c r="G67"/>
       <c r="H67" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>549</v>
@@ -6738,7 +6786,7 @@
       </c>
       <c r="G68"/>
       <c r="H68" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>550</v>
@@ -6768,7 +6816,7 @@
       </c>
       <c r="G69"/>
       <c r="H69" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>551</v>
@@ -6798,7 +6846,7 @@
       </c>
       <c r="G70"/>
       <c r="H70" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>552</v>
@@ -6828,7 +6876,7 @@
       </c>
       <c r="G71"/>
       <c r="H71" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>553</v>
@@ -6858,7 +6906,7 @@
       </c>
       <c r="G72"/>
       <c r="H72" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>554</v>
@@ -6911,7 +6959,7 @@
       </c>
       <c r="G74"/>
       <c r="H74" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>555</v>
@@ -6941,7 +6989,7 @@
       </c>
       <c r="G75"/>
       <c r="H75" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>556</v>
@@ -6994,7 +7042,7 @@
       </c>
       <c r="G77"/>
       <c r="H77" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>557</v>
@@ -7024,7 +7072,7 @@
       </c>
       <c r="G78"/>
       <c r="H78" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>558</v>
@@ -7054,7 +7102,7 @@
       </c>
       <c r="G79"/>
       <c r="H79" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>559</v>
@@ -7084,7 +7132,7 @@
       </c>
       <c r="G80"/>
       <c r="H80" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>560</v>
@@ -7137,7 +7185,7 @@
       </c>
       <c r="G82"/>
       <c r="H82" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>561</v>
@@ -7167,7 +7215,7 @@
       </c>
       <c r="G83"/>
       <c r="H83" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>562</v>
@@ -7197,7 +7245,7 @@
       </c>
       <c r="G84"/>
       <c r="H84" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>563</v>
@@ -7227,7 +7275,7 @@
       </c>
       <c r="G85"/>
       <c r="H85" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>564</v>
@@ -7257,7 +7305,7 @@
       </c>
       <c r="G86"/>
       <c r="H86" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>565</v>
@@ -7287,7 +7335,7 @@
       </c>
       <c r="G87"/>
       <c r="H87" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>566</v>
@@ -7340,7 +7388,7 @@
       </c>
       <c r="G89"/>
       <c r="H89" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>567</v>
@@ -7370,7 +7418,7 @@
       </c>
       <c r="G90"/>
       <c r="H90" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>568</v>
@@ -7400,7 +7448,7 @@
       </c>
       <c r="G91"/>
       <c r="H91" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>569</v>
@@ -7430,7 +7478,7 @@
       </c>
       <c r="G92"/>
       <c r="H92" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>570</v>
@@ -7485,7 +7533,7 @@
         <v>476</v>
       </c>
       <c r="H94" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>903</v>
@@ -7512,7 +7560,7 @@
       </c>
       <c r="G95"/>
       <c r="H95" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>571</v>
@@ -7542,7 +7590,7 @@
       </c>
       <c r="G96"/>
       <c r="H96" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>572</v>
@@ -7572,7 +7620,7 @@
       </c>
       <c r="G97"/>
       <c r="H97" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>573</v>
@@ -7602,7 +7650,7 @@
       </c>
       <c r="G98"/>
       <c r="H98" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>574</v>
@@ -7632,7 +7680,7 @@
       </c>
       <c r="G99"/>
       <c r="H99" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>575</v>
@@ -7685,7 +7733,7 @@
       </c>
       <c r="G101"/>
       <c r="H101" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>576</v>
@@ -7715,7 +7763,7 @@
       </c>
       <c r="G102"/>
       <c r="H102" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>577</v>
@@ -7745,7 +7793,7 @@
       </c>
       <c r="G103"/>
       <c r="H103" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>578</v>
@@ -7775,7 +7823,7 @@
       </c>
       <c r="G104"/>
       <c r="H104" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>579</v>
@@ -7805,7 +7853,7 @@
       </c>
       <c r="G105"/>
       <c r="H105" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>580</v>
@@ -7835,7 +7883,7 @@
       </c>
       <c r="G106"/>
       <c r="H106" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>581</v>
@@ -7890,7 +7938,7 @@
         <v>485</v>
       </c>
       <c r="H108" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>931</v>
@@ -7917,7 +7965,7 @@
       </c>
       <c r="G109"/>
       <c r="H109" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>582</v>
@@ -7947,7 +7995,7 @@
       </c>
       <c r="G110"/>
       <c r="H110" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>583</v>
@@ -7977,7 +8025,7 @@
       </c>
       <c r="G111"/>
       <c r="H111" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>584</v>
@@ -8007,7 +8055,7 @@
       </c>
       <c r="G112"/>
       <c r="H112" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>585</v>
@@ -8037,7 +8085,7 @@
       </c>
       <c r="G113"/>
       <c r="H113" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>586</v>
@@ -8090,7 +8138,7 @@
       </c>
       <c r="G115"/>
       <c r="H115" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>587</v>
@@ -8120,7 +8168,7 @@
       </c>
       <c r="G116"/>
       <c r="H116" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>588</v>
@@ -8150,7 +8198,7 @@
       </c>
       <c r="G117"/>
       <c r="H117" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>589</v>
@@ -8180,7 +8228,7 @@
       </c>
       <c r="G118"/>
       <c r="H118" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>590</v>
@@ -8233,7 +8281,7 @@
       </c>
       <c r="G120"/>
       <c r="H120" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>591</v>
@@ -8263,7 +8311,7 @@
       </c>
       <c r="G121"/>
       <c r="H121" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>592</v>
@@ -8316,7 +8364,7 @@
       </c>
       <c r="G123"/>
       <c r="H123" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>593</v>
@@ -8346,7 +8394,7 @@
       </c>
       <c r="G124"/>
       <c r="H124" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="I124" s="2" t="s">
         <v>594</v>
@@ -8401,7 +8449,7 @@
         <v>489</v>
       </c>
       <c r="H126" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>967</v>
@@ -8428,7 +8476,7 @@
       </c>
       <c r="G127"/>
       <c r="H127" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>595</v>
@@ -8458,7 +8506,7 @@
       </c>
       <c r="G128"/>
       <c r="H128" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>596</v>
@@ -8488,7 +8536,7 @@
       </c>
       <c r="G129"/>
       <c r="H129" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>597</v>
@@ -8518,7 +8566,7 @@
       </c>
       <c r="G130"/>
       <c r="H130" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="I130" s="2" t="s">
         <v>598</v>
@@ -8548,7 +8596,7 @@
       </c>
       <c r="G131"/>
       <c r="H131" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>599</v>
@@ -8578,7 +8626,7 @@
       </c>
       <c r="G132"/>
       <c r="H132" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>600</v>
@@ -8631,7 +8679,7 @@
       </c>
       <c r="G134"/>
       <c r="H134" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>601</v>
@@ -8661,7 +8709,7 @@
       </c>
       <c r="G135"/>
       <c r="H135" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>602</v>
@@ -8682,7 +8730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2A9460-ABFE-D94A-A339-D6A58073F6E8}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+    <sheetView zoomScale="179" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8713,10 +8761,10 @@
         <v>448</v>
       </c>
       <c r="F1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">

--- a/tools/nist/nist-csf-2.0.xlsx
+++ b/tools/nist/nist-csf-2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/nist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864A5994-4092-2744-B341-56F183E3E581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD75035-9047-3D4D-9E6E-F9B3F5F1B799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="scores" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">csf!$A$1:$F$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">csf!$A$1:$L$135</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="1012">
   <si>
     <t>assessable</t>
   </si>
@@ -4184,6 +4184,40 @@
   </si>
   <si>
     <t>annotation[es]</t>
+  </si>
+  <si>
+    <t>Le risque de cybersécurité pour l’organisation, les actifs et
+les individus est compris par l’organisation</t>
+  </si>
+  <si>
+    <t>Le personnel de l’organisation reçoit une sensibilisation et une formation à la cybersécurité afin qu’il puisse accomplir ses tâches liées à la cybersécurité</t>
+  </si>
+  <si>
+    <t>Les améliorations aux processus, procédures et activités de gestion des risques de cybersécurité organisationnels sont identifiées dans toutes les Fonctions du CSF.</t>
+  </si>
+  <si>
+    <t>Les données sont gérées conformément à la stratégie de risque de l’organisation afin de protéger la confidentialité, l’intégrité et la disponibilité des informations</t>
+  </si>
+  <si>
+    <t>Le matériel, les logiciels (p. ex., les micrologiciels, les systèmes d’exploitation, les applications) et les services des plateformes physiques et virtuelles sont gérés conformément à la stratégie de risque de l’organisation pour protéger leur confidentialité, leur intégrité et leur disponibilité</t>
+  </si>
+  <si>
+    <t>Les architectures de sécurité sont gérées avec la stratégie de risque de l’organisation pour protéger la confidentialité, l’intégrité et la disponibilité des actifs, ainsi que la résilience organisationnelle</t>
+  </si>
+  <si>
+    <t>Les anomalies, les indicateurs de compromission et d’autres événements potentiellement indésirables sont analysés pour caractériser les événements et détecter les incidents de cybersécurité</t>
+  </si>
+  <si>
+    <t>Des enquêtes sont menées pour garantir une réponse efficace et soutenir les activités criminalistiques et de récupération</t>
+  </si>
+  <si>
+    <t>Les activités de réponse sont coordonnées avec les parties prenantes internes et externes, comme l’exigent les lois, les réglementations ou les politiques</t>
+  </si>
+  <si>
+    <t>Les activités sont réalisées pour empêcher l’expansion d’un événement et atténuer ses effets</t>
+  </si>
+  <si>
+    <t>Les activités de restauration sont coordonnées avec les parties internes et externes</t>
   </si>
 </sst>
 </file>
@@ -4790,19 +4824,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E40" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H136" sqref="H136"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="5" max="5" width="71.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="57.6640625" customWidth="1"/>
+    <col min="6" max="6" width="57.6640625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="43.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="238" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="80.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="104.6640625" customWidth="1"/>
+    <col min="9" max="9" width="80.6640625" style="2" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="33" style="2" customWidth="1"/>
     <col min="11" max="11" width="150.6640625" customWidth="1"/>
     <col min="12" max="12" width="168.6640625" style="2" customWidth="1"/>
@@ -4898,7 +4935,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4928,7 +4965,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4958,7 +4995,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4988,7 +5025,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -5018,7 +5055,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -5074,7 +5111,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -5104,7 +5141,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5134,7 +5171,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5164,7 +5201,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5194,7 +5231,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5224,7 +5261,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -5254,7 +5291,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -5310,7 +5347,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="224" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="224" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -5340,7 +5377,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -5370,7 +5407,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -5400,7 +5437,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -5456,7 +5493,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="272" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="272" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -5486,7 +5523,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -5542,7 +5579,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -5572,7 +5609,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -5602,7 +5639,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -5658,7 +5695,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="304" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="304" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -5688,7 +5725,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -5718,7 +5755,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -5748,7 +5785,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -5778,7 +5815,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -5808,7 +5845,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -5838,7 +5875,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="288" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="288" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -5868,7 +5905,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="224" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="224" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -5898,7 +5935,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -5928,7 +5965,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="288" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="288" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -6010,7 +6047,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -6040,7 +6077,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -6070,7 +6107,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -6100,7 +6137,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -6130,7 +6167,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -6160,7 +6197,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -6190,7 +6227,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -6236,6 +6273,9 @@
       <c r="G49" s="2" t="s">
         <v>473</v>
       </c>
+      <c r="H49" s="2" t="s">
+        <v>1001</v>
+      </c>
       <c r="J49" s="2" t="s">
         <v>813</v>
       </c>
@@ -6243,7 +6283,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="256" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="256" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -6273,7 +6313,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -6303,7 +6343,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -6333,7 +6373,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -6363,7 +6403,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -6393,7 +6433,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -6423,7 +6463,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -6453,7 +6493,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -6483,7 +6523,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="64" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -6513,7 +6553,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -6559,6 +6599,9 @@
       <c r="G60" s="2" t="s">
         <v>472</v>
       </c>
+      <c r="H60" s="2" t="s">
+        <v>1003</v>
+      </c>
       <c r="J60" s="2" t="s">
         <v>835</v>
       </c>
@@ -6566,7 +6609,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -6596,7 +6639,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="365" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="365" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -6626,7 +6669,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -6656,7 +6699,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="320" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="320" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -6738,7 +6781,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -6768,7 +6811,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -6798,7 +6841,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -6828,7 +6871,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -6858,7 +6901,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="224" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="224" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -6888,7 +6931,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -6934,6 +6977,9 @@
       <c r="G73" s="2" t="s">
         <v>474</v>
       </c>
+      <c r="H73" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="J73" s="2" t="s">
         <v>861</v>
       </c>
@@ -6941,7 +6987,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="256" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="256" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -6971,7 +7017,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -7017,6 +7063,9 @@
       <c r="G76" s="2" t="s">
         <v>479</v>
       </c>
+      <c r="H76" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="J76" s="2" t="s">
         <v>867</v>
       </c>
@@ -7024,7 +7073,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -7054,7 +7103,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="224" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="224" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -7084,7 +7133,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -7114,7 +7163,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -7160,6 +7209,9 @@
       <c r="G81" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="H81" s="2" t="s">
+        <v>1005</v>
+      </c>
       <c r="J81" s="2" t="s">
         <v>877</v>
       </c>
@@ -7167,7 +7219,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -7197,7 +7249,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="272" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="272" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -7227,7 +7279,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -7257,7 +7309,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -7287,7 +7339,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -7317,7 +7369,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -7363,6 +7415,9 @@
       <c r="G88" s="2" t="s">
         <v>475</v>
       </c>
+      <c r="H88" s="2" t="s">
+        <v>1006</v>
+      </c>
       <c r="J88" s="2" t="s">
         <v>891</v>
       </c>
@@ -7370,7 +7425,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="256" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="256" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -7400,7 +7455,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -7430,7 +7485,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -7460,7 +7515,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="64" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -7542,7 +7597,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -7572,7 +7627,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -7602,7 +7657,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -7632,7 +7687,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -7662,7 +7717,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="272" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="272" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -7708,6 +7763,9 @@
       <c r="G100" s="2" t="s">
         <v>477</v>
       </c>
+      <c r="H100" s="2" t="s">
+        <v>1007</v>
+      </c>
       <c r="J100" s="2" t="s">
         <v>915</v>
       </c>
@@ -7715,7 +7773,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -7745,7 +7803,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -7775,7 +7833,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -7805,7 +7863,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -7835,7 +7893,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -7865,7 +7923,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -7947,7 +8005,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -7977,7 +8035,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -8007,7 +8065,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -8037,7 +8095,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -8067,7 +8125,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -8113,6 +8171,9 @@
       <c r="G114" s="2" t="s">
         <v>486</v>
       </c>
+      <c r="H114" t="s">
+        <v>1008</v>
+      </c>
       <c r="J114" s="2" t="s">
         <v>943</v>
       </c>
@@ -8120,7 +8181,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -8150,7 +8211,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -8180,7 +8241,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -8210,7 +8271,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -8256,6 +8317,9 @@
       <c r="G119" s="2" t="s">
         <v>487</v>
       </c>
+      <c r="H119" t="s">
+        <v>1009</v>
+      </c>
       <c r="J119" s="2" t="s">
         <v>953</v>
       </c>
@@ -8263,7 +8327,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -8293,7 +8357,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -8339,6 +8403,9 @@
       <c r="G122" s="2" t="s">
         <v>488</v>
       </c>
+      <c r="H122" t="s">
+        <v>1010</v>
+      </c>
       <c r="J122" s="2" t="s">
         <v>959</v>
       </c>
@@ -8346,7 +8413,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -8376,7 +8443,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -8458,7 +8525,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -8488,7 +8555,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -8518,7 +8585,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="64" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -8548,7 +8615,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -8578,7 +8645,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -8608,7 +8675,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -8654,6 +8721,9 @@
       <c r="G133" s="2" t="s">
         <v>490</v>
       </c>
+      <c r="H133" t="s">
+        <v>1011</v>
+      </c>
       <c r="J133" s="2" t="s">
         <v>981</v>
       </c>
@@ -8661,7 +8731,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -8691,7 +8761,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -8722,6 +8792,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L135" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/tools/nist/nist-csf-2.0.xlsx
+++ b/tools/nist/nist-csf-2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/nist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD75035-9047-3D4D-9E6E-F9B3F5F1B799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348EC931-B4B2-0F44-A863-998E6F389A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4824,10 +4824,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E40" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
       <selection activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
@@ -4935,7 +4934,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4965,7 +4964,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4995,7 +4994,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5025,7 +5024,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -5055,7 +5054,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -5111,7 +5110,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -5141,7 +5140,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5171,7 +5170,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5201,7 +5200,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5231,7 +5230,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5261,7 +5260,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -5291,7 +5290,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -5347,7 +5346,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="224" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -5377,7 +5376,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -5407,7 +5406,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -5437,7 +5436,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -5493,7 +5492,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="272" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -5523,7 +5522,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -5609,7 +5608,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -5639,7 +5638,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -5695,7 +5694,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="304" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="304" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -5725,7 +5724,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -5755,7 +5754,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -5785,7 +5784,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -5815,7 +5814,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -5845,7 +5844,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -5875,7 +5874,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="288" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -5905,7 +5904,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="224" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -5935,7 +5934,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -5965,7 +5964,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="288" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -6047,7 +6046,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -6077,7 +6076,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -6107,7 +6106,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -6137,7 +6136,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -6167,7 +6166,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -6197,7 +6196,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -6227,7 +6226,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="256" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="256" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -6313,7 +6312,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -6343,7 +6342,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -6373,7 +6372,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -6403,7 +6402,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -6433,7 +6432,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -6463,7 +6462,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -6493,7 +6492,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -6523,7 +6522,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="64" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -6553,7 +6552,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -6609,7 +6608,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -6639,7 +6638,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="365" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="365" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -6669,7 +6668,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -6699,7 +6698,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="320" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="320" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -6781,7 +6780,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -6811,7 +6810,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -6841,7 +6840,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -6871,7 +6870,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -6901,7 +6900,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="224" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -6931,7 +6930,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -6987,7 +6986,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="256" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="256" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -7017,7 +7016,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -7073,7 +7072,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -7103,7 +7102,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="224" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -7133,7 +7132,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -7163,7 +7162,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -7219,7 +7218,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -7249,7 +7248,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="272" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -7279,7 +7278,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -7309,7 +7308,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -7339,7 +7338,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -7369,7 +7368,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -7425,7 +7424,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="256" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="256" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -7455,7 +7454,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -7485,7 +7484,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -7515,7 +7514,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="64" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -7597,7 +7596,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -7627,7 +7626,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -7657,7 +7656,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -7687,7 +7686,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -7717,7 +7716,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="272" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -7773,7 +7772,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -7803,7 +7802,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -7833,7 +7832,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -7863,7 +7862,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -7893,7 +7892,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -7923,7 +7922,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -8005,7 +8004,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -8035,7 +8034,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -8065,7 +8064,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -8095,7 +8094,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -8125,7 +8124,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -8181,7 +8180,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -8211,7 +8210,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -8241,7 +8240,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -8271,7 +8270,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -8327,7 +8326,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -8357,7 +8356,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -8413,7 +8412,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -8443,7 +8442,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -8525,7 +8524,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -8555,7 +8554,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -8585,7 +8584,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="64" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -8615,7 +8614,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -8645,7 +8644,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -8675,7 +8674,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -8731,7 +8730,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -8761,7 +8760,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -8792,14 +8791,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L135" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1"/>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/tools/nist/nist-csf-2.0.xlsx
+++ b/tools/nist/nist-csf-2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/nist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D856B2DF-84FE-3A43-864D-5C57AFC3DBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348EC931-B4B2-0F44-A863-998E6F389A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="35840" windowHeight="20360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="scores" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">csf!$A$1:$F$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">csf!$A$1:$L$135</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="1012">
   <si>
     <t>assessable</t>
   </si>
@@ -1789,9 +1789,6 @@
 L’organisation adapte ses pratiques cybersécurité en fonction des activités passées et présentes, y compris les retours d’expérience et les indicateurs prédictifs.</t>
   </si>
   <si>
-    <t>Annotation</t>
-  </si>
-  <si>
     <t>GOUVERNER</t>
   </si>
   <si>
@@ -1910,13 +1907,2324 @@
   </si>
   <si>
     <t>Les processus de gestion des risques de la chaîne d’approvisionnement en matière de cybersécurité sont identifiés, établis, gérés, surveillés et améliorés par les parties prenantes de l’organisation</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Partagez la mission de l'organisation (par exemple, par le biais d'énoncés de vision et de mission, de stratégies de marketing et de service) afin de fournir une base pour identifier les risques qui peuvent entraver cette mission</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Déterminer les intervenants internes pertinents et leurs attentes en matière de cybersécurité (p. ex., attentes en matière de rendement et de risque des dirigeants, des administrateurs et des conseillers ; attentes culturelles des employés)
+Ex2 : Identifier les parties prenantes externes pertinentes et leurs attentes en matière de cybersécurité (p. ex., attentes des clients en matière de protection de la vie privée, attentes opérationnelles des partenariats, attentes des organismes de réglementation en matière de conformité, attentes de la société en matière d'éthique)</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Déterminer un processus de suivi et de gestion des exigences légales et réglementaires concernant la protection des informations des individus (par exemple, Health Insurance Portability and Accountability Act, California Consumer Privacy Act, General Data Protection Regulation)
+Ex2 : Déterminer un processus de suivi et de gestion des exigences contractuelles pour la gestion de la cybersécurité des informations sur les fournisseurs, les clients et les partenaires
+Ex3 : Aligner la stratégie de cybersécurité de l'organisation sur les exigences légales, réglementaires et contractuelles</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Établir des critères pour déterminer la criticité des capacités et des services selon les intervenants internes et externes
+Ex2 : Déterminer (p. ex., à partir d'une analyse d'impact sur les activités) les actifs et les opérations commerciales qui sont essentiels à l'atteinte des objectifs de la mission et l'impact potentiel d'une perte (ou d'une perte partielle) de ces opérations
+Ex3 : Établir et communiquer des objectifs de résilience (par exemple, des objectifs de temps de récupération) pour fournir des capacités et des services critiques dans divers états de fonctionnement (par exemple, en cas d'attaque, pendant la récupération, en fonctionnement normal)</t>
+  </si>
+  <si>
+    <t>Ex1 : Créer un inventaire des dépendances de l'organisation vis-à-vis des ressources externes (par exemple, installations, fournisseurs d'hébergement basés sur le cloud) et de leurs relations avec les actifs et les fonctions commerciales de l'organisation
+Ex2 : Identifier et documenter les dépendances externes qui sont des points de défaillance potentiels pour les capacités et les services critiques de l'organisation, et partager ces informations avec le personnel approprié
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Mettre à jour les objectifs de gestion des risques de cybersécurité à court et à long terme dans le cadre de la planification stratégique annuelle et lorsque des changements majeurs se produisent
+Ex2 : Établir des objectifs mesurables pour la gestion des risques de cybersécurité (par exemple, gérer la qualité de la formation des utilisateurs, assurer une protection adéquate contre les risques pour les systèmes de contrôle industriel)
+Ex3 : Les hauts dirigeants s'entendent sur les objectifs de cybersécurité et les utilisent pour mesurer et gérer les risques et les performances</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Déterminer et communiquer des énoncés de propension au risque qui expriment les attentes concernant le niveau de risque approprié pour l'organisation
+Ex2 : Traduire les déclarations d'appétit pour le risque en déclarations de tolérance au risque spécifiques, mesurables et largement compréhensibles
+Ex3 : Affiner périodiquement les objectifs organisationnels et l'appétit pour le risque en fonction de l'exposition au risque connue et du risque résiduel</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Regrouper et gérer les risques de cybersécurité en même temps que d'autres risques d'entreprise (par exemple, conformité, finances, opérations, réglementation, réputation, sécurité)
+Ex2 : Inclure les gestionnaires des risques de cybersécurité dans la planification de la gestion des risques d'entreprise
+Ex3 : Établir des critères pour l'escalade des risques de cybersécurité dans le cadre de la gestion des risques d'entreprise</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Spécifier les critères d'acceptation et d'évitement du risque de cybersécurité pour diverses classifications de données
+Ex2 : Déterminer s'il faut souscrire une assurance cybersécurité
+Ex3 : Documenter les conditions dans lesquelles les modèles de responsabilité partagée sont acceptables (p. ex., externalisation de certaines fonctions de cybersécurité, confiage d'opérations financières par un tiers au nom de l'organisation, utilisation de services basés sur le nuage public)</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Déterminer comment mettre à jour les cadres supérieurs, les directeurs et la direction sur la posture de cybersécurité de l'organisation à intervalles convenus
+Ex2 : Identifiez comment tous les services de l'organisation, tels que la direction, les opérations, les auditeurs internes, les services juridiques, les acquisitions, la sécurité physique et les RH, communiqueront entre eux sur les risques de cybersécurité</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Établir des critères d'utilisation d'une approche quantitative pour l'analyse des risques de cybersécurité et spécifier les formules de probabilité et d'exposition
+Ex2 : Créer et utiliser des modèles (p. ex., un registre des risques) pour documenter les informations sur les risques de cybersécurité (p. ex., description du risque, exposition, traitement et propriété)
+Ex3 : Établir des critères de hiérarchisation des risques aux niveaux appropriés au sein de l'entreprise
+Ex4 : Utiliser une liste cohérente de catégories de risques pour prendre en charge l'intégration, l'agrégation et la comparaison des risques de cybersécurité</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Définir et communiquer des directives et des méthodes pour identifier les opportunités et les inclure dans les discussions sur les risques (par exemple, analyse des forces, des faiblesses, des opportunités et des menaces [SWOT])
+Ex2 : Identifiez les objectifs ambitieux et documentez-les
+Ex3 : Calculer, documenter et hiérarchiser les risques positifs par rapport aux risques négatifs</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Les dirigeants (p. ex., les directeurs) s'entendent sur leurs rôles et responsabilités dans l'élaboration, la mise en œuvre et l'évaluation de la stratégie de cybersécurité de l'organisation.
+Ex2 : Partager les attentes des dirigeants concernant une culture de sécurité et d'éthique, en particulier lorsque l'actualité offre l'occasion de mettre en évidence des exemples positifs ou négatifs de gestion des risques de cybersécurité
+Ex3 : Les dirigeants demandent au RSSI de maintenir une stratégie complète de gestion des risques de cybersécurité, puis de l'examiner et de la mettre à jour au moins une fois par an et après des événements majeurs.
+Ex4 : Effectuer des examens pour s'assurer que les responsables de la gestion des risques liés à la cybersécurité disposent d'une autorité et d'une coordination adéquates.</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Documenter les rôles et les responsabilités en matière de gestion des risques dans la politique
+Ex2 : Documenter qui est responsable des activités de gestion des risques de cybersécurité et comment ces équipes et ces personnes doivent être consultées et informées.
+Ex3 : Inclure les responsabilités en matière de cybersécurité et les exigences de performance dans les descriptions du personnel
+Ex4 : Documenter les objectifs de performance du personnel ayant des responsabilités en matière de gestion des risques de cybersécurité et mesurer périodiquement le rendement pour identifier les domaines à améliorer
+Ex5 : Énoncer clairement les responsabilités en matière de cybersécurité au sein des opérations, des fonctions de risque et des fonctions d'audit interne</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Effectuer des examens de gestion périodiques pour s'assurer que les personnes chargées de la gestion des risques de cybersécurité ont l'autorité nécessaire
+Ex2 : Déterminer l'allocation des ressources et l'investissement en fonction de la tolérance au risque et de la réponse
+Ex3 : Fournir des personnes, des processus et des ressources techniques adéquats et suffisants pour soutenir la stratégie de cybersécurité</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Intégrer les considérations de gestion des risques de cybersécurité dans les processus de ressources humaines (p. ex., vérification du personnel, intégration, notification des changements, départ)
+Ex2 : Considérer les connaissances en cybersécurité comme un facteur positif dans les décisions d'embauche, de formation et de rétention
+Ex3 : Effectuer des vérifications des antécédents avant d'intégrer de nouveaux employés pour des rôles sensibles, et répéter périodiquement les vérifications des antécédents du personnel ayant de tels rôles
+Ex4 : Définir et faire respecter les obligations du personnel en matière de connaissances, d'adhésion et de respect des politiques de sécurité liées à leurs rôles</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Créer, diffuser et tenir à jour une politique de gestion des risques compréhensible et utilisable avec des énoncés d'intention, d'attentes et d'orientation de la direction
+Ex2 : Examiner périodiquement les politiques et les processus et procédures de soutien pour s'assurer qu'ils s'harmonisent avec les objectifs et les priorités de la stratégie de gestion des risques, ainsi qu'avec l'orientation générale de la politique de cybersécurité
+Ex3 : Exiger l'approbation de la haute direction sur la politique
+Ex4 : Communiquer la politique de gestion des risques de cybersécurité et les processus et procédures de soutien à l'échelle de l'organisation
+Ex5 : Exiger que le personnel accuse réception de la politique lors de son embauche, chaque année et chaque fois que la politique est mise à jour</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Mettre à jour la politique en fonction des examens périodiques des résultats de la gestion des risques de cybersécurité pour s'assurer que la politique et les processus et procédures connexes maintiennent adéquatement le risque à un niveau acceptable.
+Ex2 : Fournir un calendrier pour l'examen des changements apportés à l'environnement de risque de l'organisation (p. ex., changements dans le risque ou dans les objectifs de la mission de l'organisation) et communiquer les mises à jour de politique recommandées
+Ex3 : Mettre à jour la politique pour tenir compte des changements apportés aux exigences légales et réglementaires
+Ex4 : Mettre à jour la politique pour tenir compte des changements technologiques (p. ex., adoption de l'intelligence artificielle) et des changements apportés à l'entreprise (p. ex., acquisition d'une nouvelle entreprise, nouvelles exigences contractuelles)</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Mesurer dans quelle mesure la stratégie de gestion des risques et les résultats des risques ont aidé les dirigeants à prendre des décisions et à atteindre les objectifs organisationnels
+Ex2 : Examiner si les stratégies de risque de cybersécurité qui entravent les opérations ou l'innovation doivent être ajustées</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Examiner les résultats de l'audit pour confirmer si la stratégie de cybersécurité existante a assuré la conformité aux exigences internes et externes.
+Ex2 : Examiner la surveillance du rendement des personnes occupant des rôles liés à la cybersécurité afin de déterminer si des changements de politique sont nécessaires
+Ex3 : Revoir la stratégie à la lumière des incidents de cybersécurité</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Examiner les indicateurs clés de performance (IRC) pour s'assurer que les politiques et procédures à l'échelle de l'organisation atteignent les objectifs
+Ex2 : Examiner les indicateurs de risque clés (KRI) pour identifier les risques auxquels l'organisation est confrontée, y compris la probabilité et l'impact potentiel
+Ex3 : Recueillir et communiquer des mesures sur la gestion des risques de cybersécurité avec la haute direction</t>
+  </si>
+  <si>
+    <t>Ex1 : Établir une stratégie qui exprime les objectifs du programme de gestion des risques de la chaîne d'approvisionnement en cybersécurité
+Ex2 : Élaborer le programme de gestion des risques de la chaîne d'approvisionnement en cybersécurité, y compris un plan (avec des jalons), des politiques et des procédures qui guident la mise en œuvre et l'amélioration du programme, et partager les politiques et les procédures avec les parties prenantes de l'organisation.
+Ex3 : Élaborer et mettre en œuvre des processus de programme fondés sur la stratégie, les objectifs, les politiques et les procédures qui sont convenus et mis en œuvre par les intervenants de l'organisation.
+Ex4 : Établir un mécanisme interorganisationnel qui assure l'harmonisation entre les fonctions qui contribuent à la gestion des risques de la chaîne d'approvisionnement en cybersécurité, telles que la cybersécurité, les TI, les opérations, les services juridiques, les ressources humaines et l'ingénierie
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Identifier un ou plusieurs rôles ou postes spécifiques qui seront responsables de la planification, de l'approvisionnement et de l'exécution des activités de gestion des risques de la chaîne d'approvisionnement en cybersécurité
+Ex2 : Documenter les rôles et les responsabilités en matière de gestion des risques de la chaîne d'approvisionnement en cybersécurité dans la politique
+Ex3 : Créer des matrices de responsabilités pour documenter qui sera responsable des activités de gestion des risques de la chaîne d'approvisionnement en cybersécurité et comment ces équipes et ces personnes seront consultées et informées.
+Ex4 : Inclure les responsabilités en matière de gestion des risques de la chaîne d'approvisionnement en cybersécurité et les exigences de performance dans les descriptions du personnel afin d'assurer la clarté et d'améliorer la responsabilisation
+Ex5 : Documenter les objectifs de performance du personnel ayant des responsabilités spécifiques à la gestion des risques de cybersécurité, et les mesurer périodiquement pour démontrer et améliorer les performances
+Ex6 : Élaborer des rôles et des responsabilités pour les fournisseurs, les clients et les partenaires commerciaux afin de gérer les responsabilités partagées à l'égard des risques de cybersécurité applicables, et les intégrer aux politiques organisationnelles et aux ententes avec les tiers applicables.
+Ex7 : Communiquer à l'interne les rôles et responsabilités des tiers en matière de gestion des risques de la chaîne d'approvisionnement en matière de cybersécurité
+Ex8 : Établir des règles et des protocoles pour les processus d'échange d'information et de production de rapports entre l'organisation et ses fournisseurs
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Identifier les domaines d'alignement et de chevauchement avec la cybersécurité et la gestion des risques d'entreprise
+Ex2 : Établir des ensembles de contrôles intégrés pour la gestion des risques de cybersécurité et la gestion des risques de la chaîne d'approvisionnement en cybersécurité
+Ex3 : Intégrer la gestion des risques de la chaîne d'approvisionnement en cybersécurité dans les processus d'amélioration
+Ex4 : Faire remonter les risques de cybersécurité importants dans les chaînes d'approvisionnement à la direction générale et les aborder au niveau de la gestion des risques d'entreprise.
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Élaborer des critères de criticité des fournisseurs basés, par exemple, sur la sensibilité des données traitées ou détenues par les fournisseurs, le degré d'accès aux systèmes de l'organisation et l'importance des produits ou services pour la mission de l'organisation.
+Ex2 : Tenir un registre de tous les fournisseurs et hiérarchiser les fournisseurs en fonction des critères de criticité
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Établir des exigences de sécurité pour les fournisseurs, les produits et les services en fonction de leur niveau de criticité et de leur impact potentiel en cas de compromission
+Ex2 : Inclure toutes les exigences en matière de cybersécurité et de chaîne d'approvisionnement que les tiers doivent respecter et la manière dont la conformité aux exigences peut être vérifiée dans le langage contractuel par défaut
+Ex3 : Définir les règles et les protocoles d'échange d'information entre l'organisation et ses fournisseurs et fournisseurs de niveau inférieur dans les ententes
+Ex4 : Gérer les risques en incluant des exigences de sécurité dans les accords en fonction de leur criticité et de leur impact potentiel en cas de compromission
+Ex5 : Définir les exigences de sécurité dans les accords de niveau de service (SLA) pour surveiller les fournisseurs afin de s'assurer que les performances de sécurité sont acceptables tout au long du cycle de vie de la relation avec le fournisseur
+Ex6 : Exiger contractuellement des fournisseurs qu'ils divulguent les caractéristiques, les fonctions et les vulnérabilités de cybersécurité de leurs produits et services pendant la durée du produit ou la durée du service
+Ex7 : Exiger contractuellement des fournisseurs qu'ils fournissent et tiennent à jour un inventaire des composants (p. ex., nomenclature logicielle ou matérielle) pour les produits critiques.
+Ex8 : Exiger contractuellement des fournisseurs qu'ils vérifient leurs employés et se prémunissent contre les menaces internes
+Ex9 : Exiger contractuellement des fournisseurs qu'ils fournissent la preuve qu'ils appliquent des pratiques de sécurité acceptables, par exemple par le biais d'une auto-attestation, de la conformité à des normes connues, de certifications ou d'inspections
+Ex10 : Préciser dans les contrats et autres ententes les droits et responsabilités de l'organisation, de ses fournisseurs et de leurs chaînes d'approvisionnement en ce qui concerne les risques potentiels de cybersécurité
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Effectuer une diligence raisonnable approfondie sur les fournisseurs potentiels, conforme à la planification de l'approvisionnement et proportionnelle au niveau de risque, de criticité et de complexité de chaque relation avec le fournisseur
+Ex2 : Évaluer la pertinence de la technologie et des capacités de cybersécurité ainsi que les pratiques de gestion des risques des fournisseurs potentiels
+Ex3 : Effectuer des évaluations des risques liés aux fournisseurs par rapport aux exigences commerciales et de cybersécurité applicables
+Ex4 : Évaluer l'authenticité, l'intégrité et la sécurité des produits critiques avant l'acquisition et l'utilisation
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Ajuster les formats et les fréquences d'évaluation en fonction de la réputation du tiers et de la criticité des produits ou services qu'il fournit
+Ex2 : Évaluez les preuves de conformité des tiers aux exigences contractuelles en matière de cybersécurité, telles que les auto-attestations, les garanties, les certifications et autres artefacts
+Ex3 : Surveiller les fournisseurs critiques pour s'assurer qu'ils remplissent leurs obligations de sécurité tout au long du cycle de vie de la relation avec le fournisseur à l'aide de diverses méthodes et techniques, telles que des inspections, des audits, des tests ou d'autres formes d'évaluation
+Ex4 : Surveiller les fournisseurs, les services et les produits critiques pour détecter les modifications de leurs profils de risque, et réévaluer la criticité des fournisseurs et l'impact des risques en conséquence.
+Ex5 : Planifier les interruptions imprévues liées aux fournisseurs et à la chaîne d'approvisionnement pour assurer la continuité des activités
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Définir et utiliser des règles et des protocoles pour signaler les activités d'intervention et de récupération en cas d'incident et l'état d'avancement entre l'organisation et ses fournisseurs
+Ex2 : Identifier et documenter les rôles et les responsabilités de l'organisation et de ses fournisseurs en matière d'intervention en cas d'incident
+Ex3 : Inclure les fournisseurs critiques dans les exercices et les simulations de réponse aux incidents
+Ex4 : Définir et coordonner les méthodes et les protocoles de communication de crise entre l'organisation et ses fournisseurs critiques
+Ex5 : Organiser des sessions collaboratives sur les leçons apprises avec les fournisseurs critiques
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Les politiques et les procédures exigent des registres de provenance pour tous les produits et services technologiques acquis
+Ex2 : Fournir périodiquement des rapports sur les risques aux dirigeants sur la façon dont les composants acquis s'avèrent être intacts et authentiques
+Ex3 : Communiquer régulièrement entre les gestionnaires des risques de cybersécurité et le personnel d'exploitation sur la nécessité d'acquérir des correctifs, des mises à jour et des mises à niveau logicielles uniquement auprès de fournisseurs de logiciels authentifiés et dignes de confiance
+Ex4 : Examiner les politiques pour s'assurer qu'elles exigent que le personnel approuvé du fournisseur effectue l'entretien des produits du fournisseur
+Ex5 : Les politiques et procédures exigent la vérification des mises à niveau du matériel critique pour détecter les modifications non autorisées
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Établir des processus pour mettre fin aux relations critiques dans des circonstances normales et défavorables
+Ex2 : Définir et mettre en œuvre des plans de support de maintenance en fin de vie et d'obsolescence des composants
+Ex3 : Vérifiez que l'accès du fournisseur aux ressources de l'organisation est désactivé rapidement lorsqu'il n'est plus nécessaire
+Ex4 : Vérifier que les actifs contenant les données de l'organisation sont retournés ou éliminés correctement en temps opportun, de manière contrôlée et sûre
+Ex5 : Élaborer et exécuter un plan de résiliation ou de transition des relations avec les fournisseurs qui tient compte des risques de sécurité et de résilience de la chaîne d'approvisionnement
+Ex6 : Atténuer les risques pour les données et les systèmes créés par le licenciement d'un fournisseur
+Ex7 : Gérer les risques de fuite de données associés à la résiliation d'un fournisseur
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Tenir à jour des inventaires pour tous les types de matériel, y compris l'informatique, l'IoT, l'OT et les appareils mobiles
+Ex2 : Surveiller en permanence les réseaux pour détecter le nouveau matériel et mettre à jour automatiquement les inventaires</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Tenir à jour des inventaires pour tous les types de logiciels et de services, y compris les applications commerciales prêtes à l'emploi, les applications open source, les applications personnalisées, les services API et les applications et services basés sur le cloud
+Ex2 : Surveillez en permanence toutes les plateformes, y compris les conteneurs et les machines virtuelles, pour détecter les modifications de l'inventaire des logiciels et des services
+Ex3 : Tenir un inventaire des systèmes de l'organisation</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Maintenir les lignes de base de communication et les flux de données au sein des réseaux filaires et sans fil de l'organisation
+Ex2 : Maintenir des bases de référence pour la communication et les flux de données entre l'organisation et les tiers
+Ex3 : Maintenir les lignes de base de communication et les flux de données pour l'utilisation de l'infrastructure en tant que service (IaaS) de l'organisation
+Ex4 : Tenir à jour la documentation des ports, protocoles et services réseau attendus qui sont généralement utilisés par les systèmes autorisés</t>
+  </si>
+  <si>
+    <t>Ex1 : Inventorier tous les services externes utilisés par l'organisation, y compris les offres d'infrastructure en tant que service (IaaS), de plateforme en tant que service (PaaS) et de logiciel en tant que service (SaaS) ; Apis; et d'autres services applicatifs hébergés en externe
+Ex2 : Mettre à jour l'inventaire lorsqu'un nouveau service externe sera utilisé afin d'assurer une surveillance adéquate de la gestion des risques de cybersécurité de l'utilisation de ce service par l'organisation
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Définir les critères de priorisation de chaque classe d'actifs
+Ex2 : Appliquer les critères de priorisation aux actifs
+Ex3 : Suivre les priorités des actifs et les mettre à jour périodiquement ou lorsque des changements importants surviennent dans l'organisation</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Tenir à jour une liste des types de données d'intérêt désignés (p. ex., renseignements permettant d'identifier une personne, renseignements sur la santé protégés, numéros de compte financier, propriété intellectuelle de l'organisation, données sur la technologie opérationnelle)
+Ex2 : Découvrir et analyser en permanence des données ad hoc pour identifier de nouvelles instances de types de données désignés
+Ex3 : Attribuer des classifications de données à des types de données désignés par le biais de balises ou d'étiquettes
+Ex4 : Suivez la provenance, le propriétaire des données et la géolocalisation de chaque instance de types de données désignés</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Intégrer les considérations de cybersécurité tout au long du cycle de vie des systèmes, du matériel, des logiciels et des services
+Ex2 : Intégrer les considérations de cybersécurité dans le cycle de vie des produits
+Ex3 : Identifier les utilisations non officielles de la technologie pour atteindre les objectifs de la mission (c.-à-d. TI fantômes)
+Ex4 : Identifier périodiquement les systèmes, le matériel, les logiciels et les services redondants qui augmentent inutilement la surface d'attaque de l'organisation
+Ex5 : Configurer et sécuriser correctement les systèmes, le matériel, les logiciels et les services avant leur déploiement en production
+Ex6 : Mettre à jour les inventaires lorsque les systèmes, le matériel, les logiciels et les services sont déplacés ou transférés au sein de l'organisation
+Ex7 : Détruire en toute sécurité les données stockées conformément à la politique de conservation des données de l'organisation à l'aide de la méthode de destruction prescrite, et conserver et gérer un registre des destructions
+Ex8 : Nettoyer en toute sécurité le stockage de données lorsque le matériel est mis hors service, mis hors service, réattribué ou envoyé pour réparation ou remplacement
+Ex9 : Proposer des méthodes de destruction du papier, des supports de stockage et d'autres formes physiques de stockage de données</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Utiliser des technologies de gestion des vulnérabilités pour identifier les logiciels non corrigés et mal configurés
+Ex2 : Évaluer les architectures de réseau et de système pour détecter les faiblesses de conception et de mise en œuvre qui affectent la cybersécurité
+Ex3 : Examiner, analyser ou tester les logiciels développés par l'organisation pour identifier les vulnérabilités de conception, de codage et de configuration par défaut
+Ex4 : Évaluer les installations qui hébergent des actifs informatiques critiques pour détecter les vulnérabilités physiques et les problèmes de résilience
+Ex5 : Surveiller les sources de renseignements sur les cybermenaces pour obtenir des informations sur les nouvelles vulnérabilités des produits et services
+Ex6 : Examiner les processus et les procédures pour déceler les faiblesses qui pourraient être exploitées pour affecter la cybersécurité</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Configurer des outils et des technologies de cybersécurité dotés de capacités de détection ou de réponse pour ingérer en toute sécurité des flux de renseignements sur les cybermenaces
+Ex2 : Recevoir et examiner des avis de tiers réputés sur les auteurs de menace actuels et leurs tactiques, techniques et procédures (TTP)
+Ex3 : Surveiller les sources de renseignements sur les cybermenaces pour obtenir de l'information sur les types de vulnérabilités que les technologies émergentes peuvent présenter</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Utiliser les renseignements sur les cybermenaces pour se tenir au courant des types d'auteurs de menace susceptibles de cibler l'organisation et des TTP qu'ils sont susceptibles d'utiliser
+Ex2 : Effectuer une chasse aux menaces pour rechercher des signes d'acteurs malveillants dans l'environnement
+Ex3 : Mettre en œuvre des processus d'identification des auteurs de menace internes</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Les dirigeants d'entreprise et les praticiens de la gestion des risques de cybersécurité travaillent ensemble pour estimer la probabilité et l'impact des scénarios de risque et les consigner dans les registres des risques
+Ex2 : Énumérer les répercussions commerciales potentielles d'un accès non autorisé aux communications, aux systèmes et aux données de l'organisation traités dans ou par ces systèmes
+Ex3 : Tenir compte des impacts potentiels des défaillances en cascade sur les systèmes des systèmes</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Développer des modèles de menaces pour mieux comprendre les risques pour les données et identifier les réponses appropriées aux risques
+Ex2 : Prioriser l'allocation des ressources et les investissements en cybersécurité en fonction des probabilités et des impacts estimés</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Appliquer les critères du plan de gestion des vulnérabilités pour décider d'accepter, de transférer, d'atténuer ou d'éviter le risque
+Ex2 : Appliquer les critères du plan de gestion des vulnérabilités pour sélectionner des contrôles compensatoires afin d'atténuer les risques
+Ex3 : Suivre l'avancement de la mise en œuvre de la réponse aux risques (p. ex., plan d'action et jalons, registre des risques, rapport détaillé sur les risques)
+Ex4 : Utiliser les résultats de l'évaluation des risques pour éclairer les décisions et les mesures de réponse aux risques
+Ex5 : Communiquer les réponses aux risques prévues aux parties prenantes touchées par ordre de priorité</t>
+  </si>
+  <si>
+    <t>Ex1 : Mettre en œuvre et suivre les procédures de documentation officielle, d'examen, de mise à l'essai et d'approbation des modifications proposées et des exceptions demandées
+Ex2 : Documentez les risques possibles liés à l'apport ou à l'échec de chaque modification proposée, et fournissez des conseils sur l'annulation des modifications
+Ex3 : Documenter les risques liés à chaque exception demandée et le plan d'intervention à ces risques
+Ex4 : Examiner périodiquement les risques qui ont été acceptés en fonction des actions ou des jalons futurs prévus</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Effectuer le partage d'informations sur les vulnérabilités entre l'organisation et ses fournisseurs en suivant les règles et protocoles définis dans les contrats
+Ex2 : Attribuez les responsabilités et vérifiez l'exécution des procédures de traitement, d'analyse de l'impact et de réponse aux divulgations de menaces, de vulnérabilités ou d'incidents de cybersécurité par les fournisseurs, les clients, les partenaires et les organisations gouvernementales de cybersécurité</t>
+  </si>
+  <si>
+    <t>Ex1 : Évaluer l'authenticité et la cybersécurité des produits et services technologiques critiques avant l'acquisition et l'utilisation
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Effectuer des évaluations des risques liés aux fournisseurs par rapport aux exigences commerciales et de cybersécurité applicables, y compris la chaîne d'approvisionnement</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Effectuer des auto-évaluations des services critiques en tenant compte des menaces actuelles et des TTP
+Ex2 : Investir dans des évaluations par des tiers ou des audits indépendants de l'efficacité du programme de cybersécurité de l'organisation afin de cerner les domaines à améliorer
+Ex3 : Évaluer en permanence la conformité aux exigences de cybersécurité sélectionnées par des moyens automatisés</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Déterminer les améliorations à apporter aux activités d'intervention en cas d'incident futures en fonction des constatations des évaluations d'intervention en cas d'incident (p. ex., exercices et simulations sur table, essais, examens internes, vérifications indépendantes)
+Ex2 : Identifier les améliorations à apporter aux activités futures de continuité des activités, de reprise après sinistre et de réponse aux incidents sur la base d'exercices effectués en coordination avec les fournisseurs de services critiques et les fournisseurs de produits
+Ex3 : Impliquer les parties prenantes internes (p. ex., cadres supérieurs, service juridique, RH) dans les tests et les exercices de sécurité, le cas échéant
+Ex4 : Effectuer des tests d'intrusion pour identifier les possibilités d'améliorer la posture de sécurité de certains systèmes à haut risque, tels qu'approuvés par la direction
+Ex5 : Mettre à l'essai des plans d'urgence pour réagir et se remettre de la découverte que les produits ou services ne proviennent pas du fournisseur ou du partenaire contractuel ou qu'ils ont été modifiés avant leur réception
+Ex6 : Recueillir et analyser les indicateurs de performance à l'aide d'outils et de services de sécurité pour éclairer les améliorations du programme de cybersécurité</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Organiser des sessions collaboratives sur les leçons apprises avec les fournisseurs
+Ex2 : Examiner chaque année les politiques, les processus et les procédures de cybersécurité pour tenir compte des leçons apprises.
+Ex3 : Utiliser des indicateurs pour évaluer les performances opérationnelles en matière de cybersécurité au fil du temps</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Établir des plans d'urgence (p. ex., intervention en cas d'incident, continuité des activités, reprise après sinistre) pour intervenir et se remettre d'événements indésirables qui peuvent interférer avec les opérations, exposer des renseignements confidentiels ou mettre en danger la mission et la viabilité de l'organisation.
+Ex2 : Inclure les coordonnées et les informations de communication, les processus de gestion des scénarios courants et les critères de hiérarchisation, d'escalade et d'élévation dans tous les plans d'urgence
+Ex3 : Créer un plan de gestion des vulnérabilités pour identifier et évaluer tous les types de vulnérabilités et hiérarchiser, tester et mettre en œuvre des réponses aux risques
+Ex4 : Communiquer les plans de cybersécurité (y compris les mises à jour) aux personnes responsables de leur exécution et aux parties concernées
+Ex5 : Examiner et mettre à jour tous les plans de cybersécurité chaque année ou lorsqu'un besoin d'améliorations importantes est identifié</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Lancez des demandes d'accès nouveau ou supplémentaire pour les employés, les sous-traitants et d'autres personnes, et suivez, examinez et répondez aux demandes, avec l'autorisation des propriétaires du système ou des données, au besoin
+Ex2 : Émettre, gérer et révoquer des certificats cryptographiques et des jetons d'identité, des clés cryptographiques (c'est-à-dire la gestion des clés) et d'autres informations d'identification
+Ex3 : Sélectionnez un identifiant unique pour chaque appareil à partir de caractéristiques matérielles immuables ou d'un identifiant provisionné en toute sécurité sur l'appareil
+Ex4 : Étiquetez physiquement le matériel autorisé avec un identificateur à des fins d'inventaire et d'entretien</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Vérifier l'identité revendiquée d'une personne au moment de l'inscription à l'aide d'identifiants délivrés par le gouvernement (par exemple, passeport, visa, permis de conduire)
+Ex2 : Émettre un justificatif d'identité différent pour chaque personne (c'est-à-dire aucun partage d'identifiant)</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Exiger une authentification multifacteur
+Ex2 : Appliquer des politiques pour la sécurité minimale des mots de passe, des codes PIN et des authentificateurs similaires
+Ex3 : Réauthentifier périodiquement les utilisateurs, les services et le matériel en fonction du risque (par exemple, dans les architectures Zero Trust)
+Ex4 : S'assurer que le personnel autorisé peut accéder aux comptes essentiels à la protection de la sécurité en cas d'urgence</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Protéger les assertions d'identité utilisées pour transmettre l'authentification et les informations de l'utilisateur via des systèmes d'authentification unique
+Ex2 : Protéger les assertions d'identité utilisées pour transmettre l'authentification et les informations utilisateur entre les systèmes fédérés
+Ex3 : Mettre en œuvre des approches fondées sur des normes pour les assertions d'identité dans tous les contextes et suivre toutes les directives pour la génération (par exemple, modèles de données, métadonnées), la protection (par exemple, signature numérique, cryptage) et la vérification (par exemple, validation de signature) des assertions d'identité</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Examinez régulièrement les privilèges d'accès logique et physique et chaque fois qu'une personne change de rôle ou quitte l'organisation, et annulez rapidement les privilèges qui ne sont plus nécessaires
+Ex2 : Prendre en compte les attributs du demandeur et de la ressource demandée pour les décisions d'autorisation (par exemple, géolocalisation, jour/heure, cybersanté du point de terminaison du demandeur)
+Ex3 : Restreindre l'accès et les privilèges au minimum nécessaire (par exemple, architecture Zero Trust)
+Ex4 : Examiner périodiquement les privilèges associés aux fonctions opérationnelles essentielles pour confirmer la bonne séparation des tâches</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Utilisez des agents de sécurité, des caméras de sécurité, des entrées verrouillées, des systèmes d'alarme et d'autres contrôles physiques pour surveiller les installations et restreindre l'accès
+Ex2 : Utiliser des contrôles de sécurité physique supplémentaires pour les zones qui contiennent des actifs à risque élevé
+Ex3 : Escorter des invités, des fournisseurs et d'autres tiers dans des zones contenant des actifs critiques pour l'entreprise</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Fournir une sensibilisation et une formation de base en matière de cybersécurité aux employés, aux entrepreneurs, aux partenaires, aux fournisseurs et à tous les autres utilisateurs des ressources non publiques de l'organisation.
+Ex2 : Former le personnel à reconnaître les tentatives d'ingénierie sociale et autres attaques courantes, à signaler les attaques et les activités suspectes, à se conformer aux politiques d'utilisation acceptable et à effectuer des tâches de base en matière de cyberhygiène (p. ex., corriger les logiciels, choisir des mots de passe, protéger les justificatifs d'identité)
+Ex3 : Expliquer les conséquences des violations de la politique de cybersécurité, à la fois aux utilisateurs individuels et à l'organisation dans son ensemble
+Ex4 : Évaluer ou tester périodiquement les utilisateurs sur leur compréhension des pratiques de base en matière de cybersécurité
+Ex5 : Exiger des mises à jour annuelles pour renforcer les pratiques existantes et introduire de nouvelles pratiques</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Identifiez les rôles spécialisés au sein de l'organisation qui nécessitent une formation supplémentaire en cybersécurité, tels que le personnel physique et de cybersécurité, le personnel financier, la haute direction et toute personne ayant accès à des données critiques pour l'entreprise
+Ex2 : Fournir une sensibilisation et une formation en cybersécurité basées sur les rôles à toutes les personnes occupant des rôles spécialisés, y compris les entrepreneurs, les partenaires, les fournisseurs et d'autres tiers
+Ex3 : Évaluer ou tester périodiquement la compréhension des utilisateurs des pratiques de cybersécurité pour leurs rôles spécialisés
+Ex4 : Exiger des mises à jour annuelles pour renforcer les pratiques existantes et introduire de nouvelles pratiques</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Utilisez le chiffrement, les signatures numériques et les hachages cryptographiques pour protéger la confidentialité et l'intégrité des données stockées dans des fichiers, des bases de données, des images de disque de machine virtuelle, des images de conteneur et d'autres ressources
+Ex2 : Utiliser le chiffrement complet du disque pour protéger les données stockées sur les terminaux des utilisateurs
+Ex3 : Confirmer l'intégrité du logiciel en validant les signatures
+Ex4 : Restreindre l'utilisation des supports amovibles pour éviter l'exfiltration de données
+Ex5 : Supports amovibles physiquement sécurisés contenant des informations sensibles non cryptées, par exemple dans des bureaux verrouillés ou des classeurs</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Utilisez le cryptage, les signatures numériques et les hachages cryptographiques pour protéger la confidentialité et l'intégrité des communications réseau
+Ex2 : Chiffrer ou bloquer automatiquement les e-mails sortants et autres communications contenant des données sensibles, en fonction de la classification des données
+Ex3 : Bloquer l'accès à la messagerie personnelle, au partage de fichiers, aux services de stockage de fichiers et à d'autres applications et services de communications personnelles à partir des systèmes et réseaux de l'organisation
+Ex4 : Empêcher la réutilisation des données sensibles des environnements de production (par exemple, les dossiers clients) dans les environnements de développement, de test et autres environnements hors production</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Supprimez les données qui doivent rester confidentielles (par exemple, des processeurs et de la mémoire) dès qu'elles ne sont plus nécessaires
+Ex2 : Protéger les données en cours d'utilisation contre l'accès par d'autres utilisateurs et processus de la même plateforme</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Sauvegardez en continu les données critiques en temps quasi réel et sauvegardez fréquemment d'autres données selon des calendriers convenus
+Ex2 : Testez les sauvegardes et les restaurations pour tous les types de sources de données au moins une fois par an
+Ex3 : Stocker en toute sécurité certaines sauvegardes hors ligne et hors site afin qu'un incident ou un désastre ne les endommage pas
+Ex4 : Appliquer des restrictions de séparation géographique et de géolocalisation pour le stockage des sauvegardes de données</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Établir, tester, déployer et maintenir des bases de référence renforcées qui appliquent les politiques de cybersécurité de l'organisation et ne fournissent que des capacités essentielles (c'est-à-dire le principe de la moindre fonctionnalité)
+Ex2 : Passez en revue tous les paramètres de configuration par défaut susceptibles d'avoir un impact sur la cybersécurité lors de l'installation ou de la mise à niveau d'un logiciel
+Ex3 : Surveiller les logiciels mis en œuvre pour détecter les écarts par rapport aux lignes de base approuvées</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Effectuer des correctifs de routine et d'urgence dans les délais spécifiés dans le plan de gestion des vulnérabilités
+Ex2 : Mettre à jour les images de conteneur et déployer de nouvelles instances de conteneur pour remplacer plutôt que mettre à jour les instances existantes
+Ex3 : Remplacer les versions logicielles et de service en fin de vie par des versions prises en charge et gérées
+Ex4 : Désinstaller et supprimer les logiciels et services non autorisés qui présentent des risques excessifs
+Ex5 : Désinstallez et supprimez tous les composants logiciels inutiles (par exemple, les utilitaires du système d'exploitation) que les attaquants pourraient utiliser à mauvais escient
+Ex6 : Définir et mettre en œuvre des plans de support de maintenance en fin de vie et d'obsolescence des logiciels et des services</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Remplacer le matériel lorsqu'il ne dispose pas des fonctionnalités de sécurité nécessaires ou lorsqu'il ne peut pas prendre en charge les logiciels dotés des capacités de sécurité nécessaires
+Ex2 : Définir et mettre en œuvre des plans de support de maintenance en fin de vie et d'obsolescence du matériel
+Ex3 : Effectuer la mise au rebut du matériel de manière sécurisée, responsable et vérifiable</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Configurer tous les systèmes d'exploitation, applications et services (y compris les services basés sur le cloud) pour générer des enregistrements de journal
+Ex2 : Configurer les générateurs de journaux pour partager en toute sécurité leurs journaux avec les systèmes et services d'infrastructure de journalisation de l'organisation.
+Ex3 : Configurer des générateurs de journaux pour enregistrer les données requises par les architectures Zero Trust</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Lorsque le risque le justifie, limitez l'exécution du logiciel aux seuls produits autorisés ou refusez l'exécution des logiciels interdits et non autorisés
+Ex2 : Vérifiez la source du nouveau logiciel et son intégrité avant de l'installer
+Ex3 : Configurer les plates-formes pour qu'elles n'utilisent que des services DNS approuvés qui bloquent l'accès aux domaines malveillants connus
+Ex4 : Configurer les plates-formes pour autoriser l'installation de logiciels approuvés par l'organisation uniquement</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Protéger tous les composants des logiciels développés par l'organisation contre la falsification et l'accès non autorisé
+Ex2 : Sécuriser tous les logiciels produits par l'organisation, avec un minimum de vulnérabilités dans leurs versions
+Ex3 : Maintenir les logiciels utilisés dans les environnements de production et éliminer en toute sécurité les logiciels une fois qu'ils ne sont plus nécessaires</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Segmenter logiquement les réseaux d'organisation et les plateformes basées sur le cloud en fonction des limites de confiance et des types de plateformes (par exemple, IT, IoT, OT, mobile, invités) et autoriser les communications requises uniquement entre les segments
+Ex2 : Segmenter logiquement les réseaux de l'organisation des réseaux externes et autoriser uniquement les communications nécessaires à entrer dans les réseaux de l'organisation à partir des réseaux externes
+Ex3 : Mettre en œuvre des architectures Zero Trust pour limiter l'accès au réseau à chaque ressource au minimum nécessaire
+Ex4 : Vérifier la cybersanté des points de terminaison avant de les autoriser à accéder aux ressources de production et à les utiliser</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Protégez l'équipement organisationnel contre les menaces environnementales connues, telles que les inondations, les incendies, le vent, la chaleur et l'humidité excessives
+Ex2 : Inclure la protection contre les menaces environnementales et des dispositions relatives à une infrastructure d'exploitation adéquate dans les exigences pour les fournisseurs de services qui exploitent des systèmes au nom de l'organisation.</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Éviter les points de défaillance uniques dans les systèmes et l'infrastructure
+Ex2 : Utiliser l'équilibrage de charge pour augmenter la capacité et améliorer la fiabilité
+Ex3 : Utiliser des composants à haute disponibilité tels que le stockage redondant et les alimentations pour améliorer la fiabilité du système</t>
+  </si>
+  <si>
+    <t>Ex1 : Surveiller l'utilisation du stockage, de l'alimentation, du calcul, de la bande passante réseau et d'autres ressources
+Ex2 : Prévoir les besoins futurs et faire évoluer les ressources en conséquence</t>
+  </si>
+  <si>
+    <t>Ex1 : Surveiller les DNS, les BGP et d'autres services réseau à la recherche d'événements indésirables
+Ex2 : Surveiller les réseaux câblés et sans fil pour détecter les connexions à partir de points de terminaison non autorisés
+Ex3 : Surveiller les installations à la recherche de réseaux sans fil non autorisés ou non autorisés
+Ex4 : Comparer les flux réels du réseau par rapport aux lignes de base pour détecter les écarts
+Ex5 : Surveiller les communications réseau pour identifier les changements dans les postures de sécurité à des fins de Zero Trust
+1er : Risque de 1ère partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Surveillez les journaux des systèmes de contrôle d'accès physiques (par exemple, les lecteurs de badges) pour détecter les modèles d'accès inhabituels (par exemple, les écarts par rapport à la norme) et les tentatives d'accès infructueuses
+Ex2 : Examiner et surveiller les enregistrements d'accès physique (p. ex., enregistrement des visiteurs, feuilles d'émargement)
+Ex3 : Surveiller les contrôles d'accès physiques (p. ex., serrures, loquets, axes de charnière, alarmes) pour détecter tout signe d'altération
+Ex4 : Surveiller l'environnement physique à l'aide de systèmes d'alarme, de caméras et d'agents de sécurité
+1er : Risque de 1ère partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Utiliser un logiciel d'analyse comportementale pour détecter les activités anormales des utilisateurs afin d'atténuer les menaces internes
+Ex2 : Surveiller les journaux des systèmes de contrôle d'accès logique pour détecter les modèles d'accès inhabituels et les tentatives d'accès infructueuses
+Ex3 : Surveillez en permanence la technologie de tromperie, y compris les comptes d'utilisateurs, pour toute utilisation
+1er : Risque de 1ère partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Surveiller les activités d'administration et de maintenance à distance et sur site que les fournisseurs externes effectuent sur les systèmes organisationnels
+Ex2 : Surveiller l'activité des services cloud, des fournisseurs de services Internet et d'autres fournisseurs de services pour détecter les écarts par rapport au comportement attendu
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Surveillez les e-mails, le Web, le partage de fichiers, les services de collaboration et d'autres vecteurs d'attaque courants pour détecter les logiciels malveillants, le phishing, les fuites et l'exfiltration de données, ainsi que d'autres événements indésirables.
+Ex2 : Surveillez les tentatives d'authentification pour identifier les attaques contre les identifiants et la réutilisation non autorisée des identifiants
+Ex3 : Surveiller les configurations logicielles pour détecter les écarts par rapport aux bases de référence de sécurité
+Ex4 : Surveiller le matériel et les logiciels pour détecter les signes d'altération
+Ex5 : Utiliser des technologies présentes sur les terminaux pour détecter les problèmes de cybersanté (par exemple, correctifs manquants, infections par des logiciels malveillants, logiciels non autorisés) et rediriger les terminaux vers un environnement de conversion avant que l'accès ne soit autorisé
+1er : Risque de 1ère partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Utilisez la gestion des informations et des événements de sécurité (SIEM) ou d'autres outils pour surveiller en permanence les événements de journal à la recherche d'activités malveillantes et suspectes connues
+Ex2 : Utiliser des renseignements à jour sur les cybermenaces dans les outils d'analyse des journaux pour améliorer la précision de la détection et caractériser les acteurs de la menace, leurs méthodes et les indicateurs de compromission
+Ex3 : Effectuer régulièrement des examens manuels des événements de journal pour les technologies qui ne peuvent pas être suffisamment surveillées par l'automatisation
+Ex4 : Utiliser des outils d'analyse de journaux pour générer des rapports sur leurs résultats
+1er : Risque de 1ère partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Transférer constamment les données de journal générées par d'autres sources vers un nombre relativement restreint de serveurs de journaux
+Ex2 : Utiliser la technologie de corrélation d'événements (par exemple, SIEM) pour collecter des informations capturées par plusieurs sources
+Ex3 : Utiliser les renseignements sur les cybermenaces pour aider à corréler les événements entre les sources de journaux
+1er : Risque de 1ère partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Utiliser des SIEM ou d'autres outils pour estimer l'impact et la portée, et examiner et affiner les estimations
+Ex2 : Une personne crée ses propres estimations de l'impact et de la portée.
+1er : Risque de 1ère partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Utilisez un logiciel de cybersécurité pour générer des alertes et les transmettre au centre d'opérations de sécurité (SOC), aux intervenants en cas d'incident et aux outils de réponse aux incidents.
+Ex2 : Les intervenants en cas d'incident et les autres membres du personnel autorisé peuvent accéder aux résultats de l'analyse des journaux à tout moment
+Ex3 : Créer et attribuer automatiquement des tickets dans le système de billetterie de l'organisation lorsque certains types d'alertes se produisent
+Ex4 : Créer et attribuer manuellement des tickets dans le système de tickets de l'organisation lorsque le personnel technique découvre des indicateurs de compromission
+1er : Risque de 1ère partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Fournir en toute sécurité des flux de renseignements sur les cybermenaces aux technologies, aux processus et au personnel de détection
+Ex2 : Fournir en toute sécurité des informations allant des inventaires d'actifs aux technologies de détection, aux processus et au personnel
+Ex3 : Acquérir et analyser rapidement les divulgations de vulnérabilités pour les technologies de l'organisation auprès de fournisseurs, de vendeurs et d'avis de sécurité tiers
+1er : Risque de 1ère partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Appliquer les critères d'incident aux caractéristiques connues et présumées de l'activité afin de déterminer si un incident doit être déclaré
+Ex2 : Prendre en compte les faux positifs connus lors de l'application des critères d'incident
+1er : Risque de 1ère partie</t>
+  </si>
+  <si>
+    <t>Ex1 : Les technologies de détection signalent automatiquement les incidents confirmés
+Ex2 : Demander de l'aide à l'externalisateur de réponse aux incidents de l'organisation
+Ex3 : Désignez un responsable d'incident pour chaque incident
+Ex4 : Lancer l'exécution de plans de cybersécurité supplémentaires au besoin pour soutenir la réponse aux incidents (par exemple, continuité des activités et reprise après sinistre)
+3ème : Risque de 3ème partie</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Examiner préliminairement les rapports d'incident pour confirmer qu'ils sont liés à la cybersécurité et qu'ils nécessitent des activités d'intervention en cas d'incident.
+Ex2 : Appliquer des critères pour estimer la gravité d'un incident</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Examiner et catégoriser les incidents en fonction du type d'incident (par exemple, violation de données, ransomware, DDoS, compromission de compte)
+Ex2 : Hiérarchiser les incidents en fonction de leur portée, de leur impact probable et de leur caractère critique
+Ex3 : Sélectionner des stratégies de réponse aux incidents actifs en équilibrant la nécessité de se remettre rapidement d'un incident et la nécessité d'observer l'attaquant ou de mener une enquête plus approfondie</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Suivre et valider l'état de tous les incidents en cours
+Ex2 : Coordonner l'escalade ou l'élévation des incidents avec les parties prenantes internes et externes désignées</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Appliquer des critères de récupération d'incident aux caractéristiques connues et présumées de l'incident pour déterminer si des processus de récupération d'incident doivent être lancés
+Ex2 : Prendre en compte l'éventuelle perturbation opérationnelle des activités de récupération d'incident</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Déterminez la séquence des événements qui se sont produits pendant l'incident et quels biens et ressources ont été impliqués dans chaque événement
+Ex2 : Tenter de déterminer quelles vulnérabilités, menaces et acteurs de menace ont été directement ou indirectement impliqués dans l'incident
+Ex3 : Analyser l'incident pour trouver les causes profondes systémiques sous-jacentes
+Ex4 : Vérifiez toute technologie de cyber-tromperie pour plus d'informations sur le comportement de l'attaquant</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Exiger que chaque intervenant en cas d'incident et d'autres personnes (par exemple, les administrateurs système, les ingénieurs en cybersécurité) qui effectuent des tâches d'intervention en cas d'incident consignent leurs actions et rendent l'enregistrement immuable
+Ex2 : Exiger que le responsable de l'incident documente l'incident en détail et être responsable de préserver l'intégrité de la documentation et les sources de toutes les informations signalées</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Recueillir, préserver et protéger l'intégrité de toutes les données et métadonnées pertinentes sur les incidents (p. ex., source de données, date et heure de la collecte) en fonction des procédures de préservation des preuves et de la chaîne de possession</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Examiner d'autres cibles potentielles de l'incident pour rechercher des indicateurs de compromission et des preuves de persistance
+Ex2 : Exécuter automatiquement des outils sur les cibles pour rechercher des indicateurs de compromission et des preuves de persistance</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Suivre les procédures de notification des atteintes à la vie privée de l'organisation après la découverte d'un incident d'atteinte à la protection des données, y compris la notification des clients touchés
+Ex2 : Informer les partenaires commerciaux et les clients des incidents conformément aux exigences contractuelles
+Ex3 : Informer les organismes d'application de la loi et les organismes de réglementation des incidents en fonction des critères du plan d'intervention en cas d'incident et de l'approbation de la direction</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Partager en toute sécurité des informations conformément aux plans d'intervention et aux ententes de partage d'informations
+Ex2 : Partager volontairement des informations sur les TTP observés d'un attaquant, en supprimant toutes les données sensibles, avec un centre de partage et d'analyse d'informations (ISAC)
+Ex3 : Informer les RH en cas d'activité interne malveillante
+Ex4 : Informer régulièrement la haute direction de l'état des incidents majeurs
+Ex5 : Suivre les règles et protocoles définis dans les contrats d'échange d'informations sur les incidents entre l'organisation et ses fournisseurs
+Ex6 : Coordonner les méthodes de communication de crise entre l'organisation et ses fournisseurs critiques</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Les technologies de cybersécurité (par exemple, les logiciels antivirus) et les fonctionnalités de cybersécurité d'autres technologies (par exemple, les systèmes d'exploitation, les périphériques d'infrastructure réseau) effectuent automatiquement des actions de confinement
+Ex2 : Autoriser les intervenants en cas d'incident à sélectionner et à exécuter manuellement des actions de confinement
+Ex3 : Permettre à un tiers (par exemple, un fournisseur de services Internet, un fournisseur de services de sécurité gérés) d'effectuer des actions de confinement au nom de l'organisation
+Ex4 : Transfert automatique des points de terminaison compromis vers un réseau local virtuel (VLAN) de conversion</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Les technologies de cybersécurité et les fonctionnalités de cybersécurité d'autres technologies (par exemple, les systèmes d'exploitation, les périphériques d'infrastructure réseau) effectuent automatiquement des actions d'éradication
+Ex2 : Autoriser les intervenants en cas d'incident à sélectionner et à exécuter manuellement des actions d'éradication
+Ex3 : Autoriser un tiers (par exemple, un fournisseur de services de sécurité gérés) à effectuer des actions d'éradication au nom de l'organisation</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Commencer les procédures de récupération pendant ou après les processus de réponse aux incidents
+Ex2 : Informer toutes les personnes ayant des responsabilités en matière de rétablissement des plans de rétablissement et des autorisations requises pour mettre en œuvre chaque aspect des plans.</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Sélectionner les actions de récupération en fonction des critères définis dans le plan de réponse à l'incident et des ressources disponibles
+Ex2 : Modifier les mesures de rétablissement prévues en fonction d'une réévaluation des besoins et des ressources organisationnelles</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Vérifiez les ressources de restauration pour détecter des indicateurs de compromission, de corruption de fichiers et d'autres problèmes d'intégrité avant de les utiliser</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Utiliser les enregistrements d'impact sur l'entreprise et de catégorisation du système (y compris les objectifs de prestation de services) pour confirmer que les services essentiels sont rétablis dans l'ordre approprié
+Ex2 : Travailler avec les propriétaires de systèmes pour confirmer la réussite de la restauration des systèmes et le retour à des opérations normales
+Ex3 : Surveiller le rendement des systèmes restaurés pour vérifier la pertinence de la restauration</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Vérifier les actifs restaurés pour détecter les indicateurs de compromission et remédier aux causes profondes de l'incident avant l'utilisation en production
+Ex2 : Vérifier l'exactitude et l'adéquation des actions de restauration entreprises avant de mettre en ligne un système restauré</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Préparer un rapport après action qui documente l'incident lui-même, les mesures d'intervention et de rétablissement prises, ainsi que les leçons apprises.
+Ex2 : Déclarer la fin de la reprise d'incident une fois les critères remplis</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+3ème : Risque de 3ème partie
+Ex1 : Partagez en toute sécurité les informations de récupération, y compris la progression de la restauration, conformément aux plans d'intervention et aux ententes de partage d'informations
+Ex2 : Informer régulièrement la haute direction de l'état du rétablissement et des progrès du rétablissement en cas d'incidents majeurs.
+Ex3 : Suivre les règles et les protocoles définis dans les contrats pour l'échange d'informations sur les incidents entre l'organisation et ses fournisseurs
+Ex4 : Coordonner la communication de crise entre l'organisation et ses fournisseurs critiques</t>
+  </si>
+  <si>
+    <t>1er : Risque de 1ère partie
+Ex1 : Suivre les procédures de notification des atteintes à la vie privée de l'organisation pour se remettre d'un incident d'atteinte à la protection des données.
+Ex2 : Expliquer les mesures prises pour se remettre de l'incident et éviter qu'il ne se reproduise</t>
+  </si>
+  <si>
+    <t>annotation[fr]</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t>library_name[fr]</t>
+  </si>
+  <si>
+    <t>La mission organisationnelle est comprise et informe la gestion des risques de cybersécurité</t>
+  </si>
+  <si>
+    <t>Les parties prenantes internes et externes sont comprises, et leurs besoins et attentes en matière de gestion des risques de cybersécurité sont compris et pris en compte</t>
+  </si>
+  <si>
+    <t>Les exigences légales, réglementaires et contractuelles en matière de cybersécurité, y compris les obligations en matière de vie privée et de libertés civiles, sont comprises et gérées</t>
+  </si>
+  <si>
+    <t>Les objectifs, capacités et services critiques dont dépendent les parties prenantes externes ou qu’ils attendent de l’organisation sont compris et communiqués</t>
+  </si>
+  <si>
+    <t>Les résultats, les capacités et les services dont dépend l’organisation sont compris et communiqués</t>
+  </si>
+  <si>
+    <t>Les objectifs de gestion des risques sont établis et acceptés par les parties prenantes organisationnelles</t>
+  </si>
+  <si>
+    <t>Les déclarations d’appétence et de tolérance au risque sont établies, communiquées et maintenues</t>
+  </si>
+  <si>
+    <t>Les activités et les résultats de la gestion des risques de cybersécurité sont inclus dans les processus de gestion des risques de l’entreprise</t>
+  </si>
+  <si>
+    <t>Une orientation stratégique décrivant les options de réponse aux risques appropriées est établie et communiquée</t>
+  </si>
+  <si>
+    <t>Les lignes de communication au sein de l’organisation sont établies pour les risques de cybersécurité, y compris les risques liés aux fournisseurs et autres tiers</t>
+  </si>
+  <si>
+    <t>Une méthode normalisée de calcul, de documentation, de catégorisation et de priorisation des risques de cybersécurité est établie et communiquée</t>
+  </si>
+  <si>
+    <t>Les opportunités stratégiques (c-à-d., les risques positifs) sont caractérisées et incluses dans les discussions sur les risques de cybersécurité organisationnels</t>
+  </si>
+  <si>
+    <t>La direction organisationnelle est responsable des risques liés à la cybersécurité et favorise une culture consciente des risques, éthique et en constante amélioration</t>
+  </si>
+  <si>
+    <t>Les rôles, responsabilités et autorités liés à la gestion des risques de cybersécurité sont établis, communiqués, compris et appliqués</t>
+  </si>
+  <si>
+    <t>Les ressources adéquates sont allouées en fonction de la stratégie, des rôles, des responsabilités et des politiques en matière de risques de cybersécurité</t>
+  </si>
+  <si>
+    <t>La cybersécurité est incluse dans les pratiques en matières des ressources humaines</t>
+  </si>
+  <si>
+    <t>La politique de gestion des risques de cybersécurité est établie en fonction du contexte organisationnel, de la stratégie de cybersécurité et des priorités, et est communiquée et appliquée</t>
+  </si>
+  <si>
+    <t>La politique de gestion des risques de cybersécurité est revue, mise à jour, communiquée et appliquée pour refléter les changements dans les exigences, les menaces, la technologie et la mission organisationnelle</t>
+  </si>
+  <si>
+    <t>Les résultats de la stratégie de gestion des risques de cybersécurité sont examinés pour éclairer et ajuster la stratégie et l’orientation</t>
+  </si>
+  <si>
+    <t>La stratégie de gestion des risques de cybersécurité est revue et ajustée pour garantir la couverture des exigences et des risques organisationnels</t>
+  </si>
+  <si>
+    <t>La performance de la gestion des risques de cybersécurité organisationnelle est évaluée et révisée pour les ajustements nécessaires</t>
+  </si>
+  <si>
+    <t>Un programme, une stratégie, des objectifs, des politiques et des processus de gestion des risques liés à la chaîne d’approvisionnement en matière de cybersécurité sont établis et acceptés par les parties prenantes de l’organisation</t>
+  </si>
+  <si>
+    <t>Les rôles et responsabilités en matière de cybersécurité pour les fournisseurs, les clients et les partenaires sont établis, communiqués et coordonnés en interne et en externe</t>
+  </si>
+  <si>
+    <t>La gestion des risques de la chaîne d’approvisionnement en cybersécurité est intégrée aux processus de cybersécurité et de gestion des risques d’entreprise, d’évaluation des risques et d’amélioration</t>
+  </si>
+  <si>
+    <t>Les fournisseurs sont connus et priorisés par criticité</t>
+  </si>
+  <si>
+    <t>Les exigences visant à s’adresser aux risques de cybersécurité dans les chaînes d’approvisionnement sont établies, priorisées et intégrées dans les contrats et autres types d’accords avec les fournisseurs et autres tiers concernés</t>
+  </si>
+  <si>
+    <t>La planification et la diligence raisonnable sont effectuées pour réduire les risques avant d’entrer dans des relations formelles avec des fournisseurs ou d’autres tiers</t>
+  </si>
+  <si>
+    <t>Les risques posés par un fournisseur, ses produits et services et d’autres tiers sont compris, enregistrés, priorisés, évalués, traités et surveillés tout au long de la relation</t>
+  </si>
+  <si>
+    <t>Les fournisseurs concernés et autres tiers sont inclus dans les activités de planification, de réponse et de récupération en cas d’incident</t>
+  </si>
+  <si>
+    <t>Les pratiques de sécurité de la chaîne d’approvisionnement sont intégrées aux programmes de cybersécurité et de gestion des risques d’entreprise, et leurs performances sont surveillées tout au long du cycle de vie des produits et services technologiques</t>
+  </si>
+  <si>
+    <t>Les plans de gestion des risques de la chaîne d’approvisionnement en matière de cybersécurité comprennent des dispositions pour les activités qui se produisent après la conclusion d’un accord de partenariat ou de service</t>
+  </si>
+  <si>
+    <t>Les actifs (p. ex., données, matériel, logiciels, systèmes, installations, services, personnes) qui permettent à l’organisation d’atteindre ses objectifs commerciaux sont identifiés et gérés en fonction de leur importance relative par rapport aux objectifs organisationnels et à la stratégie de risque de l’organisation</t>
+  </si>
+  <si>
+    <t>Les inventaires du matériel géré par l’organisation sont maintenus</t>
+  </si>
+  <si>
+    <t>Les inventaires des logiciels, services et systèmes gérés par l’organisation sont maintenus</t>
+  </si>
+  <si>
+    <t>Les représentations des communications réseau autorisées de l’organisation et des flux de données réseau internes et externes sont maintenues</t>
+  </si>
+  <si>
+    <t>Les inventaires des services fournis par les fournisseurs sont maintenus</t>
+  </si>
+  <si>
+    <t>Les actifs sont priorisés en fonction de la classification, de la criticité, des ressources et de l’impact sur la mission</t>
+  </si>
+  <si>
+    <t>Les inventaires de données et les métadonnées correspondantes pour les types de données désignés sont maintenus</t>
+  </si>
+  <si>
+    <t>Les systèmes, matériels, logiciels, services et données sont gérés tout au long de leur cycle de vie</t>
+  </si>
+  <si>
+    <t>Les vulnérabilités des actifs sont identifiées, validées et enregistrées</t>
+  </si>
+  <si>
+    <t>Les renseignements sur les cybermenaces sont reçus de forums et de sources de partage d’informations</t>
+  </si>
+  <si>
+    <t>Les menaces internes et externes à l’organisation sont identifiées et enregistrées</t>
+  </si>
+  <si>
+    <t>Les impacts potentiels et les probabilités des menaces exploitant les vulnérabilités sont identifiés et enregistrés</t>
+  </si>
+  <si>
+    <t>Les menaces, les vulnérabilités, les probabilités et les impacts sont utilisés pour comprendre les risques inhérents et informer la priorisation des réponses aux risques.</t>
+  </si>
+  <si>
+    <t>Les réponses aux risques sont choisies, priorisées, planifiées, suivies et communiquées</t>
+  </si>
+  <si>
+    <t>Les changements et les exceptions sont gérés, évalués en termes d’impact sur les risques, enregistrés et suivis</t>
+  </si>
+  <si>
+    <t>Les processus de réception, d’analyse et de réponse aux divulgations de vulnérabilités sont établis</t>
+  </si>
+  <si>
+    <t>L’authenticité et l’intégrité du matériel et des logiciels sont évaluées avant l’acquisition et l’utilisation.</t>
+  </si>
+  <si>
+    <t>Les fournisseurs critiques sont évalués avant l’acquisition</t>
+  </si>
+  <si>
+    <t>Les améliorations sont identifiées à partir des évaluations</t>
+  </si>
+  <si>
+    <t>Les améliorations sont identifiées à partir de tests et d’exercices de sécurité, y compris ceux effectués en coordination avec les fournisseurs et les tiers concernés</t>
+  </si>
+  <si>
+    <t>Les améliorations sont identifiées à partir de l’exécution des processus opérationnels, des procédures et des activités</t>
+  </si>
+  <si>
+    <t>Les plans de réponse aux incidents et d’autres plans de cybersécurité qui affectent les opérations sont établis, communiqués, maintenus et améliorés</t>
+  </si>
+  <si>
+    <t>L’accès aux actifs physiques et logiques est limité aux utilisateurs, services et matériels autorisés et géré en fonction du risque évalué d’accès non autorisé</t>
+  </si>
+  <si>
+    <t>Les identités et les informations d’identification des utilisateurs, services et matériels autorisés sont gérées par l’organisation</t>
+  </si>
+  <si>
+    <t>Les identités sont vérifiées et liées aux informations d’identification en fonction du contexte des interactions</t>
+  </si>
+  <si>
+    <t>Les utilisateurs, les services et le matériel sont authentifiés</t>
+  </si>
+  <si>
+    <t>Les affirmations d’identité sont protégées, transmises et vérifiées</t>
+  </si>
+  <si>
+    <t>Les autorisations d’accès, les droits et les autorisations sont définis dans une politique, gérés, appliqués et revus, et intègrent les principes du moindre privilège et de la séparation des tâches</t>
+  </si>
+  <si>
+    <t>L’accès physique aux actifs est géré, surveillé et appliqué en fonction du risque</t>
+  </si>
+  <si>
+    <t>Le personnel est sensibilisé et formé afin qu’il possède les connaissances et les compétences nécessaires pour effectuer des tâches générales en tenant compte des risques de cybersécurité</t>
+  </si>
+  <si>
+    <t>Les personnes occupant des postes spécialisés reçoivent une sensibilisation et une formation afin qu’elles possèdent les connaissances et les compétences nécessaires pour effectuer des tâches pertinentes en tenant compte des risques de cybersécurité</t>
+  </si>
+  <si>
+    <t>La confidentialité, l’intégrité et la disponibilité des données au repos sont protégées</t>
+  </si>
+  <si>
+    <t>La confidentialité, l’intégrité et la disponibilité des données en transit sont protégées</t>
+  </si>
+  <si>
+    <t>La confidentialité, l’intégrité et la disponibilité des données en cours d’utilisation sont protégées</t>
+  </si>
+  <si>
+    <t>Les sauvegardes des données sont créées, protégées, maintenues et testées</t>
+  </si>
+  <si>
+    <t>Les pratiques de gestion de la configuration sont établies et appliquées</t>
+  </si>
+  <si>
+    <t>Le logiciel est maintenu, remplacé et supprimé en fonction du risque</t>
+  </si>
+  <si>
+    <t>Le matériel est entretenu, remplacé et retiré en fonction du risque</t>
+  </si>
+  <si>
+    <t>Les enregistrements de journaux sont générés et mis à disposition pour une surveillance continue</t>
+  </si>
+  <si>
+    <t>L’installation et l’exécution de logiciels non autorisés sont empêchées</t>
+  </si>
+  <si>
+    <t>Les pratiques de développement de logiciels sécurisés sont intégrées et leurs performances sont surveillées tout au long du cycle de vie du développement logiciel</t>
+  </si>
+  <si>
+    <t>Les réseaux et les environnements sont protégés contre les accès logiques et les utilisations non autorisés</t>
+  </si>
+  <si>
+    <t>Les actifs technologiques de l’organisation sont protégés contres les menaces environnementales</t>
+  </si>
+  <si>
+    <t>Les mécanismes sont mis en œuvre pour satisfaire aux exigences de résilience dans des situations normales et défavorables</t>
+  </si>
+  <si>
+    <t>Les capacité de ressources adéquate pour assurer la disponibilité sont maintenues</t>
+  </si>
+  <si>
+    <t>Les actifs sont surveillés pour détecter des anomalies, des indicateurs de compromission et d’autres événements potentiellement indésirables</t>
+  </si>
+  <si>
+    <t>Les réseaux et services réseau sont surveillés pour détecter les événements potentiellement indésirables</t>
+  </si>
+  <si>
+    <t>L’environnement physique est surveillé pour détecter les événements potentiellement indésirables</t>
+  </si>
+  <si>
+    <t>L’activité du personnel et l’utilisation de la technologie sont surveillées pour détecter les événements potentiellement indésirables</t>
+  </si>
+  <si>
+    <t>Les activités et services des prestataires de services externes sont surveillés pour détecter les événements potentiellement indésirables</t>
+  </si>
+  <si>
+    <t>Le matériel informatique et les logiciels, les environnements d’exécution et leurs données sont surveillés pour détecter les événements potentiellement indésirables</t>
+  </si>
+  <si>
+    <t>Les événements potentiellement indésirables sont analysés pour mieux comprendre les activités associées</t>
+  </si>
+  <si>
+    <t>Les informations sont corrélées à partir de sources multiples</t>
+  </si>
+  <si>
+    <t>L’impact et la portée estimés des événements indésirables sont compris</t>
+  </si>
+  <si>
+    <t>Les informations sur les événements indésirables sont fournies au personnel et aux outils autorisés</t>
+  </si>
+  <si>
+    <t>Les renseignements sur les cybermenaces et d’autres informations contextuelles sont intégrés dans l’analyse</t>
+  </si>
+  <si>
+    <t>Les incidents sont déclarés lorsque les événements indésirables répondent aux critères d’incident définis</t>
+  </si>
+  <si>
+    <t>Les réponses aux incidents de cybersécurité détectés sont gérées</t>
+  </si>
+  <si>
+    <t>Le plan de réponse aux incidents est exécuté en coordination avec les tiers concernés une fois qu’un incident est déclaré</t>
+  </si>
+  <si>
+    <t>Les rapports d’incidents sont triés et validés</t>
+  </si>
+  <si>
+    <t>Les incidents sont catégorisés et priorisés</t>
+  </si>
+  <si>
+    <t>Les incidents sont escaladés ou augmentés selon les besoins</t>
+  </si>
+  <si>
+    <t>Les critères d’initiation de la reprise après incident sont appliqués</t>
+  </si>
+  <si>
+    <t>Une analyse est effectuée pour établir ce qui s’est passé lors d’un incident et la cause profonde de l’incident</t>
+  </si>
+  <si>
+    <t>Les actions effectuées au cours d’une enquête sont enregistrées et l’intégrité et la provenance des enregistrements sont préservées</t>
+  </si>
+  <si>
+    <t>Les données et métadonnées relatives aux incidents sont collectées, et leur intégrité et leur provenance sont préservées</t>
+  </si>
+  <si>
+    <t>L’ampleur d’un incident est estimée et validée</t>
+  </si>
+  <si>
+    <t>Les parties prenantes internes et externes sont informées des incidents</t>
+  </si>
+  <si>
+    <t>Les informations sont partagées avec des parties prenantes internes et externes désignées</t>
+  </si>
+  <si>
+    <t>Les incidents sont contenus</t>
+  </si>
+  <si>
+    <t>Les incidents sont éradiqués</t>
+  </si>
+  <si>
+    <t>Les activités de restauration sont effectuées pour garantir la disponibilité opérationnelle des systèmes et services affectés par les incidents de cybersécurité</t>
+  </si>
+  <si>
+    <t>La partie récupération du plan de réponse aux incidents est exécutée une fois lancée à partir du processus de réponse aux incidents.</t>
+  </si>
+  <si>
+    <t>Les actions de récupération sont sélectionnées, délimitées, priorisées et exécutées</t>
+  </si>
+  <si>
+    <t>L’intégrité des sauvegardes et autres actifs de restauration est vérifiée avant de les utiliser pour la restauration</t>
+  </si>
+  <si>
+    <t>Les fonctions critiques de la mission et la gestion des risques de cybersécurité sont considérées pour établir des normes opérationnelles après incident.</t>
+  </si>
+  <si>
+    <t>L’intégrité des actifs restaurés est vérifiée, les systèmes et services sont restaurés et l’état de fonctionnement normal est confirmé</t>
+  </si>
+  <si>
+    <t>La fin de la reprise après incident est déclarée sur la base de critères et la documentation relative à l’incident est complétée.</t>
+  </si>
+  <si>
+    <t>Les activités de récupération et les progrès réalisés dans la restauration des capacités opérationnelles sont communiqués aux parties prenantes internes et externes désignées.</t>
+  </si>
+  <si>
+    <t>Les mises à jour publiques sur la récupération après incident sont partagées à l’aide de méthodes et de messages approuvés.</t>
+  </si>
+  <si>
+    <t>name[sp]</t>
+  </si>
+  <si>
+    <t>description[sp]</t>
+  </si>
+  <si>
+    <t>GOBERNAR</t>
+  </si>
+  <si>
+    <t>Se establecen, comunican y supervisan la estrategia, las expectativas y la política de gestión de riesgos de seguridad cibernética de la organización.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contexto organizativo </t>
+  </si>
+  <si>
+    <t>Se comprenden las circunstancias - misión, expectativas de las partes interesadas, dependencias y requisitos legales, normativos y contractuales - que afectan a las decisiones de gestión de riesgos de seguridad cibernética de la organización</t>
+  </si>
+  <si>
+    <t>Se comprende la misión de la organización y se informa sobre la gestión de riesgos de seguridad cibernética.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Compartir la misión de la organización (por ejemplo, a través de declaraciones de visión y misión, marketing y estrategias de servicio) para proporcionar una base para identificar los riesgos que pueden obstaculizar esa misión</t>
+  </si>
+  <si>
+    <t>Las partes interesadas internas y externas son comprendidas, y sus necesidades y expectativas con respecto a la gestión de riesgos de seguridad cibernética son comprendidas y consideradas.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Identificar a las partes interesadas internas relevantes y sus expectativas relacionadas con la ciberseguridad (por ejemplo, expectativas de rendimiento y riesgo de funcionarios, directores y asesores; expectativas culturales de los empleados)
+Ex2: Identificar a las partes interesadas externas relevantes y sus expectativas relacionadas con la ciberseguridad (por ejemplo, expectativas de privacidad de los clientes, expectativas comerciales de las asociaciones, expectativas de cumplimiento de los reguladores, expectativas éticas de la sociedad)</t>
+  </si>
+  <si>
+    <t>Se comprenden y gestionan los requisitos legales, normativos y contractuales relativos a la seguridad cibernética, incluidas las obligaciones en materia de privacidad y libertades civiles.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Determinar un proceso para rastrear y administrar los requisitos legales y reglamentarios relacionados con la protección de la información de las personas (por ejemplo, la Ley de Portabilidad y Responsabilidad de Seguros Médicos, la Ley de Privacidad del Consumidor de California, el Reglamento General de Protección de Datos)
+Ex2: Determinar un proceso para rastrear y gestionar los requisitos contractuales para la gestión de la ciberseguridad de la información de proveedores, clientes y socios
+Ex3: Alinear la estrategia de ciberseguridad de la organización con los requisitos legales, regulatorios y contractuales</t>
+  </si>
+  <si>
+    <t>Se comprenden y comunican los objetivos, las capacidades y los servicios críticos de los que dependen las partes interesadas externas o que esperan de la organización</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Establecer criterios para determinar la criticidad de las capacidades y servicios desde el punto de vista de las partes interesadas internas y externas.
+Ex2: Determinar (por ejemplo, a partir de un análisis de impacto en el negocio) los activos y las operaciones comerciales que son vitales para lograr los objetivos de la misión y el impacto potencial de una pérdida (o pérdida parcial) de dichas operaciones
+Ex3: Establecer y comunicar objetivos de resiliencia (p. ej., objetivos de tiempo de recuperación) para la entrega de capacidades y servicios críticos en varios estados operativos (p. ej., bajo ataque, durante la recuperación, operación normal)</t>
+  </si>
+  <si>
+    <t>Se comprenden y comunican los resultados, capacidades y servicios de los que depende la organización</t>
+  </si>
+  <si>
+    <t>Ex1: Crear un inventario de las dependencias de la organización de recursos externos (por ejemplo, instalaciones, proveedores de alojamiento basado en la nube) y sus relaciones con los activos de la organización y las funciones comerciales
+Ex2: Identificar y documentar las dependencias externas que son puntos potenciales de falla para las capacidades y servicios críticos de la organización, y compartir esa información con el personal adecuado
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrategia de gestión de riesgos </t>
+  </si>
+  <si>
+    <t>Se establecen, comunican y utilizan las prioridades, las restricciones, las declaraciones de tolerancia y apetito por el riesgo y los supuestos de la organización para respaldar las decisiones sobre el riesgo operativo</t>
+  </si>
+  <si>
+    <t>Los objetivos de la gestión de riesgos son establecidos y acordados por las partes interesadas de la organización</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Actualizar los objetivos de gestión de riesgos de ciberseguridad a corto y largo plazo como parte de la planificación estratégica anual y cuando se produzcan cambios importantes
+Ex2: Establecer objetivos medibles para la gestión de riesgos de ciberseguridad (por ejemplo, gestionar la calidad de la formación de los usuarios, garantizar una protección adecuada contra los riesgos de los sistemas de control industrial)
+Ex3: Los líderes sénior acuerdan los objetivos de ciberseguridad y los utilizan para medir y gestionar el riesgo y el rendimiento</t>
+  </si>
+  <si>
+    <t>Se establecen, se comunican y se mantienen las declaraciones sobre el apetito de riesgo y la tolerancia al riesgo</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Determinar y comunicar declaraciones de apetito de riesgo que transmitan expectativas sobre el nivel apropiado de riesgo para la organización.
+Ex2: Traducir las declaraciones de apetito de riesgo en declaraciones de tolerancia al riesgo específicas, medibles y ampliamente comprensibles
+Ex3: Refinar periódicamente los objetivos de la organización y el apetito de riesgo en función de la exposición al riesgo conocida y el riesgo residual</t>
+  </si>
+  <si>
+    <t>Las actividades y los resultados de la gestión de riesgos de seguridad cibernética se incluyen en los procesos de gestión de riesgos de la empresa</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Agregar y gestionar los riesgos de ciberseguridad junto con otros riesgos empresariales (por ejemplo, cumplimiento, financieros, operativos, regulatorios, de reputación, de seguridad)
+Ex2: Incluir a los gestores de riesgos de ciberseguridad en la planificación de la gestión de riesgos empresariales
+Ex3: Establecer criterios para escalar los riesgos de ciberseguridad dentro de la gestión de riesgos empresariales</t>
+  </si>
+  <si>
+    <t>Se establece y comunica una dirección estratégica que describa las opciones adecuadas de respuesta al riesgo.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Especificar los criterios para aceptar y evitar el riesgo de ciberseguridad para diversas clasificaciones de datos
+Ex2: Determinar si comprar un seguro de ciberseguridad
+Ex3: Documentar las condiciones en las que los modelos de responsabilidad compartida son aceptables (por ejemplo, externalización de ciertas funciones de ciberseguridad, hacer que un tercero realice transacciones financieras en nombre de la organización, utilizar servicios basados en la nube pública)</t>
+  </si>
+  <si>
+    <t>Se establecen líneas de comunicación en toda la organización para los riesgos de seguridad cibernética, lo que incluye a los riesgos de proveedores y otros terceros.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Determinar cómo actualizar a los altos ejecutivos, directores y gerentes sobre la postura de ciberseguridad de la organización a intervalos acordados
+Ex2: Identificar cómo se comunicarán entre sí todos los departamentos de la organización, como la dirección, las operaciones, los auditores internos, el departamento jurídico, el de adquisiciones, el de seguridad física y el de RRHH sobre los riesgos de ciberseguridad.</t>
+  </si>
+  <si>
+    <t>Se establece y comunica un método estandarizado para calcular, documentar, categorizar y priorizar los riesgos de seguridad cibernética.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Establecer criterios para utilizar un enfoque cuantitativo para el análisis de riesgos de ciberseguridad, y especificar fórmulas de probabilidad y exposición.
+Ex2: Crear y utilizar plantillas (por ejemplo, un registro de riesgos) para documentar la información sobre riesgos de ciberseguridad (por ejemplo, descripción del riesgo, exposición, tratamiento y propiedad)
+Ex3: Establecer criterios para la priorización de riesgos en los niveles apropiados dentro de la empresa
+Ex4: Utilice una lista coherente de categorías de riesgo para respaldar la integración, la agregación y la comparación de riesgos de ciberseguridad</t>
+  </si>
+  <si>
+    <t>Se caracterizan las oportunidades estratégicas (es decir, los riesgos positivos) y se incluyen en las discusiones sobre riesgos de seguridad cibernética de la organización.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Definir y comunicar la orientación y los métodos para identificar oportunidades e incluirlas en las discusiones de riesgos (p. ej., análisis de fortalezas, debilidades, oportunidades y amenazas [FODA])
+Ex2: Identificar los objetivos ambiciosos y documentarlos
+Ex3: Calcule, documente y priorice los riesgos positivos junto con los riesgos negativos</t>
+  </si>
+  <si>
+    <t>Funciones, responsabilidades y autoridades</t>
+  </si>
+  <si>
+    <t>Se establecen y comunican las funciones, las responsabilidades y las competencias en materia de seguridad cibernética para fomentar la rendición de cuentas, la evaluación del desempeño y la mejora continua.</t>
+  </si>
+  <si>
+    <t>El liderazgo organizativo es responsable de los riesgos de seguridad cibernética y fomenta una cultura consciente de los riesgos, ética y de mejora continua.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Los líderes (por ejemplo, los directores) acuerdan sus roles y responsabilidades en el desarrollo, la implementación y la evaluación de la estrategia de ciberseguridad de la organización
+Ex2: Compartir las expectativas de los líderes con respecto a una cultura segura y ética, especialmente cuando los acontecimientos actuales presentan la oportunidad de destacar ejemplos positivos o negativos de gestión de riesgos de ciberseguridad.
+Ex3: Los líderes ordenan al CISO que mantenga una estrategia integral de riesgo de ciberseguridad y la revise y actualice al menos una vez al año y después de eventos importantes
+Ex4: Llevar a cabo revisiones para garantizar la autoridad y la coordinación adecuadas entre los responsables de la gestión del riesgo de ciberseguridad.</t>
+  </si>
+  <si>
+    <t>Se establecen, comunican, comprenden y aplican las funciones, responsabilidades y autoridades relacionadas con la gestión de riesgos de seguridad cibernética.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Documentar las funciones y responsabilidades de la gestión de riesgos en la política
+Ex2: Documentar quién es responsable de las actividades de gestión de riesgos de ciberseguridad y cómo se debe consultar e informar a esos equipos e individuos.
+Ex3: Incluir las responsabilidades de ciberseguridad y los requisitos de rendimiento en las descripciones del personal
+Ex4: Documentar los objetivos de rendimiento del personal con responsabilidades de gestión de riesgos de ciberseguridad y medir periódicamente el rendimiento para identificar áreas de mejora
+Ex5: Articular claramente las responsabilidades de ciberseguridad dentro de las operaciones, las funciones de riesgo y las funciones de auditoría interna</t>
+  </si>
+  <si>
+    <t>Se asignan recursos adecuados de acuerdo con la estrategia de riesgos de seguridad cibernética, las funciones, las responsabilidades y las políticas.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Llevar a cabo revisiones periódicas de la gestión para garantizar que las personas a las que se han asignado responsabilidades de gestión de riesgos de ciberseguridad tengan la autoridad necesaria
+Ex2: Identificar la asignación de recursos y la inversión en consonancia con la tolerancia al riesgo y la respuesta
+Ex3: Proporcionar las personas, los procesos y los recursos técnicos adecuados y suficientes para respaldar la estrategia de ciberseguridad.</t>
+  </si>
+  <si>
+    <t>La seguridad cibernética se incluye en las prácticas de recursos humanos</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Integrar las consideraciones de gestión de riesgos de ciberseguridad en los procesos de recursos humanos (por ejemplo, selección de personal, incorporación, notificación de cambios, desvinculación)
+Ex2: Considerar el conocimiento de ciberseguridad como un factor positivo en las decisiones de contratación, capacitación y retención
+Ex3: Realizar verificaciones de antecedentes antes de incorporar nuevo personal para roles confidenciales y repetir periódicamente las verificaciones de antecedentes para el personal con dichas funciones
+Ex4: Definir y hacer cumplir las obligaciones para que el personal conozca, se adhiera y defienda las políticas de seguridad en relación con sus funciones</t>
+  </si>
+  <si>
+    <t>Política</t>
+  </si>
+  <si>
+    <t>La política de seguridad cibernética de la organización es establecida, comunicada y aplicada.</t>
+  </si>
+  <si>
+    <t>La política de gestión de riesgos de seguridad cibernética se establece en base al contexto organizativo, la estrategia de seguridad cibernética y las prioridades, y es comunicada y aplicada</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Crear, difundir y mantener una política de gestión de riesgos comprensible y utilizable con declaraciones de la intención, las expectativas y la dirección de la dirección.
+Ex2: Revisar periódicamente la política y los procesos y procedimientos de apoyo para garantizar que se alinean con los objetivos y prioridades de la estrategia de gestión de riesgos, así como con la dirección de alto nivel de la política de ciberseguridad
+Ex3: Requerir la aprobación de la alta dirección sobre la política
+Ex4: Comunicar la política de gestión de riesgos de ciberseguridad y los procesos y procedimientos de apoyo en toda la organización
+Ex5: Exigir que el personal acuse recibo de la póliza cuando se contrata por primera vez, anualmente y siempre que se actualice la póliza.</t>
+  </si>
+  <si>
+    <t>La política de gestión de riesgos de seguridad cibernética se revisa, actualiza, comunica y aplica para reflejar los cambios en los requisitos, las amenazas, la tecnología y la misión de la organización</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Actualizar la política sobre la base de revisiones periódicas de los resultados de la gestión de riesgos de ciberseguridad para garantizar que la política y los procesos y procedimientos de apoyo mantengan adecuadamente el riesgo en un nivel aceptable
+Ex2: Proporcionar un cronograma para revisar los cambios en el entorno de riesgo de la organización (por ejemplo, cambios en el riesgo o en los objetivos de la misión de la organización) y comunicar las actualizaciones de políticas recomendadas
+Ex3: Actualizar la política para reflejar los cambios en los requisitos legales y reglamentarios
+Ej.4: Actualizar la política para reflejar los cambios en la tecnología (por ejemplo, la adopción de la inteligencia artificial) y los cambios en el negocio (por ejemplo, la adquisición de un nuevo negocio, los nuevos requisitos del contrato)</t>
+  </si>
+  <si>
+    <t>Supervisión</t>
+  </si>
+  <si>
+    <t>Los resultados de las actividades de gestión de riesgos de seguridad cibernética en toda la organización y el rendimiento se utilizan para informar, mejorar y ajustar la estrategia de gestión de riesgos</t>
+  </si>
+  <si>
+    <t>Los resultados de la estrategia de gestión de riesgos de seguridad cibernética se revisan para informar y ajustar la estrategia y la dirección</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ej. Medir qué tan bien la estrategia de gestión de riesgos y los resultados de riesgos han ayudado a los líderes a tomar decisiones y alcanzar los objetivos organizacionales.
+Ex2: Examinar si se deben ajustar las estrategias de riesgo de ciberseguridad que obstaculizan las operaciones o la innovación</t>
+  </si>
+  <si>
+    <t>La estrategia de gestión de riesgos de seguridad cibernética se revisa y ajusta para garantizar la cobertura de los requisitos y riesgos de la organización</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Revisar los resultados de la auditoría para confirmar si la estrategia de ciberseguridad existente ha garantizado el cumplimiento de los requisitos internos y externos.
+Ex2: Revisar la supervisión del rendimiento de los que desempeñan funciones relacionadas con la ciberseguridad para determinar si es necesario realizar cambios en las políticas
+Ex3: Revisar la estrategia a la luz de los incidentes de ciberseguridad</t>
+  </si>
+  <si>
+    <t>El rendimiento de la gestión de riesgos de seguridad cibernética de la organización se evalúa y revisa para realizar los ajustes necesarios</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Revisar los indicadores clave de rendimiento (KPI) para garantizar que las políticas y procedimientos de toda la organización alcancen los objetivos
+Ex2: Revisar los indicadores clave de riesgo (KRI) para identificar los riesgos a los que se enfrenta la organización, incluida la probabilidad y el impacto potencial
+Ex3: Recopilar y comunicar métricas sobre la gestión de riesgos de ciberseguridad con la alta dirección</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de riesgos de la cadena de suministro en materia de
+seguridad cibernética </t>
+  </si>
+  <si>
+    <t>Las partes interesadas de la organización identifican, establecen, gestionan, supervisan y mejoran los procesos de gestión de riesgos de la cadena de suministro cibernética</t>
+  </si>
+  <si>
+    <t>Las partes interesadas de la organización establecen y acuerdan un programa, estrategia, objetivos, políticas y procesos de gestión de riesgos de seguridad cibernética en la cadena de suministro</t>
+  </si>
+  <si>
+    <t>Ex1: Establecer una estrategia que exprese los objetivos del programa de gestión de riesgos de la cadena de suministro de ciberseguridad
+Ex2: Desarrollar el programa de gestión de riesgos de la cadena de suministro de ciberseguridad, incluido un plan (con hitos), políticas y procedimientos que guíen la implementación y mejora del programa, y compartir las políticas y procedimientos con las partes interesadas de la organización
+Ex3: Desarrollar e implementar procesos del programa basados en la estrategia, los objetivos, las políticas y los procedimientos acordados y realizados por las partes interesadas de la organización
+Ex4: Establecer un mecanismo interorganizacional que garantice la alineación entre las funciones que contribuyen a la gestión de riesgos de la cadena de suministro de ciberseguridad, como la ciberseguridad, la informática, las operaciones, el ámbito jurídico, el de recursos humanos y el de ingeniería
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Se establecen, comunican y coordinan interna y externamente las funciones y responsabilidades de seguridad cibernética para proveedores, clientes y colaboradores</t>
+  </si>
+  <si>
+    <t>Ex1: Identificar uno o más roles o puestos específicos que serán responsables y rendir cuentas de la planificación, dotación de recursos y ejecución de actividades de gestión de riesgos de la cadena de suministro de ciberseguridad
+Ex2: Documentar las funciones y responsabilidades de la gestión de riesgos de la cadena de suministro de ciberseguridad en la política
+Ex3: Crear matrices de responsabilidad para documentar quién será responsable de las actividades de gestión de riesgos de la cadena de suministro de ciberseguridad y cómo se consultará e informará a esos equipos e individuos
+Ex4: Incluir las responsabilidades de gestión de riesgos de la cadena de suministro de ciberseguridad y los requisitos de rendimiento en las descripciones del personal para garantizar la claridad y mejorar la rendición de cuentas
+Ex5: Documentar los objetivos de rendimiento del personal con responsabilidades específicas de gestión de riesgos de ciberseguridad y medirlos periódicamente para demostrar y mejorar el rendimiento
+Ex6: Desarrollar roles y responsabilidades para proveedores, clientes y socios comerciales para abordar las responsabilidades compartidas por los riesgos de ciberseguridad aplicables e integrarlos en las políticas organizacionales y los acuerdos de terceros aplicables.
+Ex7: Comunicar internamente las funciones y responsabilidades de la gestión de riesgos de la cadena de suministro de ciberseguridad para terceros
+Ex8: Establecer reglas y protocolos para el intercambio de información y los procesos de presentación de informes entre la organización y sus proveedores.
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>La gestión de riesgos de la cadena de suministro de seguridad cibernética está integrada en la seguridad cibernética y la gestión de riesgos empresariales, la evaluación de riesgos y los procesos de mejora</t>
+  </si>
+  <si>
+    <t>Ex1: Identificar áreas de alineación y superposición con la ciberseguridad y la gestión de riesgos empresariales
+Ex2: Establecer conjuntos de control integrados para la gestión de riesgos de ciberseguridad y la gestión de riesgos de la cadena de suministro de ciberseguridad
+Ex3: Integrar la gestión de riesgos de la cadena de suministro de ciberseguridad en los procesos de mejora
+Ex4: Escalar los riesgos materiales de ciberseguridad en las cadenas de suministro a la alta dirección y abordarlos a nivel de gestión de riesgos empresariales
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Los proveedores son conocidos y priorizados por criticidad</t>
+  </si>
+  <si>
+    <t>Ex1: Desarrollar criterios para la criticidad de los proveedores basados, por ejemplo, en la sensibilidad de los datos procesados o en posesión de los proveedores, el grado de acceso a los sistemas de la organización y la importancia de los productos o servicios para la misión de la organización.
+Ex2: Mantener un registro de todos los proveedores y priorizar a los proveedores en función de los criterios de criticidad
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Los requisitos para abordar los riesgos de seguridad cibernética en las cadenas de suministro se establecen, priorizan e integran en contratos y otros tipos de acuerdos con proveedores y otras terceras partes pertinentes</t>
+  </si>
+  <si>
+    <t>Ex1: Establecer requisitos de seguridad para proveedores, productos y servicios acordes con su nivel de criticidad y su posible impacto en caso de verse comprometidos.
+Ex2: Incluya todos los requisitos de ciberseguridad y de la cadena de suministro que deben seguir los terceros y cómo se puede verificar el cumplimiento de los requisitos en el lenguaje contractual predeterminado
+Ex3: Definir las reglas y protocolos para el intercambio de información entre la organización y sus proveedores y proveedores de subnivel en acuerdos
+Ex4: Gestionar el riesgo incluyendo requisitos de seguridad en los acuerdos en función de su criticidad y posible impacto en caso de verse comprometidos.
+Ex5: Definir los requisitos de seguridad en los acuerdos de nivel de servicio (SLA) para supervisar el rendimiento de seguridad aceptable de los proveedores a lo largo del ciclo de vida de la relación con los proveedores
+Ex6: Exigir contractualmente a los proveedores que divulguen las características, funciones y vulnerabilidades de ciberseguridad de sus productos y servicios durante la vida útil del producto o el plazo del servicio.
+Ex7: Exigir contractualmente a los proveedores que proporcionen y mantengan un inventario actualizado de componentes (por ejemplo, una lista de materiales de software o hardware) para productos críticos.
+Ex8: Exigir por contrato a los proveedores que investiguen a sus empleados y se protejan contra las amenazas internas
+Ex9: Exigir contractualmente a los proveedores que proporcionen pruebas de la realización de prácticas de seguridad aceptables a través, por ejemplo, de la autocertificación, la conformidad con normas conocidas, certificaciones o inspecciones.
+Ex10: Especificar en contratos y otros acuerdos los derechos y responsabilidades de la organización, sus proveedores y sus cadenas de suministro, con respecto a los posibles riesgos de ciberseguridad
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Se llevan a cabo la planificación y la diligencia debida para reducir los riesgos antes de entablar relaciones formales con proveedores u otros terceros</t>
+  </si>
+  <si>
+    <t>Ex1: Realizar una debida diligencia exhaustiva sobre los posibles proveedores que sea coherente con la planificación de adquisiciones y proporcional al nivel de riesgo, criticidad y complejidad de cada relación con el proveedor.
+Ex2: Evaluar la idoneidad de las capacidades tecnológicas y de ciberseguridad y las prácticas de gestión de riesgos de los posibles proveedores
+Ex3: Realizar evaluaciones de riesgos de los proveedores en relación con los requisitos empresariales y de ciberseguridad aplicables
+Ex4: Evaluar la autenticidad, integridad y seguridad de los productos críticos antes de su adquisición y uso
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Los riesgos planteados por un proveedor, sus productos y servicios y otros terceros se comprenden, registran, priorizan, evalúan, responden y monitorean a lo largo de la relación</t>
+  </si>
+  <si>
+    <t>Ex1: Ajustar los formatos y frecuencias de evaluación en función de la reputación del tercero y la criticidad de los productos o servicios que proporcionan
+Ex2: Evalúe las pruebas de cumplimiento de los requisitos contractuales de ciberseguridad por parte de terceros, como autocertificaciones, garantías, certificaciones y otros artefactos.
+Ex3: Supervisar a los proveedores críticos para asegurarse de que cumplen sus obligaciones de seguridad a lo largo del ciclo de vida de la relación con los proveedores utilizando una variedad de métodos y técnicas, como inspecciones, auditorías, pruebas u otras formas de evaluación.
+Ex4: Supervise a los proveedores, servicios y productos críticos para detectar cambios en sus perfiles de riesgo, y reevalúe la criticidad de los proveedores y el impacto del riesgo en consecuencia.
+Ex5: Planifique las interrupciones inesperadas relacionadas con los proveedores y la cadena de suministro para garantizar la continuidad del negocio
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Los proveedores pertinentes y otros terceros se incluyen en las actividades de planificación, respuesta y recuperación de incidentes</t>
+  </si>
+  <si>
+    <t>Ex1: Definir y utilizar reglas y protocolos para informar sobre las actividades de respuesta y recuperación de incidentes y el estado entre la organización y sus proveedores
+Ex2: Identificar y documentar las funciones y responsabilidades de la organización y sus proveedores para la respuesta a incidentes
+Ex3: Incluir a los proveedores críticos en los ejercicios y simulaciones de respuesta a incidentes
+Ex4: Definir y coordinar los métodos y protocolos de comunicación de crisis entre la organización y sus proveedores críticos
+Ex5: Llevar a cabo sesiones colaborativas de lecciones aprendidas con proveedores críticos
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Las prácticas de seguridad de la cadena de suministro se integran en los programas de seguridad cibernética y de gestión de riesgos empresariales, y su rendimiento se monitorea a lo largo del ciclo de vida de los productos y servicios tecnológicos</t>
+  </si>
+  <si>
+    <t>Ex1: Las políticas y procedimientos exigen registros de procedencia para todos los productos y servicios tecnológicos adquiridos
+Ex2: Proporcionar periódicamente informes de riesgo a los líderes sobre cómo se ha demostrado que los componentes adquiridos son auténticos y no manipulados.
+Ex3: Comunícate regularmente entre los gerentes de riesgos de ciberseguridad y el personal de operaciones sobre la necesidad de adquirir parches, actualizaciones y mejoras de software solo de proveedores de software autenticados y confiables
+Ex4: Revisar las políticas para asegurarse de que requieren que el personal aprobado del proveedor realice el mantenimiento de los productos del proveedor
+Ex5: Las políticas y los procedimientos requieren la comprobación de las actualizaciones de hardware crítico en busca de cambios no autorizados
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Los planes de gestión de riesgos de la cadena de suministro de seguridad cibernética incluyen disposiciones para las actividades que ocurren después de la conclusión de un acuerdo de colaboración o servicio</t>
+  </si>
+  <si>
+    <t>Ex1: Establecer procesos para terminar relaciones críticas tanto en circunstancias normales como adversas
+Ex2: Definir e implementar planes para el soporte de mantenimiento al final de la vida útil de los componentes y la obsolescencia
+Ex3: Verifique que el acceso de los proveedores a los recursos de la organización se desactive de inmediato cuando ya no sea necesario
+Ex4: Verificar que los activos que contienen los datos de la organización se devuelvan o se eliminen correctamente de manera oportuna, controlada y segura
+Ex5: Desarrollar y ejecutar un plan para terminar o hacer la transición de las relaciones con los proveedores que tenga en cuenta el riesgo de seguridad y la resiliencia de la cadena de suministro
+Ex6: Mitigar los riesgos para los datos y los sistemas creados por la rescisión de proveedores
+Ex7: Gestionar los riesgos de fuga de datos asociados a la rescisión de proveedores
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>IDENTIFICAR</t>
+  </si>
+  <si>
+    <t>Se conocen los riesgos de seguridad cibernética actuales de la organización</t>
+  </si>
+  <si>
+    <t>Gestión de activos</t>
+  </si>
+  <si>
+    <t>Los activos (p. ej., datos, hardware, software, sistemas, instalaciones, servicios, personas) que permiten a la organización alcanzar sus objetivos empresariales se identifican y gestionan de acuerdo con su importancia relativa para los objetivos organizativos y la estrategia de riesgos de la organización</t>
+  </si>
+  <si>
+    <t>Se mantienen inventarios del hardware gestionado por la organización</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Mantener inventarios para todo tipo de hardware, incluidos TI, IoT, OT y dispositivos móviles
+Ex2: Monitoree constantemente las redes para detectar nuevo hardware y actualizar automáticamente los inventarios</t>
+  </si>
+  <si>
+    <t>Se mantienen inventarios de software, servicios y sistemas gestionados por la organización</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Mantener inventarios para todo tipo de software y servicios, incluidos los comerciales, de código abierto, aplicaciones personalizadas, servicios de API y aplicaciones y servicios basados en la nube
+Ex2: Supervise constantemente todas las plataformas, incluidos los contenedores y las máquinas virtuales, para detectar cambios en el inventario de software y servicios.
+Ex3: Mantener un inventario de los sistemas de la organización</t>
+  </si>
+  <si>
+    <t>Se mantienen representaciones de la comunicación de red autorizada de la organización y de los flujos de datos de red internos y externos</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Mantener las líneas de base de los flujos de comunicación y datos dentro de las redes cableadas e inalámbricas de la organización
+Ex2: Mantener las líneas de base de la comunicación y los flujos de datos entre la organización y terceros
+Ex3: Mantener las líneas de base de los flujos de comunicación y datos para el uso de la infraestructura como servicio (IaaS) de la organización
+Ex4: Mantener la documentación de los puertos de red, protocolos y servicios esperados que se utilizan normalmente entre los sistemas autorizados</t>
+  </si>
+  <si>
+    <t>Se mantienen inventarios de los servicios prestados por los proveedores</t>
+  </si>
+  <si>
+    <t>Ex1: Inventario de todos los servicios externos utilizados por la organización, incluidas las ofertas de infraestructura como servicio (IaaS), plataforma como servicio (PaaS) y software como servicio (SaaS) de terceros; Apis; y otros servicios de aplicaciones alojados externamente
+Ex2: Actualizar el inventario cuando se vaya a utilizar un nuevo servicio externo para garantizar un seguimiento adecuado de la gestión de riesgos de ciberseguridad del uso de ese servicio por parte de la organización
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Se priorizan los activos en función de su clasificación, criticidad, recursos e impacto en la misión</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Definir criterios para priorizar cada clase de activos
+Ex2: Aplicar los criterios de priorización a los activos
+Ex3: Realice un seguimiento de las prioridades de los activos y actualícelas periódicamente o cuando se produzcan cambios significativos en la organización</t>
+  </si>
+  <si>
+    <t>Se mantienen inventarios de datos y los metadatos correspondientes para los tipos de datos designados</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Mantener una lista de los tipos de datos designados de interés (por ejemplo, información de identificación personal, información de salud protegida, números de cuentas financieras, propiedad intelectual de la organización, datos de tecnología operativa)
+Ex2: Descubrir y analizar continuamente datos ad hoc para identificar nuevas instancias de tipos de datos designados
+Ex3: Asigne clasificaciones de datos a tipos de datos designados a través de etiquetas o rótulos
+Ex4: Rastree la procedencia, el propietario de los datos y la geolocalización de cada instancia de los tipos de datos designados</t>
+  </si>
+  <si>
+    <t>Los sistemas, el hardware, el software, los servicios y los datos se gestionan durante todo su ciclo de vida</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Integrar las consideraciones de ciberseguridad a lo largo de los ciclos de vida de los sistemas, el hardware, el software y los servicios
+Ex2: Integrar las consideraciones de ciberseguridad en los ciclos de vida de los productos
+Ex3: Identificar los usos no oficiales de la tecnología para cumplir con los objetivos de la misión (es decir, TI en la sombra)
+Ex4: Identifique periódicamente sistemas, hardware, software y servicios redundantes que aumenten innecesariamente la superficie de ataque de la organización
+Ex5: Configurar y proteger correctamente los sistemas, el hardware, el software y los servicios antes de su implementación en producción
+Ex6: Actualizar los inventarios cuando los sistemas, el hardware, el software y los servicios se mueven o transfieren dentro de la organización
+Ex7: Destruya de forma segura los datos almacenados en función de la política de retención de datos de la organización utilizando el método de destrucción prescrito, y mantenga y administre un registro de las destrucciones.
+Ex8: Desinfecte de forma segura el almacenamiento de datos cuando el hardware se retire, se retire, se reasigne o se envíe para su reparación o reemplazo
+Ex9: Ofrecer métodos para destruir papel, medios de almacenamiento y otras formas físicas de almacenamiento de datos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación de riesgos </t>
+  </si>
+  <si>
+    <t>La organización comprende el riesgo de seguridad cibernética para la organización, los activos y los individuos</t>
+  </si>
+  <si>
+    <t>Se identifican, validan y registran las vulnerabilidades de los activos</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Utilizar tecnologías de gestión de vulnerabilidades para identificar software sin parches y mal configurado
+Ex2: Evaluar las arquitecturas de redes y sistemas para detectar debilidades de diseño e implementación que afecten a la ciberseguridad
+Ex3: Revisar, analizar o probar el software desarrollado por la organización para identificar vulnerabilidades de diseño, codificación y configuración predeterminada
+Ex4: Evaluar las instalaciones que albergan activos informáticos críticos para detectar vulnerabilidades físicas y problemas de resiliencia
+Ex5: Supervisar las fuentes de inteligencia de amenazas cibernéticas para obtener información sobre nuevas vulnerabilidades en productos y servicios
+Ex6: Revisar los procesos y procedimientos en busca de debilidades que puedan aprovecharse para afectar a la ciberseguridad.</t>
+  </si>
+  <si>
+    <t>Se recibe información sobre amenazas cibernéticas de foros y fuentes de intercambio de información</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Configure herramientas y tecnologías de ciberseguridad con capacidades de detección o respuesta para ingerir de forma segura las fuentes de inteligencia de amenazas cibernéticas
+Ex2: Reciba y revise avisos de terceros acreditados sobre los actores de amenazas actuales y sus tácticas, técnicas y procedimientos (TTP)
+Ex3: Monitorear las fuentes de inteligencia de amenazas cibernéticas para obtener información sobre los tipos de vulnerabilidades que pueden tener las tecnologías emergentes</t>
+  </si>
+  <si>
+    <t>Se identifican y registran las amenazas internas y externas a la organización</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Utilice la inteligencia de amenazas cibernéticas para mantener el conocimiento de los tipos de actores de amenazas que probablemente se dirijan a la organización y los TTP que probablemente usarán
+Ex2: Realizar la búsqueda de amenazas para buscar signos de actores de amenazas dentro del entorno
+Ex3: Implementar procesos para identificar a los actores de amenazas internas</t>
+  </si>
+  <si>
+    <t>Se identifican y registran los impactos potenciales y las probabilidades de que las amenazas exploten las vulnerabilidades</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Los líderes empresariales y los profesionales de la gestión de riesgos de ciberseguridad trabajan juntos para estimar la probabilidad y el impacto de los escenarios de riesgo y registrarlos en registros de riesgos
+Ex2: Enumerar los posibles impactos en el negocio del acceso no autorizado a las comunicaciones, los sistemas y los datos de la organización procesados en o por esos sistemas
+Ex3: Tener en cuenta los impactos potenciales de los fallos en cascada para los sistemas de sistemas</t>
+  </si>
+  <si>
+    <t>Las amenazas, las vulnerabilidades, las probabilidades y los impactos se utilizan para comprender el riesgo inherente e informar sobre la priorización de la respuesta al riesgo</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Desarrollar modelos de amenazas para comprender mejor los riesgos para los datos e identificar las respuestas adecuadas a los riesgos
+Ex2: Priorizar las asignaciones de recursos de ciberseguridad y las inversiones en función de las probabilidades y los impactos estimados</t>
+  </si>
+  <si>
+    <t>Se eligen, priorizan, planifican, controlan y comunican las respuestas al riesgo</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Aplicar los criterios del plan de gestión de vulnerabilidades para decidir si aceptar, transferir, mitigar o evitar el riesgo
+Ex2: Aplicar los criterios del plan de gestión de vulnerabilidades para seleccionar controles de compensación para mitigar el riesgo
+Ex3: Seguimiento del progreso de la implementación de la respuesta al riesgo (por ejemplo, plan de acción e hitos [POA&amp;M], registro de riesgos, informe detallado de riesgos)
+Ex4: Utilizar los resultados de la evaluación de riesgos para informar las decisiones y acciones de respuesta al riesgo
+Ex5: Comunicar las respuestas planificadas a los riesgos a las partes interesadas afectadas en orden de prioridad</t>
+  </si>
+  <si>
+    <t>Se gestionan los cambios y las excepciones, se evalúa su impacto en el riesgo, se registran y se realiza su seguimiento</t>
+  </si>
+  <si>
+    <t>Ex1: Implementar y seguir procedimientos para la documentación formal, revisión, prueba y aprobación de los cambios propuestos y las excepciones solicitadas
+Ex2: Documentar los posibles riesgos de realizar o no realizar cada cambio propuesto y proporcionar orientación sobre cómo revertir los cambios.
+Ex3: Documentar los riesgos relacionados con cada excepción solicitada y el plan para responder a esos riesgos.
+Ex4: Revisar periódicamente los riesgos que se aceptaron en función de las acciones o hitos futuros planificados</t>
+  </si>
+  <si>
+    <t>Se establecen procesos para recibir, analizar y responder a las divulgaciones de vulnerabilidades</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Llevar a cabo el intercambio de información sobre vulnerabilidades entre la organización y sus proveedores siguiendo las reglas y protocolos definidos en los contratos.
+Ex2: Asignar responsabilidades y verificar la ejecución de procedimientos para procesar, analizar el impacto y responder a las divulgaciones de amenazas, vulnerabilidades o incidentes de ciberseguridad por parte de proveedores, clientes, socios y organizaciones gubernamentales de ciberseguridad</t>
+  </si>
+  <si>
+    <t>Se evalúa la autenticidad e integridad del hardware y software antes de su adquisición y uso</t>
+  </si>
+  <si>
+    <t>Ex1: Evaluar la autenticidad y la ciberseguridad de los productos y servicios tecnológicos críticos antes de su adquisición y uso
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Se evalúan los proveedores críticos antes de su adquisición</t>
+  </si>
+  <si>
+    <t>Ex1: Realizar evaluaciones de riesgos de los proveedores en relación con los requisitos empresariales y de ciberseguridad aplicables, incluida la cadena de suministro</t>
+  </si>
+  <si>
+    <t>Mejora</t>
+  </si>
+  <si>
+    <t>Se identifican mejoras en los procesos, procedimientos y actividades de gestión de riesgos de seguridad cibernética de la organización en todas las funciones del CSF</t>
+  </si>
+  <si>
+    <t>Las mejoras se identifican a partir de evaluaciones</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Realizar autoevaluaciones de los servicios críticos que tengan en cuenta las amenazas actuales y los TTP
+Ex2: Invertir en evaluaciones de terceros o auditorías independientes de la eficacia del programa de ciberseguridad de la organización para identificar las áreas que necesitan mejoras.
+Ex3: Evaluar constantemente el cumplimiento de los requisitos de ciberseguridad seleccionados a través de medios automatizados</t>
+  </si>
+  <si>
+    <t>Las mejoras se identifican a partir de pruebas y ejercicios de seguridad, lo que incluye a los realizados en coordinación con proveedores y terceros pertinentes</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Identificar mejoras para futuras actividades de respuesta a incidentes en función de los hallazgos de las evaluaciones de respuesta a incidentes (por ejemplo, ejercicios de mesa y simulaciones, pruebas, revisiones internas, auditorías independientes)
+Ex2: Identificar mejoras para futuras actividades de continuidad del negocio, recuperación ante desastres y respuesta a incidentes en función de ejercicios realizados en coordinación con proveedores de servicios críticos y proveedores de productos
+Ex3: Involucrar a las partes interesadas internas (por ejemplo, altos ejecutivos, departamento legal, recursos humanos) en pruebas y ejercicios de seguridad, según corresponda
+Ex4: Realizar pruebas de penetración para identificar oportunidades para mejorar la postura de seguridad de los sistemas de alto riesgo seleccionados según lo aprobado por el liderazgo
+Ex5: Ejercitar planes de contingencia para responder y recuperarse del descubrimiento de que los productos o servicios no se originaron con el proveedor o socio contratado o fueron alterados antes de su recepción
+Ex6: Recopilar y analizar métricas de rendimiento utilizando herramientas y servicios de seguridad para informar sobre las mejoras en el programa de ciberseguridad</t>
+  </si>
+  <si>
+    <t>Las mejoras se identifican a partir de la ejecución de procesos, procedimientos y actividades operativos</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Llevar a cabo sesiones colaborativas de lecciones aprendidas con los proveedores
+Ex2: Revisar anualmente las políticas, procesos y procedimientos de ciberseguridad para tener en cuenta las lecciones aprendidas.
+Ex3: Utilice métricas para evaluar el rendimiento de la ciberseguridad operativa a lo largo del tiempo</t>
+  </si>
+  <si>
+    <t>Se establecen, comunican, mantienen y mejoran los planes de respuesta a incidentes y otros planes de seguridad cibernética que afectan a las operaciones.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Establecer planes de contingencia (por ejemplo, respuesta a incidentes, continuidad del negocio, recuperación ante desastres) para responder y recuperarse de eventos adversos que puedan interferir con las operaciones, exponer información confidencial o poner en peligro la misión y viabilidad de la organización.
+Ex2: Incluya información de contacto y comunicación, procesos para manejar escenarios comunes y criterios para la priorización, escalamiento y elevación en todos los planes de contingencia
+Ex3: Crear un plan de gestión de vulnerabilidades para identificar y evaluar todos los tipos de vulnerabilidades y priorizar, probar e implementar respuestas al riesgo
+Ex4: Comunicar los planes de ciberseguridad (incluidas las actualizaciones) a los responsables de llevarlos a cabo y a las partes afectadas
+Ex5: Revisar y actualizar todos los planes de ciberseguridad anualmente o cuando se identifique la necesidad de mejoras significativas.</t>
+  </si>
+  <si>
+    <t>PROTEGER</t>
+  </si>
+  <si>
+    <t>Se utilizan medidas de protección para gestionar los riesgos de seguridad cibernética de la organización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de identidades, autenticación y control de acceso </t>
+  </si>
+  <si>
+    <t>El acceso a los activos físicos y lógicos se limita a los usuarios, servicios y hardware autorizados y se gestiona de forma proporcional al riesgo evaluado de acceso no autorizado</t>
+  </si>
+  <si>
+    <t>La organización gestiona las identidades y credenciales de los usuarios, servicios y equipos autorizados</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Iniciar solicitudes de nuevo acceso o acceso adicional para empleados, contratistas y otros, y rastrear, revisar y cumplir con las solicitudes, con el permiso de los propietarios del sistema o de los datos cuando sea necesario
+Ex2: emita, administre y revoque certificados criptográficos y tokens de identidad, claves criptográficas (es decir, administración de claves) y otras credenciales
+Ex3: seleccione un identificador único para cada dispositivo a partir de características de hardware inmutables o un identificador aprovisionado de forma segura en el dispositivo
+Ex4: Etiquete físicamente el hardware autorizado con un identificador para fines de inventario y servicio</t>
+  </si>
+  <si>
+    <t>Las identidades están comprobadas y vinculadas a credenciales basadas en el contexto de las interacciones</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Verificar la identidad declarada de una persona en el momento de la inscripción utilizando credenciales de identidad emitidas por el gobierno (p. ej., pasaporte, visa, licencia de conducir)
+Ex2: Emitir una credencial diferente para cada persona (es decir, no compartir credenciales)</t>
+  </si>
+  <si>
+    <t>Los usuarios, servicios y hardware están autenticados</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Requerir autenticación multifactor
+Ex2: Aplique políticas para la seguridad mínima de contraseñas, PIN y autenticadores similares
+Ex3: Volver a autenticar periódicamente a los usuarios, servicios y hardware en función del riesgo (por ejemplo, en arquitecturas de confianza cero)
+Punto 4: Garantizar que el personal autorizado pueda acceder a las cuentas esenciales para proteger la seguridad en condiciones de emergencia</t>
+  </si>
+  <si>
+    <t>Las afirmaciones de identidad se protegen, transmiten y verifican</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Proteger las aserciones de identidad que se utilizan para transmitir información de autenticación y usuario a través de sistemas de inicio de sesión único
+Ex2: Proteger las aserciones de identidad que se utilizan para transmitir información de autenticación y usuario entre sistemas federados
+Ex3: Implemente enfoques basados en estándares para las aserciones de identidad en todos los contextos y siga todas las instrucciones para la generación (p. ej., modelos de datos, metadatos), protección (p. ej., firma digital, cifrado) y verificación (p. ej., validación de firma) de aserciones de identidad</t>
+  </si>
+  <si>
+    <t>Los permisos de acceso, los derechos y las autorizaciones se definen en una política, se gestionan, se aplican y se revisan, e incorporan los principios de privilegio mínimo y separación de funciones</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Revise los privilegios de acceso lógico y físico periódicamente y cada vez que alguien cambie de rol o abandone la organización, y rescinda de inmediato los privilegios que ya no sean necesarios
+Ex2: Tenga en cuenta los atributos del solicitante y el recurso solicitado para las decisiones de autorización (por ejemplo, geolocalización, día/hora, estado cibernético del punto final del solicitante)
+Ex3: Restrinja el acceso y los privilegios al mínimo necesario (por ejemplo, arquitectura de confianza cero)
+Ex4: Revisar periódicamente los privilegios asociados con las funciones críticas del negocio para confirmar la separación adecuada de funciones</t>
+  </si>
+  <si>
+    <t>El acceso físico a los activos se gestiona, supervisa y aplica de forma proporcional al riesgo</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Use guardias de seguridad, cámaras de seguridad, entradas cerradas, sistemas de alarma y otros controles físicos para monitorear las instalaciones y restringir el acceso
+Ex2: Emplear controles de seguridad física adicionales para áreas que contienen activos de alto riesgo
+Ex3: Acompañe a invitados, proveedores y otros terceros dentro de áreas que contengan activos críticos para el negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concienciación y capacitación </t>
+  </si>
+  <si>
+    <t>Se proporciona al personal de la organización concienciación y capacitación en seguridad cibernética para que puedan realizar sus tareas relacionadas con la seguridad cibernética</t>
+  </si>
+  <si>
+    <t>Se sensibiliza y capacita al personal para que disponga de los conocimientos y habilidades necesarios para realizar tareas generales teniendo en cuenta los riesgos de seguridad cibernética</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Proporcionar concienciación y formación básicas en materia de ciberseguridad a los empleados, contratistas, socios, proveedores y todos los demás usuarios de los recursos no públicos de la organización.
+Ex2: Capacitar al personal para reconocer intentos de ingeniería social y otros ataques comunes, informar ataques y actividades sospechosas, cumplir con las políticas de uso aceptable y realizar tareas básicas de higiene cibernética (por ejemplo, parchear software, elegir contraseñas, proteger credenciales)
+Ex3: Explicar las consecuencias de las violaciones de las políticas de ciberseguridad, tanto a los usuarios individuales como a la organización en su conjunto
+Ex4: Evaluar o evaluar periódicamente a los usuarios en su comprensión de las prácticas básicas de ciberseguridad
+Ex5: Exigir un repaso anual para reforzar las prácticas existentes e introducir nuevas prácticas</t>
+  </si>
+  <si>
+    <t>Se sensibiliza y capacita a las personas que desempeñan funciones especializadas para que posean los conocimientos y aptitudes necesarios para realizar las tareas pertinentes teniendo en cuenta los riesgos de seguridad cibernética</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Identificar los roles especializados dentro de la organización que requieren capacitación adicional en ciberseguridad, como el personal físico y de ciberseguridad, el personal financiero, el liderazgo sénior y cualquier persona con acceso a datos críticos para el negocio
+Ex2: Proporcionar concienciación y formación en ciberseguridad basada en funciones a todos los que desempeñan funciones especializadas, incluidos contratistas, socios, proveedores y otros terceros.
+Ex3: Evaluar o evaluar periódicamente a los usuarios sobre su comprensión de las prácticas de ciberseguridad para sus roles especializados
+Ex4: Exigir un repaso anual para reforzar las prácticas existentes e introducir nuevas prácticas</t>
+  </si>
+  <si>
+    <t>Seguridad de datos</t>
+  </si>
+  <si>
+    <t>Los datos se gestionan de forma coherente con la estrategia de riesgos de la organización para proteger la confidencialidad, integridad y disponibilidad de la información</t>
+  </si>
+  <si>
+    <t>La confidencialidad, la integridad y la disponibilidad de los datos en reposo están protegidas</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: use el cifrado, las firmas digitales y los hashes criptográficos para proteger la confidencialidad y la integridad de los datos almacenados en archivos, bases de datos, imágenes de disco de máquina virtual, imágenes de contenedor y otros recursos
+Ex2: Utilice el cifrado de disco completo para proteger los datos almacenados en los puntos de conexión de usuario
+Ex3: Confirme la integridad del software mediante la validación de firmas
+Ex4: Restrinja el uso de medios extraíbles para evitar la exfiltración de datos
+Ex5: Medios extraíbles físicamente seguros que contienen información confidencial sin cifrar, como dentro de oficinas o archivadores cerrados con llave</t>
+  </si>
+  <si>
+    <t>La confidencialidad, la integridad y la disponibilidad de los datos en tránsito están protegidas</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Utilice el cifrado, las firmas digitales y los hashes criptográficos para proteger la confidencialidad y la integridad de las comunicaciones de red
+Ex2: Cifre o bloquee automáticamente los correos electrónicos salientes y otras comunicaciones que contengan datos confidenciales, según la clasificación de datos
+Ex3: Bloquear el acceso al correo electrónico personal, el uso compartido de archivos, los servicios de almacenamiento de archivos y otras aplicaciones y servicios de comunicaciones personales desde los sistemas y redes de la organización
+Ex4: Evitar la reutilización de datos confidenciales de entornos de producción (por ejemplo, registros de clientes) en entornos de desarrollo, pruebas y otros entornos que no sean de producción</t>
+  </si>
+  <si>
+    <t>La confidencialidad, la integridad y la disponibilidad de los datos en uso están protegidas</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Eliminar los datos que deben permanecer confidenciales (por ejemplo, de los procesadores y la memoria) tan pronto como ya no sean necesarios
+Ex2: Proteger los datos en uso del acceso de otros usuarios y procesos de la misma plataforma</t>
+  </si>
+  <si>
+    <t>Se crean, protegen, mantienen y comprueban copias de seguridad de los datos</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Realice copias de seguridad continuas de datos críticos casi en tiempo real y haga copias de seguridad de otros datos con frecuencia en los horarios acordados
+Ex2: Pruebe las copias de seguridad y restauraciones de todos los tipos de fuentes de datos al menos una vez al año
+Ex3: Almacene de forma segura algunas copias de seguridad fuera de línea y fuera del sitio para que un incidente o desastre no las dañe
+Ex4: Aplicar restricciones de separación geográfica y geolocalización para el almacenamiento de copias de seguridad de datos</t>
+  </si>
+  <si>
+    <t>Seguridad de plataformas</t>
+  </si>
+  <si>
+    <t>El hardware, el software (p. ej., firmware, sistemas operativos, aplicaciones) y los servicios de las plataformas físicas y virtuales se gestionan de acuerdo con la estrategia de riesgos de la organización para proteger su confidencialidad, integridad y disponibilidad</t>
+  </si>
+  <si>
+    <t>Se establecen y aplican prácticas de gestión de la configuración</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Establecer, probar, implementar y mantener líneas de base reforzadas que hagan cumplir las políticas de ciberseguridad de la organización y proporcionen solo capacidades esenciales (es decir, el principio de funcionalidad mínima)
+Ex2: Revise todos los ajustes de configuración predeterminados que puedan afectar a la ciberseguridad al instalar o actualizar software
+Ex3: Supervisar el software implementado para detectar desviaciones de las líneas de base aprobadas</t>
+  </si>
+  <si>
+    <t>Se mantiene, sustituye y elimina el software en función del riesgo</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Realizar parches de rutina y de emergencia dentro de los plazos especificados en el plan de gestión de vulnerabilidades
+Ex2: Actualice las imágenes de contenedor e implemente nuevas instancias de contenedor para reemplazar las instancias existentes en lugar de actualizarlas
+Ex3: Sustituya las versiones de software y servicios al final de su vida útil por versiones compatibles y mantenidas
+Ex4: Desinstalar y eliminar software y servicios no autorizados que presenten riesgos indebidos
+Ex5: Desinstale y elimine cualquier componente de software innecesario (por ejemplo, utilidades del sistema operativo) que los atacantes puedan utilizar indebidamente
+Ex6: Definir e implementar planes para el soporte de mantenimiento al final de la vida útil del software y los servicios y la obsolescencia</t>
+  </si>
+  <si>
+    <t>Se mantiene, sustituye y elimina el hardware en función del riesgo</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Reemplace el hardware cuando carezca de las capacidades de seguridad necesarias o cuando no pueda admitir software con las capacidades de seguridad necesarias
+Ex2: Definir e implementar planes para el soporte de mantenimiento al final de la vida útil del hardware y la obsolescencia
+Ex3: Realizar la eliminación de hardware de forma segura, responsable y auditable</t>
+  </si>
+  <si>
+    <t>Se generen registros y se ponen a disposición para una supervisión continua</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Configurar todos los sistemas operativos, aplicaciones y servicios (incluidos los servicios basados en la nube) para generar registros
+Ex2: Configurar generadores de registros para compartir de forma segura sus registros con los sistemas y servicios de infraestructura de registro de la organización
+Ex3: Configurar generadores de registros para registrar los datos que necesitan las arquitecturas de confianza cero</t>
+  </si>
+  <si>
+    <t>Se impide la instalación y la ejecución de software no autorizado</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Cuando el riesgo lo justifique, restrinja la ejecución del software solo a los productos permitidos o deniegue la ejecución de software prohibido y no autorizado
+Ex2: Verifique la fuente del nuevo software y la integridad del software antes de instalarlo
+Ex3: Configurar plataformas para usar solo servicios DNS aprobados que bloqueen el acceso a dominios malintencionados conocidos
+Ex4: Configurar plataformas para permitir la instalación solo de software aprobado por la organización</t>
+  </si>
+  <si>
+    <t>Se integran prácticas seguras de desarrollo de software y se supervisa su rendimiento durante todo el ciclo de vida de desarrollo del software</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Proteger todos los componentes del software desarrollado por la organización contra la manipulación y el acceso no autorizado
+Ex2: Asegurar todo el software producido por la organización, con vulnerabilidades mínimas en sus versiones
+Ex3: Mantener el software utilizado en los entornos de producción y desechar de forma segura el software una vez que ya no sea necesario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistencia de la infraestructura tecnológica </t>
+  </si>
+  <si>
+    <t>Las arquitecturas de seguridad se gestionan con la estrategia de riesgos de la organización a fin de proteger la confidencialidad, la integridad y la disponibilidad de los activos, así como la resiliencia de la organización</t>
+  </si>
+  <si>
+    <t>Las redes y los entornos están protegidos contra el acceso lógico y el uso no autorizados</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Segmentar lógicamente las redes de la organización y las plataformas basadas en la nube de acuerdo con los límites de confianza y los tipos de plataforma (por ejemplo, TI, IoT, OT, móvil, invitados) y permitir las comunicaciones necesarias solo entre segmentos.
+Ex2: Segmentar lógicamente las redes de la organización de las redes externas y permitir que solo las comunicaciones necesarias ingresen a las redes de la organización desde las redes externas
+Ex3: Implementar arquitecturas de confianza cero para restringir el acceso a la red a cada recurso al mínimo necesario
+Ex4: Comprobar el estado cibernético de los endpoints antes de permitirles acceder y utilizar los recursos de producción</t>
+  </si>
+  <si>
+    <t>Los activos tecnológicos de la organización están protegidos de las amenazas del entorno</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Proteger el equipo de la organización de amenazas ambientales conocidas, como inundaciones, incendios, vientos y calor y humedad excesivos
+Ex2: Incluir la protección contra las amenazas ambientales y las disposiciones para una infraestructura operativa adecuada en los requisitos para los proveedores de servicios que operan sistemas en nombre de la organización.</t>
+  </si>
+  <si>
+    <t>Se implementan mecanismos para lograr los requisitos de resiliencia en situaciones normales y adversas</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Evitar puntos únicos de fallo en los sistemas y la infraestructura
+Ex2: Utilice el equilibrio de carga para aumentar la capacidad y mejorar la confiabilidad
+Ex3: Utilice componentes de alta disponibilidad, como almacenamiento redundante y fuentes de alimentación, para mejorar la fiabilidad del sistema</t>
+  </si>
+  <si>
+    <t>Se mantiene una capacidad de recursos adecuada para garantizar la disponibilidad</t>
+  </si>
+  <si>
+    <t>Ex1: Supervise el uso del almacenamiento, la energía, la computación, el ancho de banda de red y otros recursos
+Ex2: Pronostique las necesidades futuras y escale los recursos en consecuencia</t>
+  </si>
+  <si>
+    <t>DETECTAR</t>
+  </si>
+  <si>
+    <t>Se detectan y analizan posibles ataques y situaciones comprometedoras en materia de seguridad cibernética.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoreo continuo </t>
+  </si>
+  <si>
+    <t>Los activos se monitorean para encontrar anomalías, indicadores de compromiso y otros acontecimientos potencialmente adversos</t>
+  </si>
+  <si>
+    <t>Las redes y los servicios de red se monitorean para detectar acontecimientos potencialmente adversos</t>
+  </si>
+  <si>
+    <t>Ex1: Supervise DNS, BGP y otros servicios de red en busca de eventos adversos
+Ex2: Supervise las redes cableadas e inalámbricas en busca de conexiones desde puntos finales no autorizados
+Ex3: Supervise las instalaciones en busca de redes inalámbricas no autorizadas o no autorizadas
+Ex4: Compare los flujos de red reales con las líneas de base para detectar desviaciones
+Ex5: Supervisar las comunicaciones de red para identificar cambios en las posturas de seguridad con fines de confianza cero
+1º: Riesgo de 1ª parte</t>
+  </si>
+  <si>
+    <t>Se monitorea el entorno físico para detectar posibles acontecimientos adversos</t>
+  </si>
+  <si>
+    <t>Ex1: Supervise los registros de los sistemas físicos de control de acceso (p. ej., lectores de credenciales) para encontrar patrones de acceso inusuales (p. ej., desviaciones de la norma) e intentos de acceso fallidos
+Ex2: Revisar y supervisar los registros de acceso físico (p. ej., desde el registro de visitantes, las hojas de registro)
+Ex3: Supervise los controles de acceso físico (p. ej., cerraduras, pestillos, pasadores de bisagras, alarmas) para detectar signos de manipulación
+Ex4: Monitoree el entorno físico utilizando sistemas de alarma, cámaras y guardias de seguridad
+1º: Riesgo de 1ª parte</t>
+  </si>
+  <si>
+    <t>Se monitorea la actividad del personal y el uso de la tecnología para detectar posibles acontecimientos adversos</t>
+  </si>
+  <si>
+    <t>Ex1: Utilice software de análisis de comportamiento para detectar actividad anómala de los usuarios y mitigar las amenazas internas
+Ex2: Supervise los registros de los sistemas lógicos de control de acceso para encontrar patrones de acceso inusuales e intentos de acceso fallidos
+Ex3: Supervise continuamente la tecnología de engaño, incluidas las cuentas de usuario, para cualquier uso
+1º: Riesgo de 1ª parte</t>
+  </si>
+  <si>
+    <t>Se monitorean las actividades y los servicios de los proveedores de servicios externos para detectar acontecimientos potencialmente adversos.</t>
+  </si>
+  <si>
+    <t>Ex1: Supervisar las actividades de administración y mantenimiento remotas e in situ que los proveedores externos realizan en los sistemas de la organización
+Ex2: Supervise la actividad de los servicios basados en la nube, los proveedores de servicios de Internet y otros proveedores de servicios para detectar desviaciones del comportamiento esperado
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Se monitorean el hardware y el software informáticos, los entornos de ejecución y sus datos para detectar posibles acontecimientos adversos</t>
+  </si>
+  <si>
+    <t>Ex1: Supervise el correo electrónico, la web, el uso compartido de archivos, los servicios de colaboración y otros vectores de ataque comunes para detectar malware, phishing, fugas y exfiltraciones de datos y otros eventos adversos
+Ex2: Supervise los intentos de autenticación para identificar ataques contra credenciales y reutilización no autorizada de credenciales
+Ex3: Supervisar las configuraciones de software para detectar desviaciones de las líneas de base de seguridad
+Ex4: Supervise el hardware y el software en busca de signos de manipulación
+Ex5: Utilice tecnologías con presencia en los puntos finales para detectar problemas de salud cibernética (por ejemplo, parches faltantes, infecciones de malware, software no autorizado) y redirija los puntos finales a un entorno de corrección antes de que se autorice el acceso
+1º: Riesgo de 1ª parte</t>
+  </si>
+  <si>
+    <t>Análisis de eventos adversos</t>
+  </si>
+  <si>
+    <t>Se analizan anomalías, indicadores de compromiso y otros acontecimientos potencialmente adversos para caracterizarlos y detectar incidentes de seguridad cibernética</t>
+  </si>
+  <si>
+    <t>Los acontecimientos potencialmente adversos se analizan para comprender mejor las actividades asociadas</t>
+  </si>
+  <si>
+    <t>Ex1: Utilice la administración de eventos e información de seguridad (SIEM) u otras herramientas para monitorear continuamente los eventos de registro en busca de actividades maliciosas y sospechosas conocidas.
+Ex2: Utilice inteligencia actualizada sobre amenazas cibernéticas en herramientas de análisis de registros para mejorar la precisión de la detección y caracterizar a los actores de amenazas, sus métodos e indicadores de compromiso.
+Ex3: Realizar revisiones manuales periódicas de los eventos de registro para las tecnologías que no se pueden supervisar suficientemente mediante la automatización
+Ex4: Utilice herramientas de análisis de registros para generar informes sobre sus hallazgos
+1º: Riesgo de 1ª parte</t>
+  </si>
+  <si>
+    <t>Se correlaciona la información procedente de diversas fuentes</t>
+  </si>
+  <si>
+    <t>Ex1: Transfiera constantemente datos de registro generados por otras fuentes a un número relativamente pequeño de servidores de registro
+Ex2: Utilice la tecnología de correlación de eventos (por ejemplo, SIEM) para recopilar información capturada por múltiples fuentes
+Ex3: Utilice la inteligencia de amenazas cibernéticas para ayudar a correlacionar eventos entre orígenes de registro
+1º: Riesgo de 1ª parte</t>
+  </si>
+  <si>
+    <t>Se comprende el impacto estimado y el alcance de los acontecimientos adversos</t>
+  </si>
+  <si>
+    <t>Ex1: Utilice SIEM u otras herramientas para estimar el impacto y el alcance, y revise y perfeccione las estimaciones
+Ex2: Una persona crea sus propias estimaciones de impacto y alcance
+1º: Riesgo de 1ª parte</t>
+  </si>
+  <si>
+    <t>La información sobre acontecimientos adversos se proporciona al personal y a las herramientas autorizadas</t>
+  </si>
+  <si>
+    <t>Ex1: Utilice el software de ciberseguridad para generar alertas y proporcionarlas al centro de operaciones de seguridad (SOC), los respondedores a incidentes y las herramientas de respuesta a incidentes
+Ex2: Los respondedores de incidentes y otro personal autorizado pueden acceder a los resultados del análisis de registros en todo momento
+Ex3: Cree y asigne tickets automáticamente en el sistema de tickets de la organización cuando se produzcan ciertos tipos de alertas.
+Ex4: Crear y asignar tickets manualmente en el sistema de tickets de la organización cuando el personal técnico descubra indicadores de compromiso
+1º: Riesgo de 1ª parte</t>
+  </si>
+  <si>
+    <t>La inteligencia sobre amenazas cibernéticas y otra información contextual se integran en el análisis</t>
+  </si>
+  <si>
+    <t>Ex1: Proporcionar de forma segura información sobre inteligencia de amenazas cibernéticas a las tecnologías de detección, los procesos y el personal
+Ex2: Proporcione de forma segura información desde los inventarios de activos hasta las tecnologías de detección, los procesos y el personal
+Ex3: Adquiera y analice rápidamente las divulgaciones de vulnerabilidades de las tecnologías de la organización de proveedores, vendedores y avisos de seguridad de terceros.
+1º: Riesgo de 1ª parte</t>
+  </si>
+  <si>
+    <t>Se declaran incidentes cuando los acontecimientos adversos cumplen con los criterios de incidente definidos</t>
+  </si>
+  <si>
+    <t>Ex1: Aplicar criterios de incidente a las características conocidas y supuestas de la actividad para determinar si un incidente debe declararse
+Ex2: Tener en cuenta los falsos positivos conocidos al aplicar los criterios de incidentes
+1º: Riesgo de 1ª parte</t>
+  </si>
+  <si>
+    <t>RESPONDER</t>
+  </si>
+  <si>
+    <t>Se toman medidas en relación con un incidente de seguridad cibernética detectado</t>
+  </si>
+  <si>
+    <t>Gestión de incidentes</t>
+  </si>
+  <si>
+    <t>Se gestionan las respuestas a los incidentes de seguridad cibernética detectados</t>
+  </si>
+  <si>
+    <t>Se ejecuta el plan de respuesta a incidentes en coordinación con los terceros pertinentes una vez que se declara un incidente</t>
+  </si>
+  <si>
+    <t>Ex1: Las tecnologías de detección informan automáticamente de los incidentes confirmados
+Ex2: Solicitar asistencia de respuesta a incidentes del subcontratista de respuesta a incidentes de la organización
+Ex3: Designar un líder de incidentes para cada incidente
+Ex4: Iniciar la ejecución de planes de ciberseguridad adicionales según sea necesario para respaldar la respuesta a incidentes (por ejemplo, continuidad del negocio y recuperación ante desastres)
+3º: Riesgo de 3ª parte</t>
+  </si>
+  <si>
+    <t>Se clasifican y validan los informes de incidentes</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Revisar preliminarmente los informes de incidentes para confirmar que están relacionados con la ciberseguridad y requieren actividades de respuesta a incidentes.
+Ex2: Aplicar criterios para estimar la gravedad de un incidente</t>
+  </si>
+  <si>
+    <t>Se clasifican y priorizan los incidentes</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Revise y clasifique los incidentes en función del tipo de incidente (por ejemplo, violación de datos, ransomware, DDoS, compromiso de la cuenta)
+Ex2: Priorice los incidentes en función de su alcance, impacto probable y naturaleza crítica en el tiempo
+Ex3: seleccione estrategias de respuesta a incidentes para incidentes activos equilibrando la necesidad de recuperarse rápidamente de un incidente con la necesidad de observar al atacante o realizar una investigación más exhaustiva</t>
+  </si>
+  <si>
+    <t>Se escalan o elevan los incidentes según sea necesario</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Seguimiento y validación del estado de todos los incidentes en curso
+Ex2: Coordinar la escalada o elevación de incidentes con las partes interesadas internas y externas designadas</t>
+  </si>
+  <si>
+    <t>Se aplican los criterios para iniciar la recuperación de incidentes</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Aplicar criterios de recuperación de incidentes a las características conocidas y supuestas del incidente para determinar si se deben iniciar procesos de recuperación de incidentes
+Ex2: Tener en cuenta la posible interrupción operativa de las actividades de recuperación de incidentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análisis de incidentes </t>
+  </si>
+  <si>
+    <t>Se llevan a cabo investigaciones con el fin de garantizar una respuesta eficaz y apoyar las actividades forenses y de recuperación</t>
+  </si>
+  <si>
+    <t>Se realizan análisis para determinar lo que ocurrió durante un incidente y la causa raíz del mismo</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Determine la secuencia de eventos que ocurrieron durante el incidente y qué activos y recursos estuvieron involucrados en cada evento
+Ex2: Intento de determinar qué vulnerabilidades, amenazas y actores de amenazas estuvieron directa o indirectamente involucrados en el incidente
+Ex3: Analice el incidente para encontrar las causas raíz sistémicas subyacentes
+Ex4: Compruebe cualquier tecnología de engaño cibernético para obtener información adicional sobre el comportamiento del atacante</t>
+  </si>
+  <si>
+    <t>Se registran las acciones realizadas durante una investigación y se preservan la integridad y la procedencia de los registros</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Exigir a cada respondedor de incidentes y a otros (por ejemplo, administradores de sistemas, ingenieros de ciberseguridad) que realizan tareas de respuesta a incidentes que registren sus acciones y hagan que el registro sea inmutable.
+Ex2: Exigir al líder del incidente que documente el incidente en detalle y sea responsable de preservar la integridad de la documentación y las fuentes de toda la información que se informa.</t>
+  </si>
+  <si>
+    <t>Se recopilan los datos y metadatos del incidente y se preservan su integridad y su procedencia</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Recopilar, preservar y salvaguardar la integridad de todos los datos y metadatos pertinentes del incidente (por ejemplo, fuente de datos, fecha/hora de recopilación) en función de los procedimientos de preservación de pruebas y cadena de custodia</t>
+  </si>
+  <si>
+    <t>Se estima y valida la magnitud de un incidente.</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Revisar otros posibles objetivos del incidente para buscar indicadores de compromiso y evidencia de persistencia
+Ex2: Ejecute automáticamente herramientas en los objetivos para buscar indicadores de compromiso y evidencia de persistencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notificación y comunicación de la respuesta al incidente </t>
+  </si>
+  <si>
+    <t>Las actividades de respuesta se coordinan con las partes interesadas internas y externas, según lo exijan las leyes, las normativas o las políticas</t>
+  </si>
+  <si>
+    <t>Se notifican los incidentes a las partes interesadas internas y externas</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Siga los procedimientos de notificación de infracciones de la organización después de descubrir un incidente de infracción de datos, incluida la notificación a los clientes afectados
+Ex2: Notificar a los socios comerciales y clientes de los incidentes de acuerdo con los requisitos contractuales
+Ex3: Notificar a las agencias de aplicación de la ley y a los organismos reguladores de los incidentes en función de los criterios del plan de respuesta a incidentes y la aprobación de la dirección.</t>
+  </si>
+  <si>
+    <t>La información se comparte con las partes interesadas internas y externas designadas</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Compartir información de forma segura de acuerdo con los planes de respuesta y los acuerdos de intercambio de información
+Ex2: Compartir voluntariamente información sobre las TTP observadas por un atacante, con todos los datos confidenciales eliminados, con un Centro de análisis e intercambio de información (ISAC)
+Ex3: Notificar a RRHH cuando se produzca una actividad interna maliciosa
+Ex4: Actualizar periódicamente a la alta dirección sobre el estado de los incidentes importantes
+Ex5: Seguir las reglas y protocolos definidos en los contratos para el intercambio de información sobre incidentes entre la organización y sus proveedores
+Ex6: Coordinar los métodos de comunicación de crisis entre la organización y sus proveedores críticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitigación de incidentes </t>
+  </si>
+  <si>
+    <t>Se llevan a cabo actividades a fin de evitar la expansión de un incidente y mitigar sus efectos</t>
+  </si>
+  <si>
+    <t>Se contienen los incidentes</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Las tecnologías de ciberseguridad (por ejemplo, software antivirus) y las características de ciberseguridad de otras tecnologías (por ejemplo, sistemas operativos, dispositivos de infraestructura de red) realizan automáticamente acciones de contención
+Ex2: Permitir que los respondedores de incidentes seleccionen y realicen manualmente acciones de contención
+Ex3: Permitir que un tercero (por ejemplo, proveedor de servicios de Internet, proveedor de servicios de seguridad administrada) realice acciones de contención en nombre de la organización
+Ex4: Transfiera automáticamente los puntos de conexión comprometidos a una red de área local virtual (VLAN) de corrección</t>
+  </si>
+  <si>
+    <t>Se erradican los incidentes</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Las tecnologías de ciberseguridad y las características de ciberseguridad de otras tecnologías (por ejemplo, sistemas operativos, dispositivos de infraestructura de red) realizan automáticamente acciones de erradicación
+Ex2: Permitir que los respondedores de incidentes seleccionen y realicen manualmente acciones de erradicación
+Ex3: Permitir que un tercero (por ejemplo, un proveedor de servicios de seguridad administrados) realice acciones de erradicación en nombre de la organización.</t>
+  </si>
+  <si>
+    <t>RECUPERAR</t>
+  </si>
+  <si>
+    <t>Se restauran los activos y las operaciones afectados por un incidente de seguridad cibernética</t>
+  </si>
+  <si>
+    <t>Ejecución del Plan de Recuperación de Incidentes</t>
+  </si>
+  <si>
+    <t>Se realizan actividades de restauración que garantizan la disponibilidad operativa de los sistemas y servicios afectados por incidentes de seguridad cibernética</t>
+  </si>
+  <si>
+    <t>La parte de recuperación del plan de respuesta a incidentes se ejecuta una vez que se inicia desde el proceso de respuesta a incidentes</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Iniciar procedimientos de recuperación durante o después de los procesos de respuesta a incidentes
+Ex2: Informar a todas las personas con responsabilidades de recuperación de los planes de recuperación y de las autorizaciones necesarias para implementar cada aspecto de los planes</t>
+  </si>
+  <si>
+    <t>Se seleccionan, delimitan, priorizan y llevan a cabo las acciones de recuperación</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Seleccione las acciones de recuperación en función de los criterios definidos en el plan de respuesta a incidentes y los recursos disponibles
+Ex2: Cambiar las acciones de recuperación planificadas en función de una reevaluación de las necesidades y los recursos de la organización</t>
+  </si>
+  <si>
+    <t>Se verifica la integridad de las copias de seguridad y otros activos de restauración antes de usarlos para la restauración</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Compruebe los activos de restauración en busca de indicadores de compromiso, daños en los archivos y otros problemas de integridad antes de su uso</t>
+  </si>
+  <si>
+    <t>Se tienen en cuenta las funciones críticas de la misión y la gestión de riesgos de seguridad cibernética para establecer normas operativas posteriores al incidente</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Utilice los registros de categorización del sistema y de impacto en el negocio (incluidos los objetivos de prestación de servicios) para validar que los servicios esenciales se restablezcan en el orden adecuado
+Ex2: Trabajar con los propietarios de los sistemas para confirmar la restauración exitosa de los sistemas y el retorno a las operaciones normales
+Ex3: Supervisar el rendimiento de los sistemas restaurados para verificar la idoneidad de la restauración</t>
+  </si>
+  <si>
+    <t>Se verifica la integridad de los activos restaurados, se restauran los sistemas y servicios y se confirma el estado operativo normal</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Compruebe los activos restaurados en busca de indicadores de compromiso y corrección de las causas raíz del incidente antes del uso en producción
+Ex2: Verificar la exactitud y adecuación de las acciones de restauración realizadas antes de poner en línea un sistema restaurado</t>
+  </si>
+  <si>
+    <t>Se declara el fin de la recuperación del incidente sobre la base de criterios y se completa la documentación relacionada con el incidente</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Prepare un informe posterior a la acción que documente el incidente en sí, las acciones de respuesta y recuperación tomadas, y las lecciones aprendidas
+Ex2: Declarar el fin de la recuperación de incidentes una vez que se cumplan los criterios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicación de la recuperación del incidente </t>
+  </si>
+  <si>
+    <t>Se coordinan las actividades de restauración con las partes internas y externas</t>
+  </si>
+  <si>
+    <t>Las actividades de recuperación y los progresos en el restablecimiento de las capacidades operativas se comunican a las partes interesadas internas y externas designadas</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+3º: Riesgo de 3ª parte
+Ex1: Compartir de forma segura la información de recuperación, incluido el progreso de la restauración, de acuerdo con los planes de respuesta y los acuerdos de intercambio de información
+Ex2: Actualizar periódicamente a la alta dirección sobre el estado de la recuperación y el progreso de la restauración en caso de incidentes graves
+Ex3: Seguir las reglas y protocolos definidos en los contratos para el intercambio de información sobre incidentes entre la organización y sus proveedores
+Ex4: Coordinar la comunicación de crisis entre la organización y sus proveedores críticos</t>
+  </si>
+  <si>
+    <t>Las actualizaciones públicas sobre la recuperación del incidente se comparten mediante el uso de métodos y mensajes aprobados</t>
+  </si>
+  <si>
+    <t>1º: Riesgo de 1ª parte
+Ex1: Siga los procedimientos de notificación de violación de la organización para recuperarse de un incidente de violación de datos
+Ex2: Explique los pasos que se están tomando para recuperarse del incidente y evitar que se repita</t>
+  </si>
+  <si>
+    <t>Parcial</t>
+  </si>
+  <si>
+    <t>La aplicación de la estrategia de riesgo de ciberseguridad organizacional se gestiona de manera ad hoc. Existe una conciencia limitada de los riesgos de ciberseguridad a nivel organizacional.</t>
+  </si>
+  <si>
+    <t>Informado sobre riesgos</t>
+  </si>
+  <si>
+    <t>Las prácticas de gestión de riesgos son aprobadas por la gerencia, pero es posible que no se establezcan como una política para toda la organización. Existe una conciencia de los riesgos de ciberseguridad a nivel organizacional, pero no se ha establecido un enfoque de toda la organización para gestionar los riesgos de ciberseguridad.</t>
+  </si>
+  <si>
+    <t>Repetible</t>
+  </si>
+  <si>
+    <t>Las prácticas de gestión de riesgos de la organización se aprueban formalmente y se expresan como política. Las prácticas de ciberseguridad organizacional se actualizan periódicamente en función de la aplicación de procesos de gestión de riesgos a los cambios en los requisitos comerciales/de misión, las amenazas y el panorama tecnológico.</t>
+  </si>
+  <si>
+    <t>Adaptable</t>
+  </si>
+  <si>
+    <t>Existe un enfoque de toda la organización para gestionar los riesgos de ciberseguridad que utiliza políticas, procesos y procedimientos informados sobre el riesgo para abordar posibles eventos de ciberseguridad. La organización adapta sus prácticas de ciberseguridad en función de las actividades de ciberseguridad anteriores y actuales, incluidas las lecciones aprendidas y los indicadores predictivos.</t>
+  </si>
+  <si>
+    <t>library_description[fr]</t>
+  </si>
+  <si>
+    <t>library_name[es]</t>
+  </si>
+  <si>
+    <t>library_description[es]</t>
+  </si>
+  <si>
+    <t>name[es]</t>
+  </si>
+  <si>
+    <t>description[es]</t>
+  </si>
+  <si>
+    <t>annotation[es]</t>
+  </si>
+  <si>
+    <t>Le risque de cybersécurité pour l’organisation, les actifs et
+les individus est compris par l’organisation</t>
+  </si>
+  <si>
+    <t>Le personnel de l’organisation reçoit une sensibilisation et une formation à la cybersécurité afin qu’il puisse accomplir ses tâches liées à la cybersécurité</t>
+  </si>
+  <si>
+    <t>Les améliorations aux processus, procédures et activités de gestion des risques de cybersécurité organisationnels sont identifiées dans toutes les Fonctions du CSF.</t>
+  </si>
+  <si>
+    <t>Les données sont gérées conformément à la stratégie de risque de l’organisation afin de protéger la confidentialité, l’intégrité et la disponibilité des informations</t>
+  </si>
+  <si>
+    <t>Le matériel, les logiciels (p. ex., les micrologiciels, les systèmes d’exploitation, les applications) et les services des plateformes physiques et virtuelles sont gérés conformément à la stratégie de risque de l’organisation pour protéger leur confidentialité, leur intégrité et leur disponibilité</t>
+  </si>
+  <si>
+    <t>Les architectures de sécurité sont gérées avec la stratégie de risque de l’organisation pour protéger la confidentialité, l’intégrité et la disponibilité des actifs, ainsi que la résilience organisationnelle</t>
+  </si>
+  <si>
+    <t>Les anomalies, les indicateurs de compromission et d’autres événements potentiellement indésirables sont analysés pour caractériser les événements et détecter les incidents de cybersécurité</t>
+  </si>
+  <si>
+    <t>Des enquêtes sont menées pour garantir une réponse efficace et soutenir les activités criminalistiques et de récupération</t>
+  </si>
+  <si>
+    <t>Les activités de réponse sont coordonnées avec les parties prenantes internes et externes, comme l’exigent les lois, les réglementations ou les politiques</t>
+  </si>
+  <si>
+    <t>Les activités sont réalisées pour empêcher l’expansion d’un événement et atténuer ses effets</t>
+  </si>
+  <si>
+    <t>Les activités de restauration sont coordonnées avec les parties internes et externes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1931,6 +4239,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1940,10 +4260,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1952,7 +4298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1963,6 +4309,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2266,10 +4630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6663DDE6-1E5F-334B-86D6-FF0D04872286}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="231" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A2" zoomScale="231" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2292,7 +4656,7 @@
         <v>409</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2419,6 +4783,38 @@
       </c>
       <c r="C17" t="s">
         <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>605</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>995</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>996</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>997</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -2428,11 +4824,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2440,12 +4835,16 @@
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="5" max="5" width="71.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="44.5" customWidth="1"/>
+    <col min="6" max="6" width="57.6640625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="43.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="75.6640625" customWidth="1"/>
+    <col min="8" max="8" width="104.6640625" customWidth="1"/>
+    <col min="9" max="9" width="80.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="33" style="2" customWidth="1"/>
+    <col min="11" max="11" width="150.6640625" customWidth="1"/>
+    <col min="12" max="12" width="168.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2462,16 +4861,28 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>457</v>
+        <v>604</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2485,13 +4896,19 @@
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+      <c r="H2" t="s">
+        <v>461</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="K2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2</v>
       </c>
@@ -2505,13 +4922,19 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+      <c r="H3" t="s">
+        <v>491</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="K3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2528,8 +4951,20 @@
         <v>14</v>
       </c>
       <c r="G4"/>
-    </row>
-    <row r="5" spans="1:8" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>606</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="K4" t="s">
+        <v>723</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2546,8 +4981,20 @@
         <v>17</v>
       </c>
       <c r="G5"/>
-    </row>
-    <row r="6" spans="1:8" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>607</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="K5" t="s">
+        <v>725</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2564,8 +5011,20 @@
         <v>20</v>
       </c>
       <c r="G6"/>
-    </row>
-    <row r="7" spans="1:8" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>608</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="K6" t="s">
+        <v>727</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2582,8 +5041,20 @@
         <v>23</v>
       </c>
       <c r="G7"/>
-    </row>
-    <row r="8" spans="1:8" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>609</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="K7" t="s">
+        <v>729</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2600,8 +5071,20 @@
         <v>26</v>
       </c>
       <c r="G8"/>
-    </row>
-    <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>610</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="K8" t="s">
+        <v>731</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>2</v>
       </c>
@@ -2615,13 +5098,19 @@
         <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="K9" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2638,8 +5127,20 @@
         <v>32</v>
       </c>
       <c r="G10"/>
-    </row>
-    <row r="11" spans="1:8" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>611</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="K10" t="s">
+        <v>735</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2656,8 +5157,20 @@
         <v>35</v>
       </c>
       <c r="G11"/>
-    </row>
-    <row r="12" spans="1:8" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>612</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="K11" t="s">
+        <v>737</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2674,8 +5187,20 @@
         <v>38</v>
       </c>
       <c r="G12"/>
-    </row>
-    <row r="13" spans="1:8" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>613</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="K12" t="s">
+        <v>739</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2692,8 +5217,20 @@
         <v>41</v>
       </c>
       <c r="G13"/>
-    </row>
-    <row r="14" spans="1:8" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>614</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="K13" t="s">
+        <v>741</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2710,8 +5247,20 @@
         <v>44</v>
       </c>
       <c r="G14"/>
-    </row>
-    <row r="15" spans="1:8" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>615</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="K14" t="s">
+        <v>743</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2728,8 +5277,20 @@
         <v>47</v>
       </c>
       <c r="G15"/>
-    </row>
-    <row r="16" spans="1:8" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>616</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="K15" t="s">
+        <v>745</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -2746,8 +5307,20 @@
         <v>50</v>
       </c>
       <c r="G16"/>
-    </row>
-    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>617</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="K16" t="s">
+        <v>747</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>2</v>
       </c>
@@ -2761,13 +5334,19 @@
         <v>53</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="224" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="K17" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2784,8 +5363,20 @@
         <v>56</v>
       </c>
       <c r="G18"/>
-    </row>
-    <row r="19" spans="1:8" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>618</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="K18" t="s">
+        <v>751</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2802,8 +5393,20 @@
         <v>59</v>
       </c>
       <c r="G19"/>
-    </row>
-    <row r="20" spans="1:8" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>619</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="K19" t="s">
+        <v>753</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -2820,8 +5423,20 @@
         <v>62</v>
       </c>
       <c r="G20"/>
-    </row>
-    <row r="21" spans="1:8" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>620</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="K20" t="s">
+        <v>755</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -2838,8 +5453,20 @@
         <v>65</v>
       </c>
       <c r="G21"/>
-    </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>621</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="K21" t="s">
+        <v>757</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>2</v>
       </c>
@@ -2853,13 +5480,19 @@
         <v>68</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H22" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="272" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="K22" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2876,8 +5509,20 @@
         <v>71</v>
       </c>
       <c r="G23"/>
-    </row>
-    <row r="24" spans="1:8" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>622</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="K23" t="s">
+        <v>761</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2894,8 +5539,20 @@
         <v>74</v>
       </c>
       <c r="G24"/>
-    </row>
-    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>623</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="K24" t="s">
+        <v>763</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>2</v>
       </c>
@@ -2909,13 +5566,19 @@
         <v>77</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="K25" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2932,8 +5595,20 @@
         <v>80</v>
       </c>
       <c r="G26"/>
-    </row>
-    <row r="27" spans="1:8" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>624</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="K26" t="s">
+        <v>767</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2950,8 +5625,20 @@
         <v>83</v>
       </c>
       <c r="G27"/>
-    </row>
-    <row r="28" spans="1:8" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>625</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="K27" t="s">
+        <v>769</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2968,8 +5655,20 @@
         <v>86</v>
       </c>
       <c r="G28"/>
-    </row>
-    <row r="29" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>626</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="K28" t="s">
+        <v>771</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>2</v>
       </c>
@@ -2983,13 +5682,19 @@
         <v>89</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="304" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="K29" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="304" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -3006,8 +5711,20 @@
         <v>92</v>
       </c>
       <c r="G30"/>
-    </row>
-    <row r="31" spans="1:8" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>627</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="K30" t="s">
+        <v>775</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -3024,8 +5741,20 @@
         <v>95</v>
       </c>
       <c r="G31"/>
-    </row>
-    <row r="32" spans="1:8" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>628</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="K31" t="s">
+        <v>777</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -3042,8 +5771,20 @@
         <v>98</v>
       </c>
       <c r="G32"/>
-    </row>
-    <row r="33" spans="1:8" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>629</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K32" t="s">
+        <v>779</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -3060,8 +5801,20 @@
         <v>101</v>
       </c>
       <c r="G33"/>
-    </row>
-    <row r="34" spans="1:8" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>630</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="K33" t="s">
+        <v>781</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -3078,8 +5831,20 @@
         <v>104</v>
       </c>
       <c r="G34"/>
-    </row>
-    <row r="35" spans="1:8" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>631</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="K34" t="s">
+        <v>783</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -3096,8 +5861,20 @@
         <v>107</v>
       </c>
       <c r="G35"/>
-    </row>
-    <row r="36" spans="1:8" ht="288" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>632</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="K35" t="s">
+        <v>785</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -3114,8 +5891,20 @@
         <v>110</v>
       </c>
       <c r="G36"/>
-    </row>
-    <row r="37" spans="1:8" ht="224" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>633</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K36" t="s">
+        <v>787</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -3132,8 +5921,20 @@
         <v>113</v>
       </c>
       <c r="G37"/>
-    </row>
-    <row r="38" spans="1:8" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>634</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K37" t="s">
+        <v>789</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -3150,8 +5951,20 @@
         <v>116</v>
       </c>
       <c r="G38"/>
-    </row>
-    <row r="39" spans="1:8" ht="288" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>635</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K38" t="s">
+        <v>791</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -3168,8 +5981,20 @@
         <v>119</v>
       </c>
       <c r="G39"/>
-    </row>
-    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>636</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="K39" t="s">
+        <v>793</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>1</v>
       </c>
@@ -3183,13 +6008,19 @@
         <v>122</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H40" t="s">
         <v>459</v>
       </c>
-      <c r="H40" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="J40" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="K40" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>2</v>
       </c>
@@ -3203,10 +6034,19 @@
         <v>125</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+      <c r="H41" t="s">
+        <v>637</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="K41" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -3223,8 +6063,20 @@
         <v>128</v>
       </c>
       <c r="G42"/>
-    </row>
-    <row r="43" spans="1:8" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>638</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="K42" t="s">
+        <v>799</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -3241,8 +6093,20 @@
         <v>131</v>
       </c>
       <c r="G43"/>
-    </row>
-    <row r="44" spans="1:8" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>639</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="K43" t="s">
+        <v>801</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -3259,8 +6123,20 @@
         <v>134</v>
       </c>
       <c r="G44"/>
-    </row>
-    <row r="45" spans="1:8" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>640</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K44" t="s">
+        <v>803</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -3277,8 +6153,20 @@
         <v>137</v>
       </c>
       <c r="G45"/>
-    </row>
-    <row r="46" spans="1:8" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>641</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="K45" t="s">
+        <v>805</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -3295,8 +6183,20 @@
         <v>140</v>
       </c>
       <c r="G46"/>
-    </row>
-    <row r="47" spans="1:8" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>642</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="K46" t="s">
+        <v>807</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -3313,8 +6213,20 @@
         <v>143</v>
       </c>
       <c r="G47"/>
-    </row>
-    <row r="48" spans="1:8" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>643</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="K47" t="s">
+        <v>809</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -3331,8 +6243,20 @@
         <v>146</v>
       </c>
       <c r="G48"/>
-    </row>
-    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>644</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="K48" t="s">
+        <v>811</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>2</v>
       </c>
@@ -3346,10 +6270,19 @@
         <v>149</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="256" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="K49" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="256" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -3366,8 +6299,20 @@
         <v>152</v>
       </c>
       <c r="G50"/>
-    </row>
-    <row r="51" spans="1:7" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>645</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="K50" t="s">
+        <v>815</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -3384,8 +6329,20 @@
         <v>155</v>
       </c>
       <c r="G51"/>
-    </row>
-    <row r="52" spans="1:7" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>646</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="K51" t="s">
+        <v>817</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -3402,8 +6359,20 @@
         <v>158</v>
       </c>
       <c r="G52"/>
-    </row>
-    <row r="53" spans="1:7" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>647</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="K52" t="s">
+        <v>819</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -3420,8 +6389,20 @@
         <v>161</v>
       </c>
       <c r="G53"/>
-    </row>
-    <row r="54" spans="1:7" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>648</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="K53" t="s">
+        <v>821</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -3438,8 +6419,20 @@
         <v>164</v>
       </c>
       <c r="G54"/>
-    </row>
-    <row r="55" spans="1:7" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>649</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="K54" t="s">
+        <v>823</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -3456,8 +6449,20 @@
         <v>167</v>
       </c>
       <c r="G55"/>
-    </row>
-    <row r="56" spans="1:7" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>650</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="K55" t="s">
+        <v>825</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -3474,8 +6479,20 @@
         <v>170</v>
       </c>
       <c r="G56"/>
-    </row>
-    <row r="57" spans="1:7" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>651</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="K56" t="s">
+        <v>827</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -3492,8 +6509,20 @@
         <v>173</v>
       </c>
       <c r="G57"/>
-    </row>
-    <row r="58" spans="1:7" ht="64" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>652</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K57" t="s">
+        <v>829</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -3510,8 +6539,20 @@
         <v>176</v>
       </c>
       <c r="G58"/>
-    </row>
-    <row r="59" spans="1:7" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>653</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="K58" t="s">
+        <v>831</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -3528,8 +6569,20 @@
         <v>179</v>
       </c>
       <c r="G59"/>
-    </row>
-    <row r="60" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
+        <v>654</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="K59" t="s">
+        <v>833</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>2</v>
       </c>
@@ -3543,10 +6596,19 @@
         <v>182</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="K60" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -3563,8 +6625,20 @@
         <v>185</v>
       </c>
       <c r="G61"/>
-    </row>
-    <row r="62" spans="1:7" ht="365" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H61" t="s">
+        <v>655</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="K61" t="s">
+        <v>837</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="365" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -3581,8 +6655,20 @@
         <v>188</v>
       </c>
       <c r="G62"/>
-    </row>
-    <row r="63" spans="1:7" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>656</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="K62" t="s">
+        <v>839</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -3599,8 +6685,20 @@
         <v>191</v>
       </c>
       <c r="G63"/>
-    </row>
-    <row r="64" spans="1:7" ht="320" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>657</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="K63" t="s">
+        <v>841</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="320" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -3617,8 +6715,20 @@
         <v>194</v>
       </c>
       <c r="G64"/>
-    </row>
-    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H64" t="s">
+        <v>658</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="K64" t="s">
+        <v>843</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>1</v>
       </c>
@@ -3632,13 +6742,19 @@
         <v>197</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="H65" t="s">
+        <v>462</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="K65" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>2</v>
       </c>
@@ -3652,10 +6768,19 @@
         <v>200</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+      <c r="H66" t="s">
+        <v>659</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="K66" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -3672,8 +6797,20 @@
         <v>203</v>
       </c>
       <c r="G67"/>
-    </row>
-    <row r="68" spans="1:8" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>660</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="K67" t="s">
+        <v>849</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -3690,8 +6827,20 @@
         <v>206</v>
       </c>
       <c r="G68"/>
-    </row>
-    <row r="69" spans="1:8" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H68" t="s">
+        <v>661</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="K68" t="s">
+        <v>851</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -3708,8 +6857,20 @@
         <v>209</v>
       </c>
       <c r="G69"/>
-    </row>
-    <row r="70" spans="1:8" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H69" t="s">
+        <v>662</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="K69" t="s">
+        <v>853</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -3726,8 +6887,20 @@
         <v>212</v>
       </c>
       <c r="G70"/>
-    </row>
-    <row r="71" spans="1:8" ht="224" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H70" t="s">
+        <v>663</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="K70" t="s">
+        <v>855</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -3744,8 +6917,20 @@
         <v>215</v>
       </c>
       <c r="G71"/>
-    </row>
-    <row r="72" spans="1:8" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
+        <v>664</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="K71" t="s">
+        <v>857</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -3762,8 +6947,20 @@
         <v>218</v>
       </c>
       <c r="G72"/>
-    </row>
-    <row r="73" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>665</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="K72" t="s">
+        <v>859</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>2</v>
       </c>
@@ -3777,10 +6974,19 @@
         <v>221</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="256" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="K73" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="256" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -3797,8 +7003,20 @@
         <v>224</v>
       </c>
       <c r="G74"/>
-    </row>
-    <row r="75" spans="1:8" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
+        <v>666</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="K74" t="s">
+        <v>863</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -3815,8 +7033,20 @@
         <v>227</v>
       </c>
       <c r="G75"/>
-    </row>
-    <row r="76" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H75" t="s">
+        <v>667</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="K75" t="s">
+        <v>865</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>2</v>
       </c>
@@ -3830,10 +7060,19 @@
         <v>230</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="K76" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -3850,8 +7089,20 @@
         <v>233</v>
       </c>
       <c r="G77"/>
-    </row>
-    <row r="78" spans="1:8" ht="224" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>668</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="K77" t="s">
+        <v>869</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -3868,8 +7119,20 @@
         <v>236</v>
       </c>
       <c r="G78"/>
-    </row>
-    <row r="79" spans="1:8" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>669</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="K78" t="s">
+        <v>871</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -3886,8 +7149,20 @@
         <v>239</v>
       </c>
       <c r="G79"/>
-    </row>
-    <row r="80" spans="1:8" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>670</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="K79" t="s">
+        <v>873</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -3904,8 +7179,20 @@
         <v>242</v>
       </c>
       <c r="G80"/>
-    </row>
-    <row r="81" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H80" t="s">
+        <v>671</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="K80" t="s">
+        <v>875</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>2</v>
       </c>
@@ -3919,10 +7206,19 @@
         <v>245</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="K81" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -3939,8 +7235,20 @@
         <v>248</v>
       </c>
       <c r="G82"/>
-    </row>
-    <row r="83" spans="1:8" ht="272" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
+        <v>672</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="K82" t="s">
+        <v>879</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -3957,8 +7265,20 @@
         <v>251</v>
       </c>
       <c r="G83"/>
-    </row>
-    <row r="84" spans="1:8" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H83" t="s">
+        <v>673</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="K83" t="s">
+        <v>881</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -3975,8 +7295,20 @@
         <v>254</v>
       </c>
       <c r="G84"/>
-    </row>
-    <row r="85" spans="1:8" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H84" t="s">
+        <v>674</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="K84" t="s">
+        <v>883</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -3993,8 +7325,20 @@
         <v>257</v>
       </c>
       <c r="G85"/>
-    </row>
-    <row r="86" spans="1:8" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H85" t="s">
+        <v>675</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="K85" t="s">
+        <v>885</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -4011,8 +7355,20 @@
         <v>260</v>
       </c>
       <c r="G86"/>
-    </row>
-    <row r="87" spans="1:8" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H86" t="s">
+        <v>676</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="K86" t="s">
+        <v>887</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -4029,8 +7385,20 @@
         <v>263</v>
       </c>
       <c r="G87"/>
-    </row>
-    <row r="88" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H87" t="s">
+        <v>677</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="K87" t="s">
+        <v>889</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>2</v>
       </c>
@@ -4044,10 +7412,19 @@
         <v>266</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="256" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="K88" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="256" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -4064,8 +7441,20 @@
         <v>269</v>
       </c>
       <c r="G89"/>
-    </row>
-    <row r="90" spans="1:8" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H89" t="s">
+        <v>678</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="K89" t="s">
+        <v>893</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -4082,8 +7471,20 @@
         <v>272</v>
       </c>
       <c r="G90"/>
-    </row>
-    <row r="91" spans="1:8" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H90" t="s">
+        <v>679</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="K90" t="s">
+        <v>895</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -4100,8 +7501,20 @@
         <v>275</v>
       </c>
       <c r="G91"/>
-    </row>
-    <row r="92" spans="1:8" ht="64" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H91" t="s">
+        <v>680</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="K91" t="s">
+        <v>897</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -4118,8 +7531,20 @@
         <v>278</v>
       </c>
       <c r="G92"/>
-    </row>
-    <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H92" t="s">
+        <v>681</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="K92" t="s">
+        <v>899</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>1</v>
       </c>
@@ -4133,13 +7558,19 @@
         <v>281</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H93" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="K93" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>2</v>
       </c>
@@ -4153,10 +7584,19 @@
         <v>284</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+      <c r="H94" t="s">
+        <v>682</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="K94" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -4173,8 +7613,20 @@
         <v>287</v>
       </c>
       <c r="G95"/>
-    </row>
-    <row r="96" spans="1:8" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H95" t="s">
+        <v>683</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="K95" t="s">
+        <v>905</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -4191,8 +7643,20 @@
         <v>290</v>
       </c>
       <c r="G96"/>
-    </row>
-    <row r="97" spans="1:8" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H96" t="s">
+        <v>684</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="K96" t="s">
+        <v>907</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -4209,8 +7673,20 @@
         <v>293</v>
       </c>
       <c r="G97"/>
-    </row>
-    <row r="98" spans="1:8" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H97" t="s">
+        <v>685</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="K97" t="s">
+        <v>909</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -4227,8 +7703,20 @@
         <v>296</v>
       </c>
       <c r="G98"/>
-    </row>
-    <row r="99" spans="1:8" ht="272" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H98" t="s">
+        <v>686</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="K98" t="s">
+        <v>911</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -4245,8 +7733,20 @@
         <v>299</v>
       </c>
       <c r="G99"/>
-    </row>
-    <row r="100" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H99" t="s">
+        <v>687</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="K99" t="s">
+        <v>913</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>2</v>
       </c>
@@ -4260,10 +7760,19 @@
         <v>302</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="K100" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -4280,8 +7789,20 @@
         <v>305</v>
       </c>
       <c r="G101"/>
-    </row>
-    <row r="102" spans="1:8" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H101" t="s">
+        <v>688</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="K101" t="s">
+        <v>917</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -4298,8 +7819,20 @@
         <v>308</v>
       </c>
       <c r="G102"/>
-    </row>
-    <row r="103" spans="1:8" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H102" t="s">
+        <v>689</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="K102" t="s">
+        <v>919</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -4316,8 +7849,20 @@
         <v>311</v>
       </c>
       <c r="G103"/>
-    </row>
-    <row r="104" spans="1:8" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H103" t="s">
+        <v>690</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="K103" t="s">
+        <v>921</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -4334,8 +7879,20 @@
         <v>314</v>
       </c>
       <c r="G104"/>
-    </row>
-    <row r="105" spans="1:8" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H104" t="s">
+        <v>691</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="K104" t="s">
+        <v>923</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -4352,8 +7909,20 @@
         <v>317</v>
       </c>
       <c r="G105"/>
-    </row>
-    <row r="106" spans="1:8" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H105" t="s">
+        <v>692</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="K105" t="s">
+        <v>925</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -4370,8 +7939,20 @@
         <v>320</v>
       </c>
       <c r="G106"/>
-    </row>
-    <row r="107" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H106" t="s">
+        <v>693</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="K106" t="s">
+        <v>927</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B107">
         <v>1</v>
       </c>
@@ -4385,13 +7966,19 @@
         <v>323</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+      <c r="H107" t="s">
+        <v>466</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="K107" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B108">
         <v>2</v>
       </c>
@@ -4405,10 +7992,19 @@
         <v>326</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+      <c r="H108" t="s">
+        <v>694</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="K108" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -4425,8 +8021,20 @@
         <v>329</v>
       </c>
       <c r="G109"/>
-    </row>
-    <row r="110" spans="1:8" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H109" t="s">
+        <v>695</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="K109" t="s">
+        <v>933</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -4443,8 +8051,20 @@
         <v>332</v>
       </c>
       <c r="G110"/>
-    </row>
-    <row r="111" spans="1:8" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H110" t="s">
+        <v>696</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="K110" t="s">
+        <v>935</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -4461,8 +8081,20 @@
         <v>335</v>
       </c>
       <c r="G111"/>
-    </row>
-    <row r="112" spans="1:8" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H111" t="s">
+        <v>697</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="K111" t="s">
+        <v>937</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -4479,8 +8111,20 @@
         <v>338</v>
       </c>
       <c r="G112"/>
-    </row>
-    <row r="113" spans="1:8" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H112" t="s">
+        <v>698</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="K112" t="s">
+        <v>939</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -4497,8 +8141,20 @@
         <v>341</v>
       </c>
       <c r="G113"/>
-    </row>
-    <row r="114" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H113" t="s">
+        <v>699</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="K113" t="s">
+        <v>941</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B114">
         <v>2</v>
       </c>
@@ -4512,10 +8168,19 @@
         <v>344</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K114" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -4532,8 +8197,20 @@
         <v>347</v>
       </c>
       <c r="G115"/>
-    </row>
-    <row r="116" spans="1:8" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H115" t="s">
+        <v>700</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="K115" t="s">
+        <v>945</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -4550,8 +8227,20 @@
         <v>350</v>
       </c>
       <c r="G116"/>
-    </row>
-    <row r="117" spans="1:8" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H116" t="s">
+        <v>701</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="K116" t="s">
+        <v>947</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -4568,8 +8257,20 @@
         <v>353</v>
       </c>
       <c r="G117"/>
-    </row>
-    <row r="118" spans="1:8" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H117" t="s">
+        <v>702</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="K117" t="s">
+        <v>949</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -4586,8 +8287,20 @@
         <v>356</v>
       </c>
       <c r="G118"/>
-    </row>
-    <row r="119" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H118" t="s">
+        <v>703</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="K118" t="s">
+        <v>951</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B119">
         <v>2</v>
       </c>
@@ -4601,10 +8314,19 @@
         <v>359</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="K119" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -4621,8 +8343,20 @@
         <v>362</v>
       </c>
       <c r="G120"/>
-    </row>
-    <row r="121" spans="1:8" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H120" t="s">
+        <v>704</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="K120" t="s">
+        <v>955</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -4639,8 +8373,20 @@
         <v>365</v>
       </c>
       <c r="G121"/>
-    </row>
-    <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H121" t="s">
+        <v>705</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="K121" t="s">
+        <v>957</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B122">
         <v>2</v>
       </c>
@@ -4654,10 +8400,19 @@
         <v>368</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="208" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+      <c r="H122" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="K122" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -4674,8 +8429,20 @@
         <v>371</v>
       </c>
       <c r="G123"/>
-    </row>
-    <row r="124" spans="1:8" ht="176" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H123" t="s">
+        <v>706</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="K123" t="s">
+        <v>961</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -4692,8 +8459,20 @@
         <v>374</v>
       </c>
       <c r="G124"/>
-    </row>
-    <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H124" t="s">
+        <v>707</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="K124" t="s">
+        <v>963</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B125">
         <v>1</v>
       </c>
@@ -4707,13 +8486,19 @@
         <v>377</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="H125" s="2" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H125" t="s">
+        <v>467</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="K125" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B126">
         <v>2</v>
       </c>
@@ -4727,10 +8512,19 @@
         <v>380</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+      <c r="H126" t="s">
+        <v>708</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="K126" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -4747,8 +8541,20 @@
         <v>383</v>
       </c>
       <c r="G127"/>
-    </row>
-    <row r="128" spans="1:8" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H127" t="s">
+        <v>709</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="K127" t="s">
+        <v>969</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -4765,8 +8571,20 @@
         <v>386</v>
       </c>
       <c r="G128"/>
-    </row>
-    <row r="129" spans="1:7" ht="64" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H128" t="s">
+        <v>710</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="K128" t="s">
+        <v>971</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -4783,8 +8601,20 @@
         <v>389</v>
       </c>
       <c r="G129"/>
-    </row>
-    <row r="130" spans="1:7" ht="160" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H129" t="s">
+        <v>711</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="K129" t="s">
+        <v>973</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -4801,8 +8631,20 @@
         <v>392</v>
       </c>
       <c r="G130"/>
-    </row>
-    <row r="131" spans="1:7" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H130" t="s">
+        <v>712</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="K130" t="s">
+        <v>975</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -4819,8 +8661,20 @@
         <v>395</v>
       </c>
       <c r="G131"/>
-    </row>
-    <row r="132" spans="1:7" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H131" t="s">
+        <v>713</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="K131" t="s">
+        <v>977</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -4837,8 +8691,20 @@
         <v>398</v>
       </c>
       <c r="G132"/>
-    </row>
-    <row r="133" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H132" t="s">
+        <v>714</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="K132" t="s">
+        <v>979</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B133">
         <v>2</v>
       </c>
@@ -4852,10 +8718,19 @@
         <v>401</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="K133" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -4872,8 +8747,20 @@
         <v>404</v>
       </c>
       <c r="G134"/>
-    </row>
-    <row r="135" spans="1:7" ht="1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H134" t="s">
+        <v>715</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="K134" t="s">
+        <v>983</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -4890,26 +8777,30 @@
         <v>407</v>
       </c>
       <c r="G135"/>
+      <c r="H135" t="s">
+        <v>716</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="K135" t="s">
+        <v>985</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>986</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F135" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1"/>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2A9460-ABFE-D94A-A339-D6A58073F6E8}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4918,9 +8809,11 @@
     <col min="3" max="3" width="114.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="105.5" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>435</v>
       </c>
@@ -4936,8 +8829,14 @@
       <c r="E1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>717</v>
+      </c>
+      <c r="G1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4953,8 +8852,14 @@
       <c r="E2" s="4" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="F2" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4970,8 +8875,14 @@
       <c r="E3" s="4" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="F3" s="9" t="s">
+        <v>989</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4987,8 +8898,14 @@
       <c r="E4" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="F4" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5004,8 +8921,14 @@
       <c r="E5" s="2" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="2"/>
     </row>
   </sheetData>
